--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -664,6 +664,9 @@
     <t xml:space="preserve">Dugbog</t>
   </si>
   <si>
+    <t xml:space="preserve">Mammalia Magicae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avatar of Fire</t>
   </si>
   <si>
@@ -815,9 +818,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jarvey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mammalia Magicae</t>
   </si>
   <si>
     <t xml:space="preserve">Kneazle</t>
@@ -1131,11 +1131,11 @@
   <dimension ref="A1:AD121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X3" activeCellId="0" sqref="X3"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2380,7 +2380,7 @@
         <v>156</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>32</v>
@@ -2391,52 +2391,52 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>32</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>32</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>44</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>32</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>44</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>32</v>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>32</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>32</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>32</v>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>32</v>
@@ -2573,66 +2573,66 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="D57" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>64</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>64</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>64</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>44</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>44</v>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>44</v>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>44</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>32</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>44</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>32</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>44</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>32</v>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>64</v>
@@ -2811,52 +2811,52 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>32</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>32</v>
@@ -2881,24 +2881,24 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>32</v>
@@ -2909,24 +2909,24 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>32</v>
@@ -2940,7 +2940,7 @@
         <v>209</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>44</v>
@@ -2954,7 +2954,7 @@
         <v>210</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>32</v>
@@ -2968,7 +2968,7 @@
         <v>211</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>32</v>
@@ -2982,7 +2982,7 @@
         <v>212</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>32</v>
@@ -2996,7 +2996,7 @@
         <v>213</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>32</v>
@@ -3010,7 +3010,7 @@
         <v>214</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>32</v>
@@ -3268,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3282,7 @@
         <v>64</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,7 +3296,7 @@
         <v>32</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3310,7 @@
         <v>32</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,7 +3338,7 @@
         <v>32</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3408,7 @@
         <v>32</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\GameMasterGuide\Data\Beasts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183628B-B2D8-40A8-A834-55130556F377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1454DF-1944-4951-A151-85B0B3CF4EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$1</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="357">
   <si>
     <t>SpeciesOrder</t>
   </si>
@@ -1031,9 +1031,6 @@
     <t>Sea Serpent</t>
   </si>
   <si>
-    <t>Strength (+3), Observation (+9), Nightvision</t>
-  </si>
-  <si>
     <t>Wolf Demon</t>
   </si>
   <si>
@@ -1056,13 +1053,113 @@
   </si>
   <si>
     <t>NeedsPage</t>
+  </si>
+  <si>
+    <t>Sightless Tracker</t>
+  </si>
+  <si>
+    <t>25 metres</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Strength (+4), Observation (+10), Nightvision</t>
+  </si>
+  <si>
+    <t>Animalistic Fighter</t>
+  </si>
+  <si>
+    <t>Voidic</t>
+  </si>
+  <si>
+    <t>All spoken languages</t>
+  </si>
+  <si>
+    <t>Necrotic</t>
+  </si>
+  <si>
+    <t>Eldritch Domains</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disgusting pale-white creature with 6 legs and a face which is entirely featureless except a gaping red maw. 
+Incredibly fast, and with powerful alien senses the Death Hunter serves one purpose: to track and hunt down their target across dimensions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All sensory effects, {\it Charmed} and {\it Terrified} status effects. </t>
+  </si>
+  <si>
+    <t>\melee{Bludgeon}{+11}{Deals 6+1d6 bludgeoning damage}
+\melee{Bite}{+10}{Deals 6 + 2d8 piercing damage}
+\ability{Pounce}{As a major action, a Death Hunter may leap up to 5 metres towards a target, and take a combined Bludgeon and Bite attack.}
+\ability{Call Allies}{As a major action, a Death Hunter may raise their head to the heavens and howl a phrase in Voidic, stretching across dimensions, alerting their masters that they have found their quarry. This opens a portal through which the rest of the hunting party may appear.}</t>
+  </si>
+  <si>
+    <t>Speed (+11), Stealth (+4), Observation (+10), Intimidation (+7)</t>
+  </si>
+  <si>
+    <t>\ability{Alien Senses}{A Death Hunter does not use conventional senses to percieve the world around it. It is therefore immune to effects such as Blindness and Deafness, and can see in perfect darkness}
+\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Death Hunter. The Death Hunter gets advantage on all Resist Checks against magic spells.}
+\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
+\ability{Void Walk}{As Abyssal Spawn, the Death Hunter can , with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
+  </si>
+  <si>
+    <t>Strength (+11), Intimidation (+10)</t>
+  </si>
+  <si>
+    <t>\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Flesh Ripper. They get advantage on all Resist Checks against magic spells.}
+\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
+\ability{Void Walk}{As Abyssal Spawn, the Flesh Ripper can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hulking mass of rotting, oily flesh covered in a bony exoskeleton which seems to twist and warp in multiple dimensions. The Flesh Ripper\apos{}s role is as a heavy assault weapon. It is aided in this by it\apos{}s long, scorpion like tail, which ends in a vicious barb. This tail is used to spear beings, before dragging them, helpless, into its maw. </t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+12}{Deals 4d8 piercing damage. On a failed DV 15 Vitality Resist, target takes an additional 4d8 necrotic damage. }
+\melee{Harpoon Tail}{Range: 10 metres, +7}{Deals 5d6 piercing damage, and initiates a grapple action.}
+\ability{Devour}{Consume a target being in melee range which is {\it Incapacitated}, instantly killing the being and restoring 4d20 Health points.} 
+\ranged{Voidic Bile}{+7}{50 metres}{Spits a gout of black bile which does 3d6 each of Acid, Necrotic and Poison Damage}</t>
+  </si>
+  <si>
+    <t>Mistress of Lies</t>
+  </si>
+  <si>
+    <t>1.7 metres</t>
+  </si>
+  <si>
+    <t>Deception (+12), Persuasion (+12), Willpower (+9)</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Mind Shredder. They get advantage on all Resist Checks against magic spells.}
+\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
+\ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
+  </si>
+  <si>
+    <t>\ability{Spellcasting}{A Mind Shredder can perform the following spells as silent, wandless actions:
+\beastSpellList{
+\beastSpell{Beginner}{Glamour, Chaotic Whispers, Piercing Wail, Force Shield}
+\beastSpell{Novice}{Horrific Araments, Necrosis, Silent Illusion}
+\beastSpell{Adept}{Voidsphere, Entrance Other, Speak in Tongues}
+\beastSpell{Expert}{Delusion, Psychosis, Waking Dream}
+\beastSpell{Master}{Modify Memory, Psionic Overload}
+}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A monstrous female form, all protruding fangs and tentacles lies behind layers of illusions and deception. Created by the Abyssal Masters for the express purpose of infiltration of the minds of their foes, the Mind Shredder is weak in body, but wields immense psionic powers. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1093,6 +1190,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1114,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1145,6 +1254,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1460,13 +1581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK132"/>
+  <dimension ref="A1:AML132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG23" sqref="AG23"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,24 +1601,24 @@
     <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="70.5703125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="56.140625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="22.42578125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="1" customWidth="1"/>
-    <col min="31" max="31" width="68.85546875" style="1" customWidth="1"/>
-    <col min="32" max="1025" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="18" width="7.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="70.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="56.140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="1" customWidth="1"/>
+    <col min="32" max="32" width="68.85546875" style="1" customWidth="1"/>
+    <col min="33" max="1026" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1550,58 +1671,64 @@
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
@@ -1614,18 +1741,101 @@
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="1">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" s="1">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AF2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:35" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
@@ -1638,41 +1848,97 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="1" t="s">
+      <c r="F3" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="12">
+        <v>140</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="11">
+        <v>20</v>
+      </c>
+      <c r="K3" s="11">
+        <v>15</v>
+      </c>
+      <c r="L3" s="11">
+        <v>17</v>
+      </c>
+      <c r="M3" s="11">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11">
+        <v>16</v>
+      </c>
+      <c r="O3" s="11">
+        <v>17</v>
+      </c>
+      <c r="P3" s="11">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>18</v>
+      </c>
+      <c r="R3" s="11">
+        <v>6</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="T3" s="11">
+        <v>18</v>
+      </c>
+      <c r="U3" s="11">
+        <v>13</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="AI3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:35" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
@@ -1685,41 +1951,101 @@
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="1" t="s">
+      <c r="F4" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="12">
+        <v>60</v>
+      </c>
+      <c r="H4" s="12">
+        <v>70</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="11">
+        <v>10</v>
+      </c>
+      <c r="K4" s="11">
+        <v>14</v>
+      </c>
+      <c r="L4" s="11">
+        <v>18</v>
+      </c>
+      <c r="M4" s="11">
+        <v>24</v>
+      </c>
+      <c r="N4" s="11">
+        <v>20</v>
+      </c>
+      <c r="O4" s="11">
+        <v>15</v>
+      </c>
+      <c r="P4" s="11">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>22</v>
+      </c>
+      <c r="R4" s="11">
+        <v>6</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="T4" s="11">
+        <v>11</v>
+      </c>
+      <c r="U4" s="11">
+        <v>14</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="AI4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
@@ -1732,44 +2058,51 @@
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="1" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11">
+        <v>20</v>
+      </c>
+      <c r="R5" s="11">
+        <v>5</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="14">
         <v>0.4</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
@@ -1782,40 +2115,46 @@
       <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="1" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11">
+        <v>22</v>
+      </c>
+      <c r="R6" s="11">
+        <v>8</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1867,53 +2206,56 @@
       <c r="Q7" s="1">
         <v>7</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>10</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>12</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1965,59 +2307,62 @@
       <c r="Q8" s="1">
         <v>13</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="1">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>17</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>15</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2069,56 +2414,59 @@
       <c r="Q9" s="1">
         <v>17</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T9" s="1">
         <v>15</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>5</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2134,11 +2482,11 @@
       <c r="E10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AI10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2154,17 +2502,17 @@
       <c r="E11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AH11" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AI11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -2180,11 +2528,11 @@
       <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2200,11 +2548,11 @@
       <c r="E13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2256,50 +2604,50 @@
       <c r="Q14" s="1">
         <v>0</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>10</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z14" s="9" t="s">
+      <c r="AA14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>0.35</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2351,50 +2699,53 @@
       <c r="Q15" s="1">
         <v>3</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>9</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>13</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Z15" s="9" t="s">
+      <c r="AA15" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -2446,53 +2797,56 @@
       <c r="Q16" s="1">
         <v>6</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>5</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>10</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z16" s="9" t="s">
+      <c r="AA16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AG16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>0.45</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2541,50 +2895,53 @@
       <c r="Q17" s="1">
         <v>3</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="1">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>13</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>11</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2633,53 +2990,56 @@
       <c r="Q18" s="1">
         <v>2</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>7</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>14</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AI18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="210" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -2731,50 +3091,53 @@
       <c r="Q19" s="1">
         <v>2</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="1">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>12</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>13</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z19" s="9" t="s">
+      <c r="AA19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AG19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>152</v>
       </c>
@@ -2788,22 +3151,22 @@
         <v>154</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="AF20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AI20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2820,16 +3183,16 @@
         <v>158</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="W21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2846,13 +3209,13 @@
         <v>158</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -2869,13 +3232,13 @@
         <v>158</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2892,19 +3255,19 @@
         <v>127</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="AF24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AH24" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2921,19 +3284,19 @@
         <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="AF25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -2950,19 +3313,19 @@
         <v>127</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="AF26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AH26" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2978,17 +3341,17 @@
       <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE27" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AH27" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -3004,17 +3367,17 @@
       <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE28" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AH28" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3030,17 +3393,17 @@
       <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE29" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AH29" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -3056,17 +3419,17 @@
       <c r="E30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AE30" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AH30" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3082,17 +3445,17 @@
       <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE31" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG31" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AH31" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>182</v>
       </c>
@@ -3105,17 +3468,17 @@
       <c r="E32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE32" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AH32" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>184</v>
       </c>
@@ -3128,11 +3491,11 @@
       <c r="E33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE33" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF33" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>186</v>
       </c>
@@ -3145,11 +3508,11 @@
       <c r="E34" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE34" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF34" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>187</v>
       </c>
@@ -3162,11 +3525,11 @@
       <c r="E35" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE35" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>188</v>
       </c>
@@ -3179,11 +3542,11 @@
       <c r="E36" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE36" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>190</v>
       </c>
@@ -3196,11 +3559,11 @@
       <c r="E37" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE37" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF37" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>191</v>
       </c>
@@ -3213,11 +3576,11 @@
       <c r="E38" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE38" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF38" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>192</v>
       </c>
@@ -3230,11 +3593,11 @@
       <c r="E39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE39" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>193</v>
       </c>
@@ -3247,11 +3610,11 @@
       <c r="E40" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE40" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF40" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>194</v>
       </c>
@@ -3264,11 +3627,11 @@
       <c r="E41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE41" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF41" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>196</v>
       </c>
@@ -3281,11 +3644,11 @@
       <c r="E42" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE42" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>197</v>
       </c>
@@ -3298,11 +3661,11 @@
       <c r="E43" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE43" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF43" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>200</v>
       </c>
@@ -3315,11 +3678,11 @@
       <c r="E44" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE44" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF44" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>201</v>
       </c>
@@ -3332,11 +3695,11 @@
       <c r="E45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE45" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF45" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>202</v>
       </c>
@@ -3349,11 +3712,11 @@
       <c r="E46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE46" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF46" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>204</v>
       </c>
@@ -3366,11 +3729,11 @@
       <c r="E47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE47" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF47" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>206</v>
       </c>
@@ -3383,11 +3746,11 @@
       <c r="E48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE48" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF48" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3403,11 +3766,11 @@
       <c r="E49" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AE49" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF49" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -3423,11 +3786,11 @@
       <c r="E50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE50" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF50" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>211</v>
       </c>
@@ -3440,11 +3803,11 @@
       <c r="E51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE51" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF51" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>213</v>
       </c>
@@ -3457,11 +3820,11 @@
       <c r="E52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>214</v>
       </c>
@@ -3474,11 +3837,11 @@
       <c r="E53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE53" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>215</v>
       </c>
@@ -3491,11 +3854,11 @@
       <c r="E54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE54" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF54" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>216</v>
       </c>
@@ -3508,11 +3871,11 @@
       <c r="E55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AE55" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF55" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>218</v>
       </c>
@@ -3525,11 +3888,11 @@
       <c r="E56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AE56" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF56" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>219</v>
       </c>
@@ -3542,11 +3905,11 @@
       <c r="E57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AE57" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF57" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>220</v>
       </c>
@@ -3559,11 +3922,11 @@
       <c r="E58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AE58" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF58" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>222</v>
       </c>
@@ -3576,11 +3939,11 @@
       <c r="E59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AE59" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF59" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>223</v>
       </c>
@@ -3593,11 +3956,11 @@
       <c r="E60" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AE60" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>224</v>
       </c>
@@ -3610,11 +3973,11 @@
       <c r="E61" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AE61" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF61" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>261</v>
       </c>
@@ -3627,11 +3990,11 @@
       <c r="E62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AE62" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF62" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>226</v>
       </c>
@@ -3644,11 +4007,11 @@
       <c r="E63" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AE63" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF63" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>227</v>
       </c>
@@ -3661,11 +4024,11 @@
       <c r="E64" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AE64" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF64" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>229</v>
       </c>
@@ -3678,11 +4041,11 @@
       <c r="E65" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AE65" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF65" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>230</v>
       </c>
@@ -3695,11 +4058,11 @@
       <c r="E66" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AE66" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF66" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>231</v>
       </c>
@@ -3712,11 +4075,11 @@
       <c r="E67" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE67" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF67" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>232</v>
       </c>
@@ -3729,11 +4092,11 @@
       <c r="E68" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE68" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF68" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>233</v>
       </c>
@@ -3746,11 +4109,11 @@
       <c r="E69" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AE69" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF69" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>235</v>
       </c>
@@ -3763,11 +4126,11 @@
       <c r="E70" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AE70" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>236</v>
       </c>
@@ -3780,11 +4143,11 @@
       <c r="E71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE71" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF71" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>238</v>
       </c>
@@ -3797,11 +4160,11 @@
       <c r="E72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE72" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF72" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>239</v>
       </c>
@@ -3814,11 +4177,11 @@
       <c r="E73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE73" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF73" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>240</v>
       </c>
@@ -3831,11 +4194,11 @@
       <c r="E74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE74" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF74" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>241</v>
       </c>
@@ -3848,11 +4211,11 @@
       <c r="E75" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE75" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF75" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>243</v>
       </c>
@@ -3865,11 +4228,11 @@
       <c r="E76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE76" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>244</v>
       </c>
@@ -3882,11 +4245,11 @@
       <c r="E77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE77" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF77" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>245</v>
       </c>
@@ -3899,11 +4262,11 @@
       <c r="E78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE78" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF78" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>247</v>
       </c>
@@ -3916,11 +4279,11 @@
       <c r="E79" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE79" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF79" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>248</v>
       </c>
@@ -3933,11 +4296,11 @@
       <c r="E80" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE80" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>249</v>
       </c>
@@ -3950,11 +4313,11 @@
       <c r="E81" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE81" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF81" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>250</v>
       </c>
@@ -3967,11 +4330,11 @@
       <c r="E82" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE82" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF82" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>251</v>
       </c>
@@ -3984,11 +4347,11 @@
       <c r="E83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE83" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF83" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>252</v>
       </c>
@@ -4001,11 +4364,11 @@
       <c r="E84" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE84" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF84" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>253</v>
       </c>
@@ -4018,11 +4381,11 @@
       <c r="E85" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AE85" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>255</v>
       </c>
@@ -4035,11 +4398,11 @@
       <c r="E86" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE86" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF86" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>257</v>
       </c>
@@ -4052,11 +4415,11 @@
       <c r="E87" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE87" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF87" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>258</v>
       </c>
@@ -4069,11 +4432,11 @@
       <c r="E88" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE88" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF88" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>259</v>
       </c>
@@ -4086,11 +4449,11 @@
       <c r="E89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE89" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF89" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>260</v>
       </c>
@@ -4103,11 +4466,11 @@
       <c r="E90" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AE90" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF90" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>262</v>
       </c>
@@ -4120,11 +4483,11 @@
       <c r="E91" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE91" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF91" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
         <v>263</v>
       </c>
@@ -4137,11 +4500,11 @@
       <c r="E92" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE92" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF92" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>264</v>
       </c>
@@ -4154,11 +4517,11 @@
       <c r="E93" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE93" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF93" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>266</v>
       </c>
@@ -4171,11 +4534,11 @@
       <c r="E94" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE94" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF94" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
         <v>267</v>
       </c>
@@ -4188,11 +4551,11 @@
       <c r="E95" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE95" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF95" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>268</v>
       </c>
@@ -4205,11 +4568,11 @@
       <c r="E96" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AE96" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF96" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>271</v>
       </c>
@@ -4222,11 +4585,11 @@
       <c r="E97" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AE97" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF97" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>272</v>
       </c>
@@ -4239,11 +4602,11 @@
       <c r="E98" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AE98" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF98" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>273</v>
       </c>
@@ -4256,11 +4619,11 @@
       <c r="E99" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE99" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF99" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
         <v>275</v>
       </c>
@@ -4273,11 +4636,11 @@
       <c r="E100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE100" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF100" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
         <v>276</v>
       </c>
@@ -4290,11 +4653,11 @@
       <c r="E101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE101" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF101" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
         <v>277</v>
       </c>
@@ -4307,11 +4670,11 @@
       <c r="E102" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE102" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF102" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
         <v>279</v>
       </c>
@@ -4324,11 +4687,11 @@
       <c r="E103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE103" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF103" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>280</v>
       </c>
@@ -4341,11 +4704,11 @@
       <c r="E104" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE104" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF104" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
         <v>281</v>
       </c>
@@ -4358,11 +4721,11 @@
       <c r="E105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE105" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF105" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>282</v>
       </c>
@@ -4375,11 +4738,11 @@
       <c r="E106" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE106" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF106" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
         <v>284</v>
       </c>
@@ -4392,11 +4755,11 @@
       <c r="E107" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE107" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF107" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
         <v>285</v>
       </c>
@@ -4409,11 +4772,11 @@
       <c r="E108" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE108" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF108" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
         <v>286</v>
       </c>
@@ -4426,11 +4789,11 @@
       <c r="E109" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE109" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF109" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
         <v>288</v>
       </c>
@@ -4443,11 +4806,11 @@
       <c r="E110" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AE110" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF110" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B111" s="9" t="s">
         <v>289</v>
       </c>
@@ -4460,11 +4823,11 @@
       <c r="E111" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE111" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF111" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>290</v>
       </c>
@@ -4477,11 +4840,11 @@
       <c r="E112" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AE112" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF112" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>292</v>
       </c>
@@ -4494,11 +4857,11 @@
       <c r="E113" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AE113" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF113" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
         <v>293</v>
       </c>
@@ -4511,11 +4874,11 @@
       <c r="E114" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE114" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF114" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
         <v>295</v>
       </c>
@@ -4528,11 +4891,11 @@
       <c r="E115" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE115" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF115" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
         <v>297</v>
       </c>
@@ -4545,11 +4908,11 @@
       <c r="E116" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE116" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF116" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
         <v>298</v>
       </c>
@@ -4562,11 +4925,11 @@
       <c r="E117" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE117" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF117" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>299</v>
       </c>
@@ -4579,11 +4942,11 @@
       <c r="E118" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE118" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF118" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
         <v>300</v>
       </c>
@@ -4596,11 +4959,11 @@
       <c r="E119" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE119" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF119" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>302</v>
       </c>
@@ -4613,11 +4976,11 @@
       <c r="E120" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE120" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF120" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
         <v>303</v>
       </c>
@@ -4630,11 +4993,11 @@
       <c r="E121" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE121" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF121" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>304</v>
       </c>
@@ -4647,11 +5010,11 @@
       <c r="E122" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AE122" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF122" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>306</v>
       </c>
@@ -4664,11 +5027,11 @@
       <c r="E123" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE123" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF123" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
         <v>308</v>
       </c>
@@ -4681,11 +5044,11 @@
       <c r="E124" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE124" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF124" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B125" s="9" t="s">
         <v>309</v>
       </c>
@@ -4698,11 +5061,11 @@
       <c r="E125" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE125" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="2:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF125" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
         <v>310</v>
       </c>
@@ -4715,17 +5078,17 @@
       <c r="E126" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE126" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF126" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG126" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AG126" s="1">
+      <c r="AH126" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B127" s="9" t="s">
         <v>313</v>
       </c>
@@ -4738,17 +5101,17 @@
       <c r="E127" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE127" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF127" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG127" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AG127" s="1">
+      <c r="AH127" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
         <v>315</v>
       </c>
@@ -4761,17 +5124,17 @@
       <c r="E128" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE128" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF128" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG128" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AG128" s="1">
+      <c r="AH128" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="129" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>317</v>
       </c>
@@ -4784,11 +5147,11 @@
       <c r="E129" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AE129" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF129" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>319</v>
       </c>
@@ -4801,11 +5164,11 @@
       <c r="E130" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE130" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF130" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B131" s="9" t="s">
         <v>320</v>
       </c>
@@ -4818,11 +5181,11 @@
       <c r="E131" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE131" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF131" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
         <v>322</v>
       </c>
@@ -4835,17 +5198,17 @@
       <c r="E132" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE132" s="1" t="s">
+      <c r="AF132" s="1" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG132">
+  <autoFilter ref="A1:AH1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH132">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="368">
   <si>
     <t xml:space="preserve">SpeciesOrder</t>
   </si>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Speed (+11), Stealth (+4), Observation (+10), Intimidation (+7)</t>
   </si>
   <si>
-    <t xml:space="preserve">All sensory effects, {\it Charmed} and {\it Terrified} status effects. </t>
+    <t xml:space="preserve">Cold damage, All sensory effects, {\it Charmed} and {\it Terrified} status effects. </t>
   </si>
   <si>
     <t xml:space="preserve">Necrotic</t>
@@ -206,6 +206,9 @@
     <t xml:space="preserve">Strength (+11), Intimidation (+10)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cold</t>
+  </si>
+  <si>
     <t xml:space="preserve">\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Flesh Ripper. They get advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
 \ability{Void Walk}{As Abyssal Spawn, the Flesh Ripper can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
@@ -235,7 +238,7 @@
     <t xml:space="preserve">Deception (+12), Persuasion (+12), Willpower (+9)</t>
   </si>
   <si>
-    <t xml:space="preserve">Psychic</t>
+    <t xml:space="preserve">Psychic, Cold</t>
   </si>
   <si>
     <t xml:space="preserve">\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Mind Shredder. They get advantage on all Resist Checks against magic spells.}
@@ -272,7 +275,7 @@
     <t xml:space="preserve">Eldritch Arcane Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Willpower (+11), Arcane (+12), Unnature (+12)</t>
+    <t xml:space="preserve">Willpower (+11), Arcane (+10), Unnature (+10)</t>
   </si>
   <si>
     <t xml:space="preserve">\ability{Necrotic Shroud}{The Soul Devourer is surrounded by a field of negative energy. Any being which spends any part of their turn within 2 metres of the Soul Devourer takes 3d8 necrotic damage.}
@@ -282,25 +285,8 @@
 \ability{Void Walk}{As Abyssal Spawn, the Soul Devourer can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Shroud Flare}{As a minor action, the Soul Devourer can push its {\it Necrotic Shroud} outwards, expanding to a radius of 2 + 1d6 metres, where it remains until the end of the next turn cycle.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Spellcasting}{A Soul Devourer can perform the following spells as silent, wandless actions, and upcast them all to Master level:
+    <t xml:space="preserve">\ability{Shroud Flare}{As a minor action, the Soul Devourer can push its {\it Necrotic Shroud} outwards, expanding to a radius of 2 + 1d6 metres, where it remains until the end of the next turn cycle.}
+\ability{Spellcasting}{A Soul Devourer can perform the following spells as silent, wandless actions, and upcast them all to Master level:
 \beastSpellList{
 \beastSpell{Beginner}{Shadow Blast, Vicious Slash, Shroud of Darkness}
 \beastSpell{Novice}{Necrosis, Blight, Crippling Fatigue, Counterspell}
@@ -309,7 +295,6 @@
 \beastSpell{Master}{Burning Blood, Word of Death, Selfshift}
 }
 }</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">The Soul Devourer is the arcane expert of the Abyssal army, using the souls of the fallen – even their own allies – to cast powerful magics.</t>
@@ -321,6 +306,43 @@
     <t xml:space="preserve">Wielder-of-Night</t>
   </si>
   <si>
+    <t xml:space="preserve">Eldritch General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willpower (+10), Logic (+13), Investigation (+12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic, Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Soul Devourer. They get advantage on all Resist Checks against magic spells.}
+\ability{Terrifying Visage}{When a being first sees a member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creature. All terrified beings must reperform the check again, take 5d6 psychic damage on a failure.}
+\ability{Void Walk}{As Abyssal Spawn, the Soul Devourer can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Abyssal Scythe}{+10}{Deals 4 + 1d4 slashing damage. On a failed DV 15 vitality Resist, deals an additional 3d6 cold damage.}
+\melee{Tentacle Strike}{+7}{Deals 3 + 1d4 bludgeoning damage and allows the Wielder-of-Night to initiate a grapple}. 
+\ability{Spellcasting}{A Wielder-of-Night can perform the following spells as silent, wandless actions, and upcast them to Master level:
+\beastSpellList{
+\beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast}
+\beastSpell{Novice}{Abyssal Fluid, Necrosis}
+\beastSpell{Expert}{Arctic Blast, Black Dragon\apos{}s Fury}
+}
+}
+\ability{Multiattack}{The wielder of night may make up to 4 attacks per turn, with no more than 2 of them being of the same type.}
+\ability{Command Legions}{The Wielder-of-Night may use their major action to command any other Abyssal Spawn in hearing, giving them check-advantage on their next check.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The general of the Abyssal Armies, commanding untold legions of lesser creatures. They wield an enormous scythe, which crackles with frost. </t>
+  </si>
+  <si>
     <t xml:space="preserve">spawn</t>
   </si>
   <si>
@@ -337,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">Newborn Giant Spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 metres</t>
   </si>
   <si>
     <t xml:space="preserve">Stealth (+4), Nightvision</t>
@@ -395,9 +414,6 @@
   <si>
     <t xml:space="preserve">\melee{Bite}{+7}{Deals 6+3d8 piercing damage. Target must suceed a DV15 Vitality check, or take an additional 5d6 poison damage and take the {\it Poisoned: Mild} status effect. }
 \ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 metres</t>
   </si>
   <si>
     <t xml:space="preserve">A fully grown Acromantula is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….</t>
@@ -1370,26 +1386,26 @@
   <dimension ref="A1:AI132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA6" activeCellId="0" sqref="AA6"/>
+      <selection pane="topRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AF7" activeCellId="0" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="10" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16.29"/>
@@ -1512,7 +1528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1619,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -1683,7 +1699,9 @@
       <c r="U3" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="V3" s="9"/>
+      <c r="V3" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="W3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1695,10 +1713,10 @@
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>49</v>
@@ -1707,16 +1725,16 @@
         <v>50</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH3" s="7" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>1</v>
@@ -1727,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
@@ -1739,7 +1757,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="10" t="n">
         <v>60</v>
@@ -1748,7 +1766,7 @@
         <v>70</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" s="9" t="n">
         <v>10</v>
@@ -1778,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T4" s="9" t="n">
         <v>11</v>
@@ -1787,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>43</v>
@@ -1802,28 +1820,28 @@
         <v>46</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="7" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AI4" s="1" t="n">
         <v>1</v>
@@ -1834,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
@@ -1846,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" s="10" t="n">
         <v>100</v>
@@ -1870,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O5" s="9" t="n">
         <v>13</v>
@@ -1885,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" s="9" t="n">
         <v>9</v>
@@ -1893,7 +1911,9 @@
       <c r="U5" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="V5" s="9"/>
+      <c r="V5" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="W5" s="9" t="s">
         <v>43</v>
       </c>
@@ -1904,40 +1924,40 @@
         <v>46</v>
       </c>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="12" t="s">
-        <v>76</v>
+      <c r="AA5" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="7" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="312.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
@@ -1948,41 +1968,89 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>175</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="Q6" s="9" t="n">
         <v>22</v>
       </c>
       <c r="R6" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="X6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
+      <c r="AA6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="AG6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH6" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="AH6" s="7" t="n">
+        <v>0.25</v>
+      </c>
       <c r="AI6" s="1" t="n">
         <v>1</v>
       </c>
@@ -1992,19 +2060,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>15</v>
@@ -2013,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>8</v>
@@ -2043,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="T7" s="1" t="n">
         <v>10</v>
@@ -2052,34 +2120,34 @@
         <v>12</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>0.5</v>
@@ -2093,19 +2161,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>45</v>
@@ -2114,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>14</v>
@@ -2144,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="T8" s="1" t="n">
         <v>17</v>
@@ -2153,38 +2221,38 @@
         <v>15</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="X8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="AE8" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>0.4</v>
@@ -2198,19 +2266,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>100</v>
@@ -2219,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>7</v>
@@ -2249,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="T9" s="1" t="n">
         <v>15</v>
@@ -2258,37 +2326,37 @@
         <v>5</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="X9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="AE9" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>0.4</v>
@@ -2302,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -2322,10 +2390,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
@@ -2334,7 +2402,7 @@
         <v>44</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>0.5</v>
@@ -2348,10 +2416,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>37</v>
@@ -2368,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
@@ -2388,19 +2456,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
@@ -2409,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>0</v>
@@ -2436,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="T14" s="1" t="n">
         <v>0</v>
@@ -2445,31 +2513,31 @@
         <v>10</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>0.35</v>
@@ -2483,19 +2551,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>20</v>
@@ -2504,7 +2572,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>8</v>
@@ -2534,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="T15" s="1" t="n">
         <v>9</v>
@@ -2543,31 +2611,31 @@
         <v>13</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>0.4</v>
@@ -2581,19 +2649,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>10</v>
@@ -2602,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>0</v>
@@ -2632,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="T16" s="1" t="n">
         <v>5</v>
@@ -2641,34 +2709,34 @@
         <v>10</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="X16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="AD16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>0.45</v>
@@ -2682,19 +2750,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>50</v>
@@ -2730,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T17" s="1" t="n">
         <v>13</v>
@@ -2739,31 +2807,31 @@
         <v>11</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>0.4</v>
@@ -2777,25 +2845,25 @@
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>7</v>
@@ -2825,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="T18" s="1" t="n">
         <v>7</v>
@@ -2834,34 +2902,34 @@
         <v>14</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>0.4</v>
@@ -2875,19 +2943,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>14</v>
@@ -2896,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>14</v>
@@ -2926,7 +2994,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="T19" s="1" t="n">
         <v>12</v>
@@ -2935,31 +3003,31 @@
         <v>13</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AA19" s="8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AD19" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>0.4</v>
@@ -2970,25 +3038,25 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>0.5</v>
@@ -3002,25 +3070,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,22 +3096,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,22 +3119,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,25 +3142,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>0.5</v>
@@ -3103,25 +3171,25 @@
         <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>0.5</v>
@@ -3132,25 +3200,25 @@
         <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>0.5</v>
@@ -3161,22 +3229,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>0.5</v>
@@ -3187,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
@@ -3199,10 +3267,10 @@
         <v>38</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>0.5</v>
@@ -3213,10 +3281,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
@@ -3225,10 +3293,10 @@
         <v>38</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>0.5</v>
@@ -3239,22 +3307,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>0.5</v>
@@ -3265,22 +3333,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>0.5</v>
@@ -3288,22 +3356,22 @@
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="8" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>0.5</v>
@@ -3311,274 +3379,274 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="8" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="8" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>223</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="AF39" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="8" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="8" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,19 +3654,19 @@
         <v>1</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,469 +3674,469 @@
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AF54" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AF55" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AF64" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AF65" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF67" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="8" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF73" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF74" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF75" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>37</v>
@@ -4077,491 +4145,491 @@
         <v>38</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="8" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="8" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="8" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="8" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="8" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="8" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="8" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="8" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="8" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="8" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="8" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="8" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="8" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="8" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AF97" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="8" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="8" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF99" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="8" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF102" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="8" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="8" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF104" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="8" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>37</v>
@@ -4570,15 +4638,15 @@
         <v>44</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="8" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>37</v>
@@ -4587,15 +4655,15 @@
         <v>44</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>37</v>
@@ -4604,316 +4672,316 @@
         <v>44</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF109" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="8" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF110" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="8" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AF113" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="8" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF114" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="8" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="8" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="8" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="8" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="8" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF119" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="8" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF120" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="8" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF121" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="8" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="8" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AF123" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="8" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="8" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AF125" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="8" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF126" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG126" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AH126" s="1" t="n">
         <v>0.5</v>
@@ -4921,22 +4989,22 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="8" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF127" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG127" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AH127" s="1" t="n">
         <v>0.5</v>
@@ -4944,22 +5012,22 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="8" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF128" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG128" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AH128" s="1" t="n">
         <v>0.6</v>
@@ -4967,70 +5035,70 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="8" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF131" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="8" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AF132" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AH$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AI$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="369">
   <si>
     <t xml:space="preserve">SpeciesOrder</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating</t>
   </si>
   <si>
     <t xml:space="preserve">Mind</t>
@@ -1210,7 +1213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1256,12 +1259,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1305,7 +1302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1354,22 +1351,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1383,45 +1376,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI132"/>
+  <dimension ref="A1:AJ132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AH14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF7" activeCellId="0" sqref="AF7"/>
+      <selection pane="topRight" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="AI18" activeCellId="0" sqref="AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="10" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="24.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="70.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="56.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="68.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="70.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="56.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="68.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="1" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1440,13 +1433,13 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1500,13 +1493,13 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="4" t="s">
@@ -1518,14 +1511,17 @@
       <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,13 +1529,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>38</v>
@@ -1547,53 +1543,53 @@
       <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>19</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>43</v>
@@ -1607,13 +1603,13 @@
       <c r="Z2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AD2" s="1" t="s">
@@ -1628,10 +1624,13 @@
       <c r="AG2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AH2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1640,70 +1639,70 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="10" t="n">
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="10" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="I3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="L3" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="M3" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="N3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="O3" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="P3" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="Q3" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="R3" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="S3" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="V3" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="W3" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>44</v>
@@ -1711,32 +1710,35 @@
       <c r="Y3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="Z3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="9"/>
       <c r="AB3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="9" t="s">
-        <v>49</v>
+      <c r="AC3" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AH3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1745,70 +1747,70 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="10" t="n">
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="I4" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="L4" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="M4" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="N4" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="O4" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="P4" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="Q4" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="R4" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="S4" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="9" t="n">
+      <c r="T4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="V4" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="V4" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="W4" s="9" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>44</v>
@@ -1819,17 +1821,17 @@
       <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="11" t="s">
-        <v>68</v>
+      <c r="AA4" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="AB4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="9" t="s">
-        <v>49</v>
+      <c r="AC4" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>71</v>
@@ -1837,13 +1839,16 @@
       <c r="AF4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="7" t="n">
+      <c r="AH4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1852,103 +1857,106 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="10" t="n">
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="I5" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="L5" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="M5" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="N5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="O5" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="P5" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="Q5" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="R5" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="R5" s="9" t="n">
+      <c r="S5" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" s="9" t="n">
+      <c r="T5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U5" s="9" t="n">
+      <c r="V5" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="V5" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="W5" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="9"/>
       <c r="AB5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" s="9" t="s">
-        <v>49</v>
+      <c r="AC5" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AH5" s="7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AI5" s="1" t="n">
+      <c r="AH5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,101 +1965,104 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="10" t="n">
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="10" t="n">
         <v>175</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="I6" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="L6" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="M6" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="N6" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="O6" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="P6" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="Q6" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="R6" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="R6" s="9" t="n">
+      <c r="S6" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" s="9" t="n">
+      <c r="T6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="V6" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="W6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" s="9"/>
       <c r="Y6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="Z6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AC6" s="9" t="s">
-        <v>49</v>
+      <c r="AC6" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AG6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AI6" s="1" t="n">
+      <c r="AH6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2060,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>94</v>
@@ -2074,67 +2085,67 @@
       <c r="F7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="I7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="L7" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>12</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>8</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="S7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="1" t="n">
+      <c r="T7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>12</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AB7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="AD7" s="1" t="s">
@@ -2149,10 +2160,13 @@
       <c r="AG7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AH7" s="1" t="n">
+      <c r="AH7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI7" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI7" s="1" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,103 +2175,106 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="L8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="M8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="R8" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="S8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>15</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>102</v>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH8" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI8" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2266,91 +2283,91 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="L9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="M9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="S9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AB9" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>102</v>
+      <c r="AC9" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>122</v>
@@ -2358,572 +2375,599 @@
       <c r="AG9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AH9" s="1" t="n">
+      <c r="AH9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI9" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI10" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
+      <c r="D11" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH11" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI11" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="I14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>0</v>
+      <c r="J14" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>14</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T14" s="1" t="n">
+      <c r="R14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="T14" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="U14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AA14" s="8" t="s">
+      <c r="Z14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AB14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AC14" s="2" t="s">
         <v>140</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AH14" s="1" t="n">
+      <c r="AH14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI14" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="AI14" s="1" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="I15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="L15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="M15" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>12</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>8</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>8</v>
       </c>
       <c r="P15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="R15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="S15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T15" s="1" t="n">
+      <c r="T15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U15" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AA15" s="8" t="s">
+      <c r="Z15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AB15" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC15" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AH15" s="1" t="n">
+      <c r="AH15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI15" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI15" s="1" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>10</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="R16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="S16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF16" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AH16" s="1" t="n">
+      <c r="AH16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI16" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="AI16" s="1" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>166</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="L17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="M17" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="R17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="1" t="n">
+      <c r="S17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T17" s="1" t="n">
+      <c r="T17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="V17" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>169</v>
+      <c r="W17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AC17" s="2" t="s">
         <v>171</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AH17" s="1" t="n">
-        <v>0.4</v>
+      <c r="AH17" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="AI17" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="L18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="M18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="R18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T18" s="1" t="n">
+      <c r="S18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="U18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>177</v>
+      <c r="AA18" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC18" s="2" t="s">
         <v>179</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>181</v>
@@ -2931,97 +2975,100 @@
       <c r="AG18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AH18" s="1" t="n">
+      <c r="AH18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI18" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI18" s="1" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>166</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="I19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="1" t="n">
+      <c r="J19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="L19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="M19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="N19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="R19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="1" t="n">
+      <c r="S19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" s="1" t="n">
+      <c r="T19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB19" s="2" t="s">
+      <c r="W19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB19" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>179</v>
+      <c r="AC19" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>188</v>
@@ -3029,2080 +3076,2422 @@
       <c r="AG19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AH19" s="1" t="n">
+      <c r="AH19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI19" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI19" s="1" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>192</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>194</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AH20" s="1" t="n">
+      <c r="AH20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI20" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI20" s="1" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>198</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>198</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>198</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH24" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH24" s="1" t="n">
+      <c r="AI24" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>207</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF25" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH25" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI25" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>207</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH26" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI26" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>215</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF27" s="1" t="s">
-        <v>194</v>
+      <c r="F27" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH27" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI27" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>218</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF28" s="1" t="s">
-        <v>194</v>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH28" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI28" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>218</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>194</v>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH29" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI29" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>223</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>194</v>
+        <v>108</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH30" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI30" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>223</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF31" s="1" t="s">
-        <v>194</v>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH31" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI31" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>228</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF32" s="1" t="s">
-        <v>194</v>
+        <v>94</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH32" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI32" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>231</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF33" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="8" t="s">
+      <c r="D34" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="AG34" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF34" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>93</v>
+      <c r="D35" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF35" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>235</v>
+      <c r="D36" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF36" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>107</v>
+      <c r="D37" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF37" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>93</v>
+      <c r="D38" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF38" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>107</v>
+      <c r="D39" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF39" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
+      <c r="D40" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF40" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>107</v>
+      <c r="D41" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AF41" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>93</v>
+      <c r="D42" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF42" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>244</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AF43" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="8" t="s">
+      <c r="D44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="AG44" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AF44" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>37</v>
+      <c r="D45" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF45" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>249</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF46" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>93</v>
+        <v>251</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF47" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>93</v>
+      <c r="D48" s="8" t="n">
+        <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF48" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>93</v>
+        <v>254</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG56" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG57" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF50" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF51" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF52" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF53" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF54" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF55" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF56" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF57" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF58" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG58" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>37</v>
+      <c r="D59" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF59" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>267</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF60" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG60" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>107</v>
+        <v>271</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF61" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG61" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>93</v>
+      <c r="D62" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF62" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG62" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>274</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AF63" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>107</v>
+        <v>274</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AF64" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="8" t="s">
+      <c r="D65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="AG65" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AF65" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>107</v>
+      <c r="D66" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF66" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>93</v>
+        <v>279</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF67" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG67" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>279</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF68" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>281</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF69" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG69" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
+      <c r="D70" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF70" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>93</v>
+        <v>284</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF71" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG71" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>93</v>
+      <c r="D72" s="8" t="n">
+        <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF72" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG72" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>107</v>
+        <v>284</v>
+      </c>
+      <c r="D73" s="8" t="n">
+        <v>5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF73" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG73" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>284</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF74" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG74" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>93</v>
+        <v>289</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF75" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG75" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>93</v>
+      <c r="D76" s="8" t="n">
+        <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF76" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG76" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>37</v>
+        <v>291</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF77" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG77" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF78" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG78" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>93</v>
+      <c r="D79" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF79" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG79" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="D80" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF80" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG80" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF81" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG81" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="D82" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF82" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG82" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="D83" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF83" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG83" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF84" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>37</v>
+        <v>300</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF85" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG85" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG86" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG87" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG88" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG89" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG90" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG91" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG92" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG93" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG94" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG95" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D96" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG96" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG97" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG99" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG100" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG101" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG102" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG103" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG104" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG105" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D106" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG106" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG107" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG108" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG109" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG110" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG111" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF86" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF87" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF88" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF89" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF90" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF91" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF92" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF93" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF94" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF95" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF96" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF97" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF98" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF99" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF100" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF101" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF102" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF103" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF104" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF105" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF106" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF107" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF108" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF109" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF110" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF111" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF112" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG112" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>37</v>
+      <c r="D113" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF113" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG113" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>107</v>
+        <v>340</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF114" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG114" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>93</v>
+        <v>342</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF115" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG115" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>93</v>
+      <c r="D116" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF116" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG116" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>93</v>
+        <v>342</v>
+      </c>
+      <c r="D117" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF117" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG117" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>93</v>
+        <v>342</v>
+      </c>
+      <c r="D118" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF118" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG118" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>37</v>
+        <v>347</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF119" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG119" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>93</v>
+        <v>348</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF120" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG120" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>93</v>
+        <v>349</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF121" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG121" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>93</v>
+        <v>351</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF122" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG122" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>107</v>
+        <v>353</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF123" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG123" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>93</v>
+      <c r="D124" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF124" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG124" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>107</v>
+        <v>353</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF125" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG125" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>93</v>
+        <v>357</v>
+      </c>
+      <c r="D126" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF126" s="1" t="s">
-        <v>194</v>
+        <v>94</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="AG126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH126" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI126" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="AH126" s="1" t="n">
+      <c r="D127" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG127" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH127" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI127" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF127" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG127" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH127" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>37</v>
+        <v>357</v>
+      </c>
+      <c r="D128" s="8" t="n">
+        <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF128" s="1" t="s">
-        <v>194</v>
+        <v>38</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="AG128" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH128" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH128" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI128" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>107</v>
+        <v>364</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF129" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG129" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>93</v>
+      <c r="D130" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF130" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG130" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>93</v>
+        <v>367</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF131" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG131" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>93</v>
+      <c r="D132" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF132" s="1" t="s">
-        <v>194</v>
+        <v>94</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG132" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH1"/>
+  <autoFilter ref="A1:AI1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="378">
   <si>
     <t xml:space="preserve">SpeciesOrder</t>
   </si>
@@ -614,6 +614,38 @@
     <t xml:space="preserve">Brood</t>
   </si>
   <si>
+    <t xml:space="preserve">Spraying Mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid-Spitting Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrobatics (+5), Speed (+4), Intimidation (+4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Web Walker}{A Spraying Mantis takes no movement penalty when walking on webbed surfaces}
+\ability{Fanged Forearms}{The Spraying Mantis\apos{} hooked and fanged carapace allows it to cling onto targets more tightly – taking check advantage on all grappling checks.}
+\ability{Four Forearms}{The Spraying Mantis has two sets of arms, and so can grapple up to two individuals at a time.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Lunge}{+3}{The Spraying Mantis leaps forward up to 5 metres, and lashes out with its hinged arms, dealing 2d6 +2 piercing damage, and initiating a grappling action.}
+\ability{Acid Injection}{When holding a grappled target, the Spraying Mantis may use their full turn to pump their prey full of digestive juices. The target gets an additional chance to break free of the grapple, but on a failure takes 4d6 acid damage.}
+\ability{Acid Spray}{As a major action, the Spraying Mantis releases a horrifying spray of acid, coating a cone up to 3 metres long. All beings in this area take 3d6+2 acid damage, halved on a successful Acrobatics or Speed Resist. This ability recharges after 3 turns. } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical Regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gigantic, horrifying crossbreed between a spider, and a praying mantis resulted in a grotesque monstrosity. The being appears, outwardly, to be a giant metre-long insect walking on 4 legs, with an additional 4 arms turned into hinged and hooked arms which they use to catch their prey. 
+True to their name, they also spray acidic juices on their prey, to aid in their eventual digestion. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Great Widow</t>
   </si>
   <si>
@@ -621,6 +653,9 @@
   </si>
   <si>
     <t xml:space="preserve">Stealth (+5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poison</t>
   </si>
   <si>
     <t xml:space="preserve">\ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
@@ -700,9 +735,6 @@
   </si>
   <si>
     <t xml:space="preserve">Young Tree Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
   </si>
   <si>
     <t xml:space="preserve">Bowtruckle Flower</t>
@@ -1357,12 +1389,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1376,17 +1408,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ132"/>
+  <dimension ref="A1:AJ133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AH14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AH1" activeCellId="0" sqref="AH1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="AI18" activeCellId="0" sqref="AI18"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="AI19" activeCellId="0" sqref="AI19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
@@ -1411,7 +1443,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="68.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="34" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,9 +2916,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>175</v>
@@ -2907,28 +2939,31 @@
         <v>176</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>4</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>4</v>
@@ -2943,51 +2978,48 @@
         <v>177</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>98</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>99</v>
+        <v>178</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH18" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="AI18" s="1" t="n">
-        <v>0.4</v>
       </c>
       <c r="AJ18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>184</v>
@@ -3008,31 +3040,28 @@
         <v>185</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>4</v>
@@ -3041,43 +3070,46 @@
         <v>2</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="X19" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AA19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AB19" s="8" t="s">
-        <v>186</v>
+      <c r="AB19" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AE19" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AI19" s="1" t="n">
         <v>0.4</v>
@@ -3086,76 +3118,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="B20" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>194</v>
+      <c r="R20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AJ20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="B21" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2</v>
@@ -3164,24 +3268,27 @@
         <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2</v>
@@ -3190,59 +3297,53 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="8" t="n">
+      <c r="B25" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="8" t="n">
         <v>4</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI24" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>94</v>
@@ -3251,30 +3352,30 @@
         <v>167</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AI25" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>4</v>
+        <v>218</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>94</v>
@@ -3283,13 +3384,13 @@
         <v>167</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>0.5</v>
@@ -3297,74 +3398,77 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>167</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AI28" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>38</v>
@@ -3373,125 +3477,134 @@
         <v>39</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>3</v>
+        <v>229</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AI30" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AI31" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="B32" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AI32" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D34" s="8" t="n">
         <v>6</v>
@@ -3500,18 +3613,18 @@
         <v>94</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D35" s="8" t="n">
         <v>6</v>
@@ -3520,98 +3633,98 @@
         <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D36" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D37" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D38" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D39" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D40" s="8" t="n">
         <v>6</v>
@@ -3620,18 +3733,18 @@
         <v>108</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D41" s="8" t="n">
         <v>6</v>
@@ -3640,58 +3753,58 @@
         <v>108</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D42" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>5</v>
+        <v>251</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>5</v>
@@ -3700,18 +3813,18 @@
         <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
-        <v>247</v>
+      <c r="B45" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>5</v>
@@ -3720,38 +3833,38 @@
         <v>38</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="8" t="s">
-        <v>248</v>
+      <c r="B46" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>2</v>
@@ -3760,107 +3873,107 @@
         <v>94</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="8" t="n">
+        <v>259</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B49" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>5</v>
+        <v>261</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="8" t="n">
+        <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" s="8" t="n">
+      <c r="B51" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG50" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="AG51" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D52" s="8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>94</v>
@@ -3869,18 +3982,18 @@
         <v>167</v>
       </c>
       <c r="AG52" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>1</v>
+        <v>268</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="8" t="n">
+        <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>94</v>
@@ -3889,115 +4002,115 @@
         <v>167</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="8" t="n">
+        <v>271</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>3</v>
+        <v>273</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>5</v>
@@ -4006,18 +4119,18 @@
         <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>5</v>
@@ -4026,78 +4139,78 @@
         <v>38</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D61" s="8" t="n">
-        <v>2</v>
+        <v>278</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="AG61" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D62" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D62" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>5</v>
@@ -4106,238 +4219,238 @@
         <v>108</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AG64" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
-        <v>279</v>
+      <c r="B68" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG68" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D71" s="8" t="n">
-        <v>3</v>
+        <v>291</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="8" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D72" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D73" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>2</v>
+        <v>295</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="8" t="n">
+        <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D75" s="8" t="n">
-        <v>4</v>
+        <v>296</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="AG75" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D76" s="8" t="n">
         <v>4</v>
@@ -4349,58 +4462,58 @@
         <v>167</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D77" s="1" t="n">
+      <c r="B77" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG77" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG77" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="AG78" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>94</v>
@@ -4409,18 +4522,18 @@
         <v>167</v>
       </c>
       <c r="AG79" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D80" s="8" t="n">
-        <v>3</v>
+        <v>303</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>94</v>
@@ -4429,15 +4542,15 @@
         <v>167</v>
       </c>
       <c r="AG80" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D81" s="8" t="n">
         <v>3</v>
@@ -4449,18 +4562,18 @@
         <v>167</v>
       </c>
       <c r="AG81" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D82" s="8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>94</v>
@@ -4469,18 +4582,18 @@
         <v>167</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D83" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>94</v>
@@ -4489,18 +4602,18 @@
         <v>167</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>2</v>
+        <v>307</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>94</v>
@@ -4509,55 +4622,55 @@
         <v>167</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D86" s="8" t="n">
-        <v>2</v>
+        <v>309</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="8" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D87" s="8" t="n">
         <v>2</v>
@@ -4569,18 +4682,18 @@
         <v>167</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>2</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>94</v>
@@ -4589,18 +4702,18 @@
         <v>167</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="8" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>94</v>
@@ -4609,98 +4722,98 @@
         <v>167</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D92" s="8" t="n">
-        <v>6</v>
+        <v>317</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="8" t="n">
+        <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="8" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>94</v>
@@ -4709,118 +4822,118 @@
         <v>167</v>
       </c>
       <c r="AG94" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="8" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D96" s="8" t="n">
-        <v>3</v>
+        <v>322</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>4</v>
+        <v>323</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="8" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>95</v>
+        <v>325</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="8" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>94</v>
@@ -4829,57 +4942,57 @@
         <v>95</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="8" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D103" s="8" t="n">
+        <v>332</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -4889,18 +5002,18 @@
         <v>167</v>
       </c>
       <c r="AG103" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D104" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>94</v>
@@ -4909,17 +5022,17 @@
         <v>167</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D105" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -4929,38 +5042,38 @@
         <v>167</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D106" s="8" t="n">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>3</v>
+        <v>337</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D107" s="8" t="n">
+        <v>4</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>38</v>
@@ -4969,18 +5082,18 @@
         <v>45</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>38</v>
@@ -4989,38 +5102,38 @@
         <v>45</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="AG109" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="8" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>94</v>
@@ -5029,55 +5142,55 @@
         <v>167</v>
       </c>
       <c r="AG110" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="8" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="AG111" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="AG112" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="s">
-        <v>338</v>
+      <c r="B113" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>4</v>
@@ -5086,58 +5199,58 @@
         <v>38</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AG113" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="8" t="s">
-        <v>339</v>
+      <c r="B114" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="AG114" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="8" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="AG115" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="8" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>3</v>
@@ -5146,98 +5259,98 @@
         <v>94</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG116" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D117" s="8" t="n">
+        <v>352</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG117" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D118" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG118" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D119" s="1" t="n">
-        <v>5</v>
+        <v>354</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D119" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="AG119" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="8" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="AG120" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="8" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>6</v>
@@ -5246,139 +5359,133 @@
         <v>94</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="AG121" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="8" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG122" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="8" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AG123" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="8" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AG124" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="8" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D125" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG125" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D126" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AG125" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D126" s="8" t="n">
+      <c r="AG126" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D127" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG126" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH126" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI126" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D127" s="8" t="n">
-        <v>4</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG127" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH127" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AI127" s="1" t="n">
         <v>0.5</v>
@@ -5386,96 +5493,102 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="8" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D128" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG128" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AH128" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AI128" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D129" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG129" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH129" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI129" s="1" t="n">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG129" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D130" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG130" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG130" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D131" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="AG131" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="8" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>5</v>
@@ -5484,10 +5597,30 @@
         <v>94</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG132" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG133" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\GameMasterGuide\Data\Beasts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5DD96-06CC-4FC4-A2E9-7A4A08984B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,233 +28,233 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="378">
-  <si>
-    <t xml:space="preserve">SpeciesOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susceptible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SizeName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SizeValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImageHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NeedsPage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death Hunter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abyssal Spawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ineffable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abomination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sightless Tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 metres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed (+11), Stealth (+4), Observation (+10), Intimidation (+7)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="407">
+  <si>
+    <t>SpeciesOrder</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Mind</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>PCP</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>EVL</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Immune</t>
+  </si>
+  <si>
+    <t>Resistant</t>
+  </si>
+  <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
+    <t>Speaks</t>
+  </si>
+  <si>
+    <t>Understands</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>SizeName</t>
+  </si>
+  <si>
+    <t>SizeValue</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>ImageHeight</t>
+  </si>
+  <si>
+    <t>NeedsPage</t>
+  </si>
+  <si>
+    <t>Death Hunter</t>
+  </si>
+  <si>
+    <t>Abyssal Spawn</t>
+  </si>
+  <si>
+    <t>Ineffable</t>
+  </si>
+  <si>
+    <t>Abomination</t>
+  </si>
+  <si>
+    <t>Sightless Tracker</t>
+  </si>
+  <si>
+    <t>25 metres</t>
+  </si>
+  <si>
+    <t>Speed (+11), Stealth (+4), Observation (+10), Intimidation (+7)</t>
   </si>
   <si>
     <t xml:space="preserve">Cold damage, All sensory effects, {\it Charmed} and {\it Terrified} status effects. </t>
   </si>
   <si>
-    <t xml:space="preserve">Necrotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celestial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voidic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All spoken languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Alien Senses}{A Death Hunter does not use conventional senses to percieve the world around it. It is therefore immune to effects such as Blindness and Deafness, and can see in perfect darkness}
+    <t>Necrotic</t>
+  </si>
+  <si>
+    <t>Celestial</t>
+  </si>
+  <si>
+    <t>Voidic</t>
+  </si>
+  <si>
+    <t>All spoken languages</t>
+  </si>
+  <si>
+    <t>\ability{Alien Senses}{A Death Hunter does not use conventional senses to percieve the world around it. It is therefore immune to effects such as Blindness and Deafness, and can see in perfect darkness}
 \ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Death Hunter. The Death Hunter gets advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
 \ability{Void Walk}{As Abyssal Spawn, the Death Hunter can , with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Bludgeon}{+11}{Deals 6+1d6 bludgeoning damage}
+    <t>\melee{Bludgeon}{+11}{Deals 6+1d6 bludgeoning damage}
 \melee{Bite}{+10}{Deals 6 + 2d8 piercing damage}
 \ability{Pounce}{As a major action, a Death Hunter may leap up to 5 metres towards a target, and take a combined Bludgeon and Bite attack.}
 \ability{Call Allies}{As a major action, a Death Hunter may raise their head to the heavens and howl a phrase in Voidic, stretching across dimensions, alerting their masters that they have found their quarry. This opens a portal through which the rest of the hunting party may appear.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Eldritch Domains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 metres</t>
+    <t>Eldritch Domains</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>2 metres</t>
   </si>
   <si>
     <t xml:space="preserve">A disgusting pale-white creature with 6 legs and a face which is entirely featureless except a gaping red maw. 
 Incredibly fast, and with powerful alien senses the Death Hunter serves one purpose: to track and hunt down their target across dimensions. </t>
   </si>
   <si>
-    <t xml:space="preserve">hunter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flesh Ripper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animalistic Fighter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 metres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength (+11), Intimidation (+10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Flesh Ripper. They get advantage on all Resist Checks against magic spells.}
+    <t>hunter</t>
+  </si>
+  <si>
+    <t>Flesh Ripper</t>
+  </si>
+  <si>
+    <t>Animalistic Fighter</t>
+  </si>
+  <si>
+    <t>3 metres</t>
+  </si>
+  <si>
+    <t>Strength (+11), Intimidation (+10)</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Flesh Ripper. They get advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
 \ability{Void Walk}{As Abyssal Spawn, the Flesh Ripper can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Bite}{+12}{Deals 4d8 piercing damage. On a failed DV 15 Vitality Resist, target takes an additional 4d8 necrotic damage. }
+    <t>\melee{Bite}{+12}{Deals 4d8 piercing damage. On a failed DV 15 Vitality Resist, target takes an additional 4d8 necrotic damage. }
 \melee{Harpoon Tail}{Range: 10 metres, +7}{Deals 5d6 piercing damage, and initiates a grapple action.}
 \ability{Devour}{Consume a target being in melee range which is {\it Incapacitated}, instantly killing the being and restoring 4d20 Health points.} 
 \ranged{Voidic Bile}{+7}{50 metres}{Spits a gout of black bile which does 3d6 each of Acid, Necrotic and Poison Damage}</t>
   </si>
   <si>
-    <t xml:space="preserve">5 metres</t>
+    <t>5 metres</t>
   </si>
   <si>
     <t xml:space="preserve">A hulking mass of rotting, oily flesh covered in a bony exoskeleton which seems to twist and warp in multiple dimensions. The Flesh Ripper\apos{}s role is as a heavy assault weapon. It is aided in this by it\apos{}s long, scorpion like tail, which ends in a vicious barb. This tail is used to spear beings, before dragging them, helpless, into its maw. </t>
   </si>
   <si>
-    <t xml:space="preserve">ripper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mind Shredder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistress of Lies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deception (+12), Persuasion (+12), Willpower (+9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychic, Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Mind Shredder. They get advantage on all Resist Checks against magic spells.}
+    <t>ripper</t>
+  </si>
+  <si>
+    <t>Mind Shredder</t>
+  </si>
+  <si>
+    <t>Mistress of Lies</t>
+  </si>
+  <si>
+    <t>Deception (+12), Persuasion (+12), Willpower (+9)</t>
+  </si>
+  <si>
+    <t>Psychic, Cold</t>
+  </si>
+  <si>
+    <t>\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Mind Shredder. They get advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
 \ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Spellcasting}{A Mind Shredder can perform the following spells as silent, wandless actions, and upcast them all to Expert level:
+    <t>\ability{Spellcasting}{A Mind Shredder can perform the following spells as silent, wandless actions, and upcast them all to Expert level:
 \beastSpellList{
 \beastSpell{Beginner}{Glamour, Chaotic Whispers, Piercing Wail, Force Shield}
 \beastSpell{Novice}{Horrific Araments, Necrosis, Silent Illusion}
@@ -260,35 +265,35 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7 metres</t>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>1.7 metres</t>
   </si>
   <si>
     <t xml:space="preserve">A monstrous female form, all protruding fangs and tentacles lies behind layers of illusions and deception. Created by the Abyssal Masters for the express purpose of infiltration of the minds of their foes, the Mind Shredder is weak in body, but wields immense psionic powers. </t>
   </si>
   <si>
-    <t xml:space="preserve">shredder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soul Devourer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eldritch Arcane Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willpower (+11), Arcane (+10), Unnature (+10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Necrotic Shroud}{The Soul Devourer is surrounded by a field of negative energy. Any being which spends any part of their turn within 2 metres of the Soul Devourer takes 3d8 necrotic damage.}
+    <t>shredder</t>
+  </si>
+  <si>
+    <t>Soul Devourer</t>
+  </si>
+  <si>
+    <t>Eldritch Arcane Master</t>
+  </si>
+  <si>
+    <t>Willpower (+11), Arcane (+10), Unnature (+10)</t>
+  </si>
+  <si>
+    <t>\ability{Necrotic Shroud}{The Soul Devourer is surrounded by a field of negative energy. Any being which spends any part of their turn within 2 metres of the Soul Devourer takes 3d8 necrotic damage.}
 \ability{Soul Grab}{Whenever a being dies inside the Necrotic Shroud, the Soul Devourer instantly absorbs its soul as if it had cast {\it Soul Snare}}
 \ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Soul Devourer. They get advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first sees a member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creature. All terrified beings must reperform the check again, take 5d6 psychic damage on a failure.}
 \ability{Void Walk}{As Abyssal Spawn, the Soul Devourer can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Shroud Flare}{As a minor action, the Soul Devourer can push its {\it Necrotic Shroud} outwards, expanding to a radius of 2 + 1d6 metres, where it remains until the end of the next turn cycle.}
+    <t>\ability{Shroud Flare}{As a minor action, the Soul Devourer can push its {\it Necrotic Shroud} outwards, expanding to a radius of 2 + 1d6 metres, where it remains until the end of the next turn cycle.}
 \ability{Spellcasting}{A Soul Devourer can perform the following spells as silent, wandless actions, and upcast them all to Master level:
 \beastSpellList{
 \beastSpell{Beginner}{Shadow Blast, Vicious Slash, Shroud of Darkness}
@@ -300,25 +305,25 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">The Soul Devourer is the arcane expert of the Abyssal army, using the souls of the fallen – even their own allies – to cast powerful magics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devourer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wielder-of-Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eldritch General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 metres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willpower (+10), Logic (+13), Investigation (+12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necrotic, Cold</t>
+    <t>The Soul Devourer is the arcane expert of the Abyssal army, using the souls of the fallen – even their own allies – to cast powerful magics.</t>
+  </si>
+  <si>
+    <t>devourer</t>
+  </si>
+  <si>
+    <t>Wielder-of-Night</t>
+  </si>
+  <si>
+    <t>Eldritch General</t>
+  </si>
+  <si>
+    <t>10 metres</t>
+  </si>
+  <si>
+    <t>Willpower (+10), Logic (+13), Investigation (+12)</t>
+  </si>
+  <si>
+    <t>Necrotic, Cold</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -327,7 +332,7 @@
 \ability{Void Walk}{As Abyssal Spawn, the Soul Devourer can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Abyssal Scythe}{+10}{Deals 4 + 1d4 slashing damage. On a failed DV 15 vitality Resist, deals an additional 3d6 cold damage.}
+    <t>\melee{Abyssal Scythe}{+10}{Deals 4 + 1d4 slashing damage. On a failed DV 15 vitality Resist, deals an additional 3d6 cold damage.}
 \melee{Tentacle Strike}{+7}{Deals 3 + 1d4 bludgeoning damage and allows the Wielder-of-Night to initiate a grapple}. 
 \ability{Spellcasting}{A Wielder-of-Night can perform the following spells as silent, wandless actions, and upcast them to Master level:
 \beastSpellList{
@@ -340,194 +345,194 @@
 \ability{Command Legions}{The Wielder-of-Night may use their major action to command any other Abyssal Spawn in hearing, giving them check-advantage on their next check.}</t>
   </si>
   <si>
-    <t xml:space="preserve">4 metres</t>
+    <t>4 metres</t>
   </si>
   <si>
     <t xml:space="preserve">The general of the Abyssal Armies, commanding untold legions of lesser creatures. They wield an enormous scythe, which crackles with frost. </t>
   </si>
   <si>
-    <t xml:space="preserve">spawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acromantula Hatchling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acromantula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-sapient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monstrosity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newborn Giant Spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth (+4), Nightvision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celestial damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poison damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider Tongue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\melee{Bite}{+3}{Deals 1+1d8 piercing damage. Target must suceed a DV10 Vitality check, or take an additional 2d6 poison damage}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainforests of Borneo, spread worldwide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legspan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 metre</t>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>Acromantula Hatchling</t>
+  </si>
+  <si>
+    <t>Acromantula</t>
+  </si>
+  <si>
+    <t>Non-sapient</t>
+  </si>
+  <si>
+    <t>Monstrosity</t>
+  </si>
+  <si>
+    <t>Newborn Giant Spider</t>
+  </si>
+  <si>
+    <t>Stealth (+4), Nightvision</t>
+  </si>
+  <si>
+    <t>Celestial damage</t>
+  </si>
+  <si>
+    <t>Poison damage</t>
+  </si>
+  <si>
+    <t>Spider Tongue</t>
+  </si>
+  <si>
+    <t>\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+3}{Deals 1+1d8 piercing damage. Target must suceed a DV10 Vitality check, or take an additional 2d6 poison damage}</t>
+  </si>
+  <si>
+    <t>Rainforests of Borneo, spread worldwide</t>
+  </si>
+  <si>
+    <t>Legspan</t>
+  </si>
+  <si>
+    <t>1 metre</t>
   </si>
   <si>
     <t xml:space="preserve">A newborn acromantula has a shiny, hairless and pale-grey carapace, covering their body which is only 1 metre across, and has a diminished intelligence compared to their full grown counterparts. </t>
   </si>
   <si>
-    <t xml:space="preserve">babyAcro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Giant Spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 metres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth (+6), Strength (+5), Observation (+5), Nightvision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\melee{Bite}{+7}{Deals 6+3d8 piercing damage. Target must suceed a DV15 Vitality check, or take an additional 5d6 poison damage and take the {\it Poisoned: Mild} status effect. }
+    <t>babyAcro</t>
+  </si>
+  <si>
+    <t>Sapient</t>
+  </si>
+  <si>
+    <t>Adult Giant Spider</t>
+  </si>
+  <si>
+    <t>15 metres</t>
+  </si>
+  <si>
+    <t>Stealth (+6), Strength (+5), Observation (+5), Nightvision</t>
+  </si>
+  <si>
+    <t>Fire damage</t>
+  </si>
+  <si>
+    <t>Human Languages</t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+7}{Deals 6+3d8 piercing damage. Target must suceed a DV15 Vitality check, or take an additional 5d6 poison damage and take the {\it Poisoned: Mild} status effect. }
 \ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}</t>
   </si>
   <si>
-    <t xml:space="preserve">A fully grown Acromantula is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acromantula Patriarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruler of the Spider Clan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength (+4), Observation (+10), Nightvision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider Tongue, Human Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\melee{Bite}{+4}{Deals 6d10 piercing damage. Target must suceed a DV18 Vitality check, or take an additional 15d6 poison damage and take the {\it Poisoned: Severe} status effect. }
+    <t>A fully grown Acromantula is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….</t>
+  </si>
+  <si>
+    <t>Acromantula Patriarch</t>
+  </si>
+  <si>
+    <t>Ruler of the Spider Clan</t>
+  </si>
+  <si>
+    <t>Strength (+4), Observation (+10), Nightvision</t>
+  </si>
+  <si>
+    <t>Spider Tongue, Human Languages</t>
+  </si>
+  <si>
+    <t>\ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+4}{Deals 6d10 piercing damage. Target must suceed a DV18 Vitality check, or take an additional 15d6 poison damage and take the {\it Poisoned: Severe} status effect. }
 \ranged{Web}{+6}{30 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 18 Strength Resist, or the webbing absorbs 15 points of physical damage.}
 \ability{Webbed Domain}{A patriarch may use a major action to launch a globule of sticky material up to 10 metres away from them, which covers an area of 5m in radius. This area is considered {\it Webbed}. Movement on a webbed area is halved.}</t>
   </si>
   <si>
-    <t xml:space="preserve">8 metres</t>
+    <t>8 metres</t>
   </si>
   <si>
     <t xml:space="preserve">The eldest of the spider monstrosities is known as the {\it Patriarch}. Though they have reached truly gargantuan sizes, their bodies have become decrepit with age. Their minds, however, are razor sharp and they have mastered human speech. </t>
   </si>
   <si>
-    <t xml:space="preserve">aragog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherubim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seraphim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archangel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apparitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remnant of deceased human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 metres (flying)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth (+8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All damage types \&amp; status effects</t>
+    <t>aragog</t>
+  </si>
+  <si>
+    <t>Cherubim</t>
+  </si>
+  <si>
+    <t>Angels</t>
+  </si>
+  <si>
+    <t>Seraphim</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Throne</t>
+  </si>
+  <si>
+    <t>Archangel</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Apparitions</t>
+  </si>
+  <si>
+    <t>Phantasm</t>
+  </si>
+  <si>
+    <t>Remnant of deceased human</t>
+  </si>
+  <si>
+    <t>10 metres (flying)</t>
+  </si>
+  <si>
+    <t>Stealth (+8)</t>
+  </si>
+  <si>
+    <t>All damage types \&amp; status effects</t>
   </si>
   <si>
     <t xml:space="preserve">Whatever languages they could speak when alive </t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Incorporeal}{The ghost does not interact with the material world. It may move through physical objects at will, and float in all 3 dimensions. When inside an object, the ghost cannot see or hear. }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Haunting}{The ghost releases an unearthly howl, forcing all beings to pass a DV 15 Willpower Resist, or become {\it Terrified} of it. }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The place of their death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ghost is the imprint of the soul of a once-living wizard or witch, left to wander the material realm after their physical form has died. A ghost resembles their former selves at the moment of their death, though in a translucent, silver-grey form. 
+    <t>\ability{Incorporeal}{The ghost does not interact with the material world. It may move through physical objects at will, and float in all 3 dimensions. When inside an object, the ghost cannot see or hear. }</t>
+  </si>
+  <si>
+    <t>\ability{Haunting}{The ghost releases an unearthly howl, forcing all beings to pass a DV 15 Willpower Resist, or become {\it Terrified} of it. }</t>
+  </si>
+  <si>
+    <t>The place of their death</t>
+  </si>
+  <si>
+    <t>A ghost is the imprint of the soul of a once-living wizard or witch, left to wander the material realm after their physical form has died. A ghost resembles their former selves at the moment of their death, though in a translucent, silver-grey form. 
 No-one knows what causes a ghost to remain behind, though it is posited that these fleshless spirits were mortally afraid of death or have some extraordinarily strong connection to the locations they haunt.</t>
   </si>
   <si>
-    <t xml:space="preserve">ghost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poltergeist</t>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>Poltergeist</t>
   </si>
   <si>
     <t xml:space="preserve">(Mostly) Harmless Trickster </t>
   </si>
   <si>
-    <t xml:space="preserve">15 metres (flying)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicanery (+5), Acrobatics (+5), Improvised Range Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piercing, Bludgeoning \&amp; Slashing damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All human languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Floating}{A poltergeist floats through the air at will, and is able to move freely in all 3 dimensions}
+    <t>15 metres (flying)</t>
+  </si>
+  <si>
+    <t>Chicanery (+5), Acrobatics (+5), Improvised Range Weapons</t>
+  </si>
+  <si>
+    <t>Piercing, Bludgeoning \&amp; Slashing damage</t>
+  </si>
+  <si>
+    <t>All human languages</t>
+  </si>
+  <si>
+    <t>\ability{Floating}{A poltergeist floats through the air at will, and is able to move freely in all 3 dimensions}
 \ability{Amortal}{A poltergeist can never truly be killed. When its HP is reduced to zero, it returns to the Astral Plane, and after a number of days, it returns to the Material Realm}</t>
   </si>
   <si>
@@ -535,7 +540,7 @@
 \ability{Innate Spellcasting}{A poltergeist can use a major action to cast the following spells without a wand: {\it Levitation}, {\it Mage Hands}, {\it Mark Surface}, {\it Throw Voice}, {\it Piercing Wail} and {\it Trip}.} </t>
   </si>
   <si>
-    <t xml:space="preserve">Wherever humans are found</t>
+    <t>Wherever humans are found</t>
   </si>
   <si>
     <t xml:space="preserve">A poltergeist is an amortal, indestructable spirit of chaos and mischief. They appear as a short, childlike figure dressed in a motley jester\apos{}s garb, with glowing orange eyes, which twinkle with mischief. 
@@ -543,32 +548,32 @@
 Unusually out of apparitions and other spiritual creatures, poltergeists are able to take on physical form and cast primitive forms of magic - which they use to wreak chaos and play pranks on unsuspecting humans. </t>
   </si>
   <si>
-    <t xml:space="preserve">peeves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boggart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspect of Fear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depends on form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empathy (+7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depends on form taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Amortal}{A boggart can never truly be killed. When its HP is reduced to zero, it returns to the Astral Plane, and after a number of days, it returns to the Material Realm}
+    <t>peeves</t>
+  </si>
+  <si>
+    <t>Boggart</t>
+  </si>
+  <si>
+    <t>Aspect of Fear</t>
+  </si>
+  <si>
+    <t>Depends on form</t>
+  </si>
+  <si>
+    <t>Empathy (+7)</t>
+  </si>
+  <si>
+    <t>Laughter</t>
+  </si>
+  <si>
+    <t>Depends on form taken</t>
+  </si>
+  <si>
+    <t>\ability{Amortal}{A boggart can never truly be killed. When its HP is reduced to zero, it returns to the Astral Plane, and after a number of days, it returns to the Material Realm}
 \ability{Killing Joke}{A boggart is mortally afraid of laughter. The sound of genuine laughter causes the boggart to take 2d6 damage. }</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Discern Fears}{A boggart can use a minor action to peer into the soul of an individual, and learn their greatest fear. Contest a Empathy check against the victim\apos{}s Willpower Resist - on a success, the boggart learns the victim\apos{}s greatest fear. }
+    <t>\ability{Discern Fears}{A boggart can use a minor action to peer into the soul of an individual, and learn their greatest fear. Contest a Empathy check against the victim\apos{}s Willpower Resist - on a success, the boggart learns the victim\apos{}s greatest fear. }
 \ability{Shapeshift}{A boggart may use a major action to transform into any shape, to represent something the target is scared of. Any being for which this is their greatest fear must pass a DV 20 Willpower Resist check or become {\it Terrified}. }</t>
   </si>
   <si>
@@ -576,60 +581,60 @@
 A boggart can never harm you, though they can be difficult to contain. The accepted trick is to transfigure them to look stupid, prompting a fit of laughter – which is fatal to a boggart. </t>
   </si>
   <si>
-    <t xml:space="preserve">boggart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brood Mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arachnid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg-collecting spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth (+7), Nightvision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Protective}{The Brood Mother cannot move more than 5 metres away from her nest}
+    <t>boggart</t>
+  </si>
+  <si>
+    <t>Brood Mother</t>
+  </si>
+  <si>
+    <t>Arachnid</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Egg-collecting spider</t>
+  </si>
+  <si>
+    <t>Stealth (+7), Nightvision</t>
+  </si>
+  <si>
+    <t>\ability{Protective}{The Brood Mother cannot move more than 5 metres away from her nest}
 \ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
 \ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
 \ability{Web Walker}{An Great Widow takes no movement penalty when walked on webbed surfaces}</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Bite}{+3}{Deals 1d6 poison damage and on a failed DV 13 Vitality Resist deals another 2d6 poison damage}
+    <t>\melee{Bite}{+3}{Deals 1d6 poison damage and on a failed DV 13 Vitality Resist deals another 2d6 poison damage}
 \ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}
 \ability{Forced Hatch}{The Brood Mother may force one of the eggs in her nest to hatch early. The newly hatched spider has only half its normal max HP, but will defend its mother to the death.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Underground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spraying Mantis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acid-Spitting Monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acrobatics (+5), Speed (+4), Intimidation (+4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Web Walker}{A Spraying Mantis takes no movement penalty when walking on webbed surfaces}
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
+  </si>
+  <si>
+    <t>Brood</t>
+  </si>
+  <si>
+    <t>Spraying Mantis</t>
+  </si>
+  <si>
+    <t>Acid-Spitting Monster</t>
+  </si>
+  <si>
+    <t>Acrobatics (+5), Speed (+4), Intimidation (+4)</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>\ability{Web Walker}{A Spraying Mantis takes no movement penalty when walking on webbed surfaces}
 \ability{Fanged Forearms}{The Spraying Mantis\apos{} hooked and fanged carapace allows it to cling onto targets more tightly – taking check advantage on all grappling checks.}
 \ability{Four Forearms}{The Spraying Mantis has two sets of arms, and so can grapple up to two individuals at a time.}</t>
   </si>
@@ -639,53 +644,53 @@
 \ability{Acid Spray}{As a major action, the Spraying Mantis releases a horrifying spray of acid, coating a cone up to 3 metres long. All beings in this area take 3d6+2 acid damage, halved on a successful Acrobatics or Speed Resist. This ability recharges after 3 turns. } </t>
   </si>
   <si>
-    <t xml:space="preserve">Tropical Regions</t>
+    <t>Tropical Regions</t>
   </si>
   <si>
     <t xml:space="preserve">A gigantic, horrifying crossbreed between a spider, and a praying mantis resulted in a grotesque monstrosity. The being appears, outwardly, to be a giant metre-long insect walking on 4 legs, with an additional 4 arms turned into hinged and hooked arms which they use to catch their prey. 
 True to their name, they also spray acidic juices on their prey, to aid in their eventual digestion. </t>
   </si>
   <si>
-    <t xml:space="preserve">Great Widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisonous spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth (+5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
+    <t>Great Widow</t>
+  </si>
+  <si>
+    <t>Poisonous spider</t>
+  </si>
+  <si>
+    <t>Stealth (+5)</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>\ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
 \ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
 \ability{Web Walker}{An Great Widow takes no movement penalty when walked on webbed surfaces}</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Bite}{+3}{Deals 3d6 poison damage. On a failed DV 10 Vitality check, the victim takes the {\it Poisoned: Mild} ststus}
+    <t>\melee{Bite}{+3}{Deals 3d6 poison damage. On a failed DV 10 Vitality check, the victim takes the {\it Poisoned: Mild} ststus}
 \ranged{Spit}{+4}{5 metres}{A globule of acid burns into you, dealing 2d8 acid damage}</t>
   </si>
   <si>
-    <t xml:space="preserve">Urban areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 centimetres</t>
+    <t>Urban areas</t>
+  </si>
+  <si>
+    <t>40 centimetres</t>
   </si>
   <si>
     <t xml:space="preserve">Magical experimentation on a {\it Black Widow} produced this grossly oversized specimen, and gave it the ability to spit acid. </t>
   </si>
   <si>
-    <t xml:space="preserve">blackWidow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howling Tick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size-changing Spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Bloodsucker}{Whenever the Howling Tick lands a successful attack, it doubles in size, and its bites become more venemous.
+    <t>blackWidow</t>
+  </si>
+  <si>
+    <t>Howling Tick</t>
+  </si>
+  <si>
+    <t>Size-changing Spider</t>
+  </si>
+  <si>
+    <t>\ability{Bloodsucker}{Whenever the Howling Tick lands a successful attack, it doubles in size, and its bites become more venemous.
 If it goes a combat cycle without feasting on blood, it shrinks, until it reaches its resting size of 10cm.
 }
 \ability{Languages}{Can understand the spider tongue} 
@@ -693,559 +698,694 @@
 \ability{Web Walker}{A Howling Tick takes no movement penalty when walked on webbed surfaces}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Leap}{In place of a movement action, the Howling Tick may leap up to 4 metres, and then take a bite attack}
+    <t>\ability{Leap}{In place of a movement action, the Howling Tick may leap up to 4 metres, and then take a bite attack}
 \melee{Bite}{+2}{Deals 1d6 poison damage (increased by 1d6 for every increase in size), and triggers its {\it Bloodsucker} attribute.}</t>
   </si>
   <si>
-    <t xml:space="preserve">10cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
 The Howling Tick has the magical ability to grow in size when it feeds, however they must continually gorge in order to maintain their size, or they quickly shrink back.</t>
   </si>
   <si>
-    <t xml:space="preserve">tick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nogtail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nogtail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Splinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young Tree Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Thorn</t>
+    <t>tick</t>
+  </si>
+  <si>
+    <t>Nogtail</t>
+  </si>
+  <si>
+    <t>Beast Demon</t>
+  </si>
+  <si>
+    <t>Demon</t>
+  </si>
+  <si>
+    <t>Wolf Demon</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>nogtail</t>
+  </si>
+  <si>
+    <t>Bowtruckle Splinter</t>
+  </si>
+  <si>
+    <t>Bowtruckle</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Young Tree Guardian</t>
+  </si>
+  <si>
+    <t>Bowtruckle Flower</t>
+  </si>
+  <si>
+    <t>Tree Guardian</t>
+  </si>
+  <si>
+    <t>Bowtruckle Thorn</t>
   </si>
   <si>
     <t xml:space="preserve">Bowtruckle Warrior </t>
   </si>
   <si>
-    <t xml:space="preserve">Graphorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceratothid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive Horned Bovine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erumpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploding-horned Rhinoceros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erumpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re'em</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Golden Ox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chimera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dementor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloaked Spirits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dementor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lethifold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lethifold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidebehind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidebehind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blast-Ended Skrewt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screwt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demiguise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demiguise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Welsh Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draconid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebridean Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungarian Horntail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwegian Ridgeback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peruvian Vipertooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romanian Longhorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swedish Shortsnout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukranian Ironbelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antipodean Opaleye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Fireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avatar of Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental Avatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avatar of Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avatar of Storms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pixie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True Fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draconic Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobalug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackled Malaclaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plimpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundimun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horklump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stone Golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kneazle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Druidic Hag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humanoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necrotic Hag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Hag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hell Hound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hellion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pheonix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobgoblin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gnome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gringwart Goff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippogriff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhabitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billywig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectum Magicae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chizpurfle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire Crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flesh-Eating Slug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flobberworm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glumbumble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dugbog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mammalia Magicae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarvey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mooncalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murtlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niffler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wampus Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manticore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluebirds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mundane Animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nundu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghoul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigantoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cockatrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runespoor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diricawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ornithes Magicae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fwooper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobberknoll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snidget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippocampus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegasus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thestral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winged Horse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puffskein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puffskeins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pygmy Puff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintaped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banshee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raised Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pogrebin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashwinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salamanders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire Salamander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frost Salamander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Demons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swooping Evil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunderbird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whomping Willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unicorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unicorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grindylow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Demons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grindylow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kappa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kappa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelpie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kelpie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human-form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werewolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf-form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyverns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea Serpent</t>
+    <t>Graphorn</t>
+  </si>
+  <si>
+    <t>Ceratothid</t>
+  </si>
+  <si>
+    <t>Aggressive Horned Bovine</t>
+  </si>
+  <si>
+    <t>Erumpet</t>
+  </si>
+  <si>
+    <t>Exploding-horned Rhinoceros</t>
+  </si>
+  <si>
+    <t>erumpet</t>
+  </si>
+  <si>
+    <t>Re'em</t>
+  </si>
+  <si>
+    <t>Giant Golden Ox</t>
+  </si>
+  <si>
+    <t>reem</t>
+  </si>
+  <si>
+    <t>Chimera</t>
+  </si>
+  <si>
+    <t>chimera</t>
+  </si>
+  <si>
+    <t>Dementor</t>
+  </si>
+  <si>
+    <t>Cloaked Spirits</t>
+  </si>
+  <si>
+    <t>dementor</t>
+  </si>
+  <si>
+    <t>Lethifold</t>
+  </si>
+  <si>
+    <t>lethifold</t>
+  </si>
+  <si>
+    <t>Hidebehind</t>
+  </si>
+  <si>
+    <t>Creations</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>hidebehind</t>
+  </si>
+  <si>
+    <t>Blast-Ended Skrewt</t>
+  </si>
+  <si>
+    <t>screwt</t>
+  </si>
+  <si>
+    <t>Demiguise</t>
+  </si>
+  <si>
+    <t>demiguise</t>
+  </si>
+  <si>
+    <t>Common Welsh Green</t>
+  </si>
+  <si>
+    <t>Dragons</t>
+  </si>
+  <si>
+    <t>Draconid</t>
+  </si>
+  <si>
+    <t>Hebridean Black</t>
+  </si>
+  <si>
+    <t>Hungarian Horntail</t>
+  </si>
+  <si>
+    <t>Norwegian Ridgeback</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Peruvian Vipertooth</t>
+  </si>
+  <si>
+    <t>Romanian Longhorn</t>
+  </si>
+  <si>
+    <t>Swedish Shortsnout</t>
+  </si>
+  <si>
+    <t>Ukranian Ironbelly</t>
+  </si>
+  <si>
+    <t>Antipodean Opaleye</t>
+  </si>
+  <si>
+    <t>Chinese Fireball</t>
+  </si>
+  <si>
+    <t>Avatar of Fire</t>
+  </si>
+  <si>
+    <t>Elemental Avatar</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>Avatar of Ice</t>
+  </si>
+  <si>
+    <t>Avatar of Storms</t>
+  </si>
+  <si>
+    <t>Pixie</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Doxy</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>True Fairy</t>
+  </si>
+  <si>
+    <t>Draconic Guardian</t>
+  </si>
+  <si>
+    <t>False Dragon</t>
+  </si>
+  <si>
+    <t>Construct</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Lobalug</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Mackled Malaclaw</t>
+  </si>
+  <si>
+    <t>Plimpy</t>
+  </si>
+  <si>
+    <t>Ramora</t>
+  </si>
+  <si>
+    <t>Bundimun</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>Horklump</t>
+  </si>
+  <si>
+    <t>Mandrake</t>
+  </si>
+  <si>
+    <t>Crystal Golem</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Iron Golem</t>
+  </si>
+  <si>
+    <t>Stone Golem</t>
+  </si>
+  <si>
+    <t>Kneazle</t>
+  </si>
+  <si>
+    <t>Guardian Spirit</t>
+  </si>
+  <si>
+    <t>Porlock</t>
+  </si>
+  <si>
+    <t>Druidic Hag</t>
+  </si>
+  <si>
+    <t>Hag</t>
+  </si>
+  <si>
+    <t>Humanoid</t>
+  </si>
+  <si>
+    <t>Necrotic Hag</t>
+  </si>
+  <si>
+    <t>Water Hag</t>
+  </si>
+  <si>
+    <t>Hell Hound</t>
+  </si>
+  <si>
+    <t>Hellion</t>
+  </si>
+  <si>
+    <t>Augrey</t>
+  </si>
+  <si>
+    <t>Herald</t>
+  </si>
+  <si>
+    <t>Pheonix</t>
+  </si>
+  <si>
+    <t>Erkling</t>
+  </si>
+  <si>
+    <t>Hobgoblin</t>
+  </si>
+  <si>
+    <t>Gnome</t>
+  </si>
+  <si>
+    <t>Gringwart Goff</t>
+  </si>
+  <si>
+    <t>Red Cap</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Hippogriff</t>
+  </si>
+  <si>
+    <t>Inhabitor</t>
+  </si>
+  <si>
+    <t>Billywig</t>
+  </si>
+  <si>
+    <t>Insectum Magicae</t>
+  </si>
+  <si>
+    <t>Chizpurfle</t>
+  </si>
+  <si>
+    <t>Fire Crab</t>
+  </si>
+  <si>
+    <t>Flesh-Eating Slug</t>
+  </si>
+  <si>
+    <t>Flobberworm</t>
+  </si>
+  <si>
+    <t>Glumbumble</t>
+  </si>
+  <si>
+    <t>Streeler</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>Dugbog</t>
+  </si>
+  <si>
+    <t>Mammalia Magicae</t>
+  </si>
+  <si>
+    <t>Jarvey</t>
+  </si>
+  <si>
+    <t>Mooncalf</t>
+  </si>
+  <si>
+    <t>Murtlap</t>
+  </si>
+  <si>
+    <t>Niffler</t>
+  </si>
+  <si>
+    <t>Wampus Cat</t>
+  </si>
+  <si>
+    <t>Manticore</t>
+  </si>
+  <si>
+    <t>Bluebirds</t>
+  </si>
+  <si>
+    <t>Mundane Animal</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>Nundu</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>Ogre</t>
+  </si>
+  <si>
+    <t>Gigantoid</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Yeti</t>
+  </si>
+  <si>
+    <t>Basilisk</t>
+  </si>
+  <si>
+    <t>Ophidian</t>
+  </si>
+  <si>
+    <t>Cockatrice</t>
+  </si>
+  <si>
+    <t>Runespoor</t>
+  </si>
+  <si>
+    <t>Diricawl</t>
+  </si>
+  <si>
+    <t>Ornithes Magicae</t>
+  </si>
+  <si>
+    <t>Fwooper</t>
+  </si>
+  <si>
+    <t>Jobberknoll</t>
+  </si>
+  <si>
+    <t>Snidget</t>
+  </si>
+  <si>
+    <t>Hippocampus</t>
+  </si>
+  <si>
+    <t>Pegasus</t>
+  </si>
+  <si>
+    <t>Thestral</t>
+  </si>
+  <si>
+    <t>Winged Horse</t>
+  </si>
+  <si>
+    <t>Puffskein</t>
+  </si>
+  <si>
+    <t>Puffskeins</t>
+  </si>
+  <si>
+    <t>Pygmy Puff</t>
+  </si>
+  <si>
+    <t>Quintaped</t>
+  </si>
+  <si>
+    <t>Banshee</t>
+  </si>
+  <si>
+    <t>Raised Dead</t>
+  </si>
+  <si>
+    <t>Inferius</t>
+  </si>
+  <si>
+    <t>Pogrebin</t>
+  </si>
+  <si>
+    <t>Rock Demon</t>
+  </si>
+  <si>
+    <t>Ashwinder</t>
+  </si>
+  <si>
+    <t>Salamanders</t>
+  </si>
+  <si>
+    <t>Fire Salamander</t>
+  </si>
+  <si>
+    <t>Frost Salamander</t>
+  </si>
+  <si>
+    <t>Moke</t>
+  </si>
+  <si>
+    <t>Shadow Demon</t>
+  </si>
+  <si>
+    <t>Shadow Demons</t>
+  </si>
+  <si>
+    <t>Swooping Evil</t>
+  </si>
+  <si>
+    <t>Thunderbird</t>
+  </si>
+  <si>
+    <t>Whomping Willow</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Bicorn</t>
+  </si>
+  <si>
+    <t>Unicorns</t>
+  </si>
+  <si>
+    <t>Tebo</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>Grindylow</t>
+  </si>
+  <si>
+    <t>Water Demons</t>
+  </si>
+  <si>
+    <t>grindylow</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>Kelpie</t>
+  </si>
+  <si>
+    <t>kelpie</t>
+  </si>
+  <si>
+    <t>Human-form</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>Wolf-form</t>
+  </si>
+  <si>
+    <t>Occamy</t>
+  </si>
+  <si>
+    <t>Wyverns</t>
+  </si>
+  <si>
+    <t>Sea Serpent</t>
+  </si>
+  <si>
+    <t>Et Iniquum</t>
+  </si>
+  <si>
+    <t>Aileni</t>
+  </si>
+  <si>
+    <t>Aberstath</t>
+  </si>
+  <si>
+    <t>Horcrux-Possessing Human</t>
+  </si>
+  <si>
+    <t>Disembodied Spirit</t>
+  </si>
+  <si>
+    <t>Reincarnated Individual</t>
+  </si>
+  <si>
+    <t>Demon in Human Form</t>
+  </si>
+  <si>
+    <t>Celestial, Necrotic</t>
+  </si>
+  <si>
+    <t>Whatever they spoke as a human</t>
+  </si>
+  <si>
+    <t>\ability{Almost human}{As a near-human entity, the Et Iniquum have all the abilities that a normal magical NPC has. If a character becomes an Et Iniquum, they retain all their previous attributes in place of those stated here, taking a + 4 bonus to Power.}
+\ability{Opposable Thumbs}{The Et Iniquum may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
+\ability{Outwardly Unchanged}{The process of turning a human into an Et Iniquum changes them fundamentally on a spiritual level, but leaves their outward appearance unchanged. They cannot be differentiated from a normal human.}
+\ability{Great Power}{An Et Iniquum has incredibly powerful magical abilities. As such they are considered proficient in all schools of magic (proficiency bonus is +6), and take advantage on all Resist checks against magical effects. }
+\ability{Unkillable}{Whilst at least one of their Horxcruxes remains intact, an Et Iniquum cannot be truly killed. If their hitpoints are reduced to zero, their body is destroyed, leaving behind an {\it \inotator}, which flees in order to regroup.}
+\ability{Unstable Soul}{The process of creating an Et Iniquum leaves their soul fractured and unstable. The maximum number of Horcruxes an individual can support is given by 1d4 + Spirit modifier. If they exceed this, they instantly die and rise as an Abserstath.}</t>
+  </si>
+  <si>
+    <t>\inotator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a powerful wizard seeks to defy death, they may tear their soul asunder, and store a portion inside a Horcrux. In doing so, the wizard stops being fully human, and becomes an {\it Et Iniquii}, the Tethered Soul. 
+Outwardly human, the Et Iniquii differ only in their affinity for Dark Magic, and their inability to die. </t>
+  </si>
+  <si>
+    <t>\ability{Spellcasting}{An Et Iniquum is a Master Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
+\beastSpellList{
+\beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast, Control Fire, Mage Hands, Animal Eyes, Chaotic Whispers, Knockback, Vicious Slash}
+\beastSpell{Novice}{Abyssal Fluid, Necrosis, Crippling Fatigue, Blight, Summon Snake, Horrific Armaments, Mental Burden, Strangle, Psychic Crush, Dancing Bolt}
+\beastSpell{Adept}{Fireball, Freeze, Fury, Dilute Blood, Spiral Inversion, Blood Barrier, Torture}
+\beastSpell{Expert}{Arctic Blast, Contagion, Create Thrall, Create Zombie, Shield Breaker}
+\beastSpell{Master}{Flame Whip, Psionic Overload, Corrupt Object, Selfshift, Create Horcrux, Word of Death, Burning Blood}
+}
+}</t>
+  </si>
+  <si>
+    <t>Vitality (+6), Willpower (+8), Arcane (+11), Unnature (+11), Intimidation (+12). Wandless Spellcasting, Silent Spellcasting,  Apparation.</t>
+  </si>
+  <si>
+    <t>All physical damage</t>
+  </si>
+  <si>
+    <t>Voldemort_Spirit</t>
+  </si>
+  <si>
+    <t>\ability{Incorporeal}{The \inotator{} has no physical form, and as such can pass through solid matter at will. When phasing through matter, the \inotator{} is effectively blind and deaf. }
+\ability{Floating}{The \inotator{} can fly freely in all 3 vertical dimensions.}
+\ability{Unliving}{As a phantasm, an \inotator{} does not require sleep, food or air in order to survive.}
+\ability{Unkillable}{Whilst a Horcrux still exists, the \inotator{} cannot be killed. If their HP is reduced to 0, they temporarily dissipate, and then reform near one of their remaining Horcruxes over a period of 1d10 days.}</t>
+  </si>
+  <si>
+    <t>\ability{Intrinsic Spellcasting}{Greatly weakened from their physical form, an \inotator{} is only a Novince-level spellcaster. An \inotator{} may cast the following spells as silent, wandless major actions:
+\beastSpellList{
+\beastSpell{Beginner}{Control Fire, Animal Eyes, Chaotic Whispers}
+\beastSpell{Novice}{Crippling Fatigue, Mental Burden, Psychic Crush}
+}
+}
+\ability{Possess}{An \inotator{} may take refuge in the body of a willing acolyte, often manifesting in the form of a face in the back of their head, or an eye in the centre of the palms of the host. The host and \inotator{} may communicate telepathically whilst bound together. }
+\ability{Regenerate}{Whilst possessing an individual, an \inotator{} may attempt to forcibly take control of their body, by contesting a Willpower check against that of their host. Alternatively, there is a complex ritual involving the blood of the \inotator{}\apos{}s worst enemy. Whichever method is chosen, the \inotator{} is reborn, either warping the body of their host into a new form, or creating an entirely new body. The \inotator{} is reborn as an Aileni. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the body of an Et Iniquum or an Aileni is destroyed, their spirit remains bound to the Mortal Plane, as long as their Horcrux(es) remain intact. 
+With nowhere else to go, this spirit manifests as a dark apparition called an {\it \inotator{}}. A formless wisp, the \inotator{} seeks out living beings and whispers intheir ear, attempting to corrupt them into its service and allow them to merge together. Many Dark Wizards which go down the path of creating a Horcrux have a dedicated leiutenant who will act as a host for them until a new body can be created. </t>
+  </si>
+  <si>
+    <t>Willpower (+5), Stealth (+5), Arcane (+9), Unnature (+9).</t>
+  </si>
+  <si>
+    <t>Vitality (+9), Willpower (+10), Arcane (+12), Unnature (+12), Intimidation (+12). Wandless Spellcasting, Silent Spellcasting,  Apparation.</t>
+  </si>
+  <si>
+    <t>\ability{Human(ish)}{The Aileni may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
+\ability{Great Power}{An Aileni has incredibly powerful magical abilities. As such they are considered proficient in all schools of magic (proficiency bonus is +7), and take advantage on all Resist checks against magical effects. }
+\ability{Unkillable}{Whilst at least one of their Horxcruxes remains intact, an Aileni cannot be truly killed. If their hitpoints are reduced to zero, their body is destroyed, leaving behind an {\it \inotator}, which flees in order to regroup.}
+\ability{Unstable Soul}{The process of creating a Horcrux leaves their soul fractured and unstable. The maximum number of Horcruxes an individual can support is given by 1d4 + Spirit modifier. If they exceed this, they instantly die and rise as an Abserstath.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an \inotator{} regenerates itself a new body, the result is something more than human. An imprint of the true form of the being\apos{}s soul is left on the new form - resulting in a being which is more animalistic, sadistic, and much, much more powerful. 
+The most famous Aileni is Lord Voldemort, who rose as an Aileni in in 1995 after 14 years as an \inotator{}. His pride in his Slytherin heritage imprinted a serpentine form on his Aileni form, with red eyes and snake-slit slits, rather than a nose. Many other deformities have been reported in Aileni throughout history - Herpo the Foul was said to be more spider than man by the time he died his final death.  
+This warping of their human form allows an Aileni to wield more power, and the further they deviate from their human origins, the more powerful and deadly they become. </t>
+  </si>
+  <si>
+    <t>Vitality (+13), Conviction (+14), Willpower (+14), Arcane (+16). Wandless Spellcasting, Silent Spellcasting, Apparation.</t>
+  </si>
+  <si>
+    <t>All magical damage</t>
+  </si>
+  <si>
+    <t>\ability{Human(ish)}{An Aberstath may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
+\ability{Great Power}{An Aberstath has incredibly powerful magical abilities. As such they are considered proficient in all schools of magic (proficiency bonus is +10), take advantage on all Resist checks against magical effects, and are considered Resistant to all magical attacks. }
+\ability{Unkillable}{Whilst at least one of their Horxcruxes remains intact, an Aberstath cannot be truly killed. If their hitpoints are reduced to zero, their body is destroyed. One of the remaining Horcruxes is then instantly incinerated in a mighty inferno, which dies down to reveal the Aberstath reborn.}</t>
+  </si>
+  <si>
+    <t>\ability{Spellcasting}{An Aileni is an Ascendant Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
+\beastSpellList{
+\beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast, Control Fire, Mage Hands, Animal Eyes, Chaotic Whispers, Knockback, Vicious Slash}
+\beastSpell{Novice}{Abyssal Fluid, Necrosis, Crippling Fatigue, Blight, Summon Snake, Horrific Armaments, Mental Burden, Strangle, Psychic Crush, Dancing Bolt}
+\beastSpell{Adept}{Fireball, Freeze, Fury, Dilute Blood, Spiral Inversion, Blood Barrier, Torture}
+\beastSpell{Expert}{Arctic Blast, Contagion, Create Thrall, Create Zombie, Shield Breaker}
+\beastSpell{Master}{Flame Whip, Psionic Overload, Corrupt Object, Create Horcrux, Word of Death, Burning Blood}
+\beastSpell{Ascendant}{Army of the Dead, Soul Snare, Incineration Field, Taboo, Revoke Power}
+}
+}</t>
+  </si>
+  <si>
+    <t>\ability{Spellcasting}{An Aberstath is an Ascendant Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
+\beastSpellList{
+\beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast, Control Fire, Chaotic Whispers, Vicious Slash}
+\beastSpell{Novice}{Abyssal Fluid, Necrosis, Blight, Summon Snake, Horrific Armaments, Mental Burden, Strangle, Psychic Crush}
+\beastSpell{Adept}{Fireball, Freeze, Fury, Dilute Blood, Spiral Inversion, Blood Barrier, Torture, Shadow Demon, Voidsphere}
+\beastSpell{Expert}{Arctic Blast, Contagion, Create Thrall, Create Zombie, Shield Breaker, Detonation, Curse Being, Psychosis}
+\beastSpell{Master}{Flame Whip, Psionic Overload, Corrupt Object, Cursed Step, Selfshift, Word of Death, Burning Blood, Crush Bones}
+\beastSpell{Ascendant}{Army of the Dead, Soul Snare, Incineration Field, Taboo, Revoke Power, Destroy Mind, Mass Delusion, Channel Cataclysm, Immolation}
+}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Aberstath is a truly terrifying being, the result of a Dark Wizard gone too far in their quest for immortality. 
+The process of creating a Horcrux requires the subject to shatter their soul, which inherently leads to an instability, which forces them inevitably into evil and madness. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1254,22 +1394,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1277,7 +1402,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1301,7 +1426,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1309,144 +1434,400 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AJ133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AMJ136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AI19" activeCellId="0" sqref="AI19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AD89" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="AG89" sqref="AG89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="24.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="70.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="56.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="68.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="34" style="1" width="8.71"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="19" width="7.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="70.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="56.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="22.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16" style="1" customWidth="1"/>
+    <col min="33" max="33" width="68.85546875" style="1" customWidth="1"/>
+    <col min="34" max="1024" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1556,8 +1937,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:36" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1566,7 +1947,7 @@
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1578,49 +1959,49 @@
       <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>80</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="1">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1">
         <v>5</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="1">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="1">
         <v>13</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="1">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="1">
         <v>5</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="1">
         <v>17</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="1">
         <v>19</v>
       </c>
       <c r="W2" s="1" t="s">
@@ -1659,15 +2040,15 @@
       <c r="AH2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:36" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1676,7 +2057,7 @@
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1688,49 +2069,49 @@
       <c r="G3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="10">
         <v>140</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="10">
         <v>0</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="K3" s="9">
         <v>20</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="9">
         <v>15</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="9">
         <v>17</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="9">
         <v>3</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="9">
         <v>16</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="9">
         <v>17</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="Q3" s="9">
         <v>16</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="9">
         <v>18</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="S3" s="9">
         <v>6</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="9">
         <v>18</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="9">
         <v>13</v>
       </c>
       <c r="W3" s="9" t="s">
@@ -1767,15 +2148,15 @@
       <c r="AH3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="7" t="n">
+      <c r="AI3" s="7">
         <v>0.33</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:36" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1784,7 +2165,7 @@
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1796,49 +2177,49 @@
       <c r="G4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>60</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="10">
         <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="9">
         <v>10</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="9">
         <v>14</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="M4" s="9">
         <v>18</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="9">
         <v>24</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="9">
         <v>20</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="9">
         <v>15</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="Q4" s="9">
         <v>18</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="R4" s="9">
         <v>22</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="9">
         <v>6</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="U4" s="9">
         <v>11</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="V4" s="9">
         <v>14</v>
       </c>
       <c r="W4" s="9" t="s">
@@ -1877,15 +2258,15 @@
       <c r="AH4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="7" t="n">
+      <c r="AI4" s="7">
         <v>0.35</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="120.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:36" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1894,7 +2275,7 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1906,49 +2287,49 @@
       <c r="G5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>100</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>200</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="9">
         <v>15</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="9">
         <v>25</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="9">
         <v>4</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="9">
         <v>22</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="9">
         <v>13</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="Q5" s="9">
         <v>25</v>
       </c>
-      <c r="R5" s="9" t="n">
+      <c r="R5" s="9">
         <v>20</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="9">
         <v>5</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="9" t="n">
+      <c r="U5" s="9">
         <v>9</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="V5" s="9">
         <v>12</v>
       </c>
       <c r="W5" s="9" t="s">
@@ -1985,15 +2366,15 @@
       <c r="AH5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="7" t="n">
+      <c r="AI5" s="7">
         <v>0.7</v>
       </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="AJ5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="312.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:36" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2002,7 +2383,7 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2014,49 +2395,49 @@
       <c r="G6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>175</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="10">
         <v>50</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="9">
         <v>16</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="9">
         <v>18</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="M6" s="9">
         <v>19</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="N6" s="9">
         <v>7</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="9">
         <v>25</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="9">
         <v>23</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="Q6" s="9">
         <v>20</v>
       </c>
-      <c r="R6" s="9" t="n">
+      <c r="R6" s="9">
         <v>22</v>
       </c>
-      <c r="S6" s="9" t="n">
+      <c r="S6" s="9">
         <v>6</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="U6" s="9">
         <v>15</v>
       </c>
-      <c r="V6" s="9" t="n">
+      <c r="V6" s="9">
         <v>17</v>
       </c>
       <c r="W6" s="9" t="s">
@@ -2091,15 +2472,15 @@
       <c r="AH6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AI6" s="7" t="n">
+      <c r="AI6" s="7">
         <v>0.7</v>
       </c>
-      <c r="AJ6" s="1" t="n">
+      <c r="AJ6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2108,7 +2489,7 @@
       <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2120,49 +2501,49 @@
       <c r="G7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>8</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="1">
         <v>13</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="1">
         <v>4</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="1">
         <v>12</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="1">
         <v>8</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="1">
         <v>8</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R7" s="1">
         <v>7</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="1">
         <v>3</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="1">
         <v>10</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="V7" s="1">
         <v>12</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -2195,15 +2576,15 @@
       <c r="AH7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AI7" s="1" t="n">
+      <c r="AI7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ7" s="1" t="n">
+      <c r="AJ7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2212,7 +2593,7 @@
       <c r="C8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2224,49 +2605,49 @@
       <c r="G8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>45</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="1">
         <v>14</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>15</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="1">
         <v>10</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="1">
         <v>6</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="1">
         <v>18</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="1">
         <v>14</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="1">
         <v>12</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="1">
         <v>13</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="1">
         <v>5</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="1">
         <v>17</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="V8" s="1">
         <v>15</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -2303,15 +2684,15 @@
       <c r="AH8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AI8" s="1">
         <v>0.4</v>
       </c>
-      <c r="AJ8" s="1" t="n">
+      <c r="AJ8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:36" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2320,7 +2701,7 @@
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2332,49 +2713,49 @@
       <c r="G9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="1">
         <v>14</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>15</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="1">
         <v>8</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="1">
         <v>22</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="1">
         <v>18</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="1">
         <v>16</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="1">
         <v>17</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="1">
         <v>6</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="1">
         <v>15</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="1">
         <v>5</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -2410,15 +2791,15 @@
       <c r="AH9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AI9" s="1">
         <v>0.4</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2427,7 +2808,7 @@
       <c r="C10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2436,12 +2817,12 @@
       <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AJ10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2450,7 +2831,7 @@
       <c r="C11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2462,15 +2843,15 @@
       <c r="AH11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AJ11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2479,7 +2860,7 @@
       <c r="C12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2488,12 +2869,12 @@
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AJ12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2502,7 +2883,7 @@
       <c r="C13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2511,12 +2892,12 @@
       <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ13" s="1" t="n">
+      <c r="AJ13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2525,7 +2906,7 @@
       <c r="C14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2537,46 +2918,46 @@
       <c r="G14" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="1">
         <v>14</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="1">
         <v>14</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="1">
         <v>12</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="1">
         <v>12</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="1">
         <v>0</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="V14" s="1">
         <v>10</v>
       </c>
       <c r="W14" s="1" t="s">
@@ -2606,15 +2987,15 @@
       <c r="AH14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AI14" s="1" t="n">
+      <c r="AI14" s="1">
         <v>0.35</v>
       </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="AJ14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2623,7 +3004,7 @@
       <c r="C15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2635,49 +3016,49 @@
       <c r="G15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>20</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="1">
         <v>8</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>16</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="1">
         <v>15</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="N15" s="1">
         <v>12</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="O15" s="1">
         <v>8</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="P15" s="1">
         <v>8</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="Q15" s="1">
         <v>7</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="R15" s="1">
         <v>3</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="S15" s="1">
         <v>2</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="U15" s="1">
         <v>9</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="V15" s="1">
         <v>13</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -2707,15 +3088,15 @@
       <c r="AH15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AI15" s="1" t="n">
+      <c r="AI15" s="1">
         <v>0.4</v>
       </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="AJ15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:36" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2724,7 +3105,7 @@
       <c r="C16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2736,49 +3117,49 @@
       <c r="G16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>10</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="1">
         <v>10</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="1">
         <v>13</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="O16" s="1">
         <v>8</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="P16" s="1">
         <v>17</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="Q16" s="1">
         <v>0</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="R16" s="1">
         <v>6</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="S16" s="1">
         <v>2</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="U16" s="1">
         <v>5</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="V16" s="1">
         <v>10</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -2811,15 +3192,15 @@
       <c r="AH16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AI16" s="1" t="n">
+      <c r="AI16" s="1">
         <v>0.45</v>
       </c>
-      <c r="AJ16" s="1" t="n">
+      <c r="AJ16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:36" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2828,7 +3209,7 @@
       <c r="C17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2840,46 +3221,46 @@
       <c r="G17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1">
         <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="1">
         <v>15</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="1">
         <v>9</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" s="1">
         <v>6</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="P17" s="1">
         <v>16</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="Q17" s="1">
         <v>6</v>
       </c>
-      <c r="R17" s="1" t="n">
+      <c r="R17" s="1">
         <v>3</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="S17" s="1">
         <v>5</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="U17" s="1">
         <v>13</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="V17" s="1">
         <v>11</v>
       </c>
       <c r="W17" s="1" t="s">
@@ -2909,15 +3290,15 @@
       <c r="AH17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AI17" s="1" t="n">
+      <c r="AI17" s="1">
         <v>0.38</v>
       </c>
-      <c r="AJ17" s="1" t="n">
+      <c r="AJ17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:36" ht="225" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2926,7 +3307,7 @@
       <c r="C18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2938,49 +3319,49 @@
       <c r="G18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="1">
         <v>14</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="1">
         <v>16</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" s="1">
         <v>8</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="1">
         <v>2</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" s="1">
         <v>4</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="P18" s="1">
         <v>14</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="Q18" s="1">
         <v>4</v>
       </c>
-      <c r="R18" s="1" t="n">
+      <c r="R18" s="1">
         <v>2</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="S18" s="1">
         <v>2</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="U18" s="1">
         <v>14</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="V18" s="1">
         <v>13</v>
       </c>
       <c r="W18" s="1" t="s">
@@ -3013,12 +3394,12 @@
       <c r="AG18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AJ18" s="1" t="n">
+      <c r="AJ18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3027,7 +3408,7 @@
       <c r="C19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3039,46 +3420,46 @@
       <c r="G19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1">
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="K19" s="1">
         <v>7</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="L19" s="1">
         <v>16</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="M19" s="1">
         <v>4</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="N19" s="1">
         <v>3</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="1">
         <v>4</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="P19" s="1">
         <v>12</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="Q19" s="1">
         <v>4</v>
       </c>
-      <c r="R19" s="1" t="n">
+      <c r="R19" s="1">
         <v>2</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="S19" s="1">
         <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="U19" s="1">
         <v>7</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="V19" s="1">
         <v>14</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -3111,15 +3492,15 @@
       <c r="AH19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AI19" s="1" t="n">
+      <c r="AI19" s="1">
         <v>0.4</v>
       </c>
-      <c r="AJ19" s="1" t="n">
+      <c r="AJ19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:36" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -3128,7 +3509,7 @@
       <c r="C20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3140,49 +3521,49 @@
       <c r="G20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="1">
         <v>14</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="K20" s="1">
         <v>14</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>15</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="M20" s="1">
         <v>7</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="1">
         <v>2</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1">
         <v>3</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="P20" s="1">
         <v>16</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="Q20" s="1">
         <v>4</v>
       </c>
-      <c r="R20" s="1" t="n">
+      <c r="R20" s="1">
         <v>2</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="S20" s="1">
         <v>3</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="U20" s="1">
         <v>12</v>
       </c>
-      <c r="V20" s="1" t="n">
+      <c r="V20" s="1">
         <v>13</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -3212,21 +3593,21 @@
       <c r="AH20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AI20" s="1" t="n">
+      <c r="AI20" s="1">
         <v>0.4</v>
       </c>
-      <c r="AJ20" s="1" t="n">
+      <c r="AJ20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3244,15 +3625,15 @@
       <c r="AH21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AI21" s="1" t="n">
+      <c r="AI21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="1" t="n">
+      <c r="AJ21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3261,7 +3642,7 @@
       <c r="C22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3280,8 +3661,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3290,7 +3671,7 @@
       <c r="C23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3306,8 +3687,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3316,7 +3697,7 @@
       <c r="C24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3332,8 +3713,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -3342,7 +3723,7 @@
       <c r="C25" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="8">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3360,12 +3741,12 @@
       <c r="AH25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AI25" s="1" t="n">
+      <c r="AI25" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3374,7 +3755,7 @@
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="8">
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3392,12 +3773,12 @@
       <c r="AH26" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AI26" s="1" t="n">
+      <c r="AI26" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3406,7 +3787,7 @@
       <c r="C27" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3424,12 +3805,12 @@
       <c r="AH27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AI27" s="1" t="n">
+      <c r="AI27" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -3438,7 +3819,7 @@
       <c r="C28" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3453,12 +3834,12 @@
       <c r="AH28" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AI28" s="1" t="n">
+      <c r="AI28" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3467,7 +3848,7 @@
       <c r="C29" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3482,12 +3863,12 @@
       <c r="AH29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AI29" s="1" t="n">
+      <c r="AI29" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3496,7 +3877,7 @@
       <c r="C30" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3511,12 +3892,12 @@
       <c r="AH30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AI30" s="1" t="n">
+      <c r="AI30" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3525,7 +3906,7 @@
       <c r="C31" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="8">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3540,12 +3921,12 @@
       <c r="AH31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AI31" s="1" t="n">
+      <c r="AI31" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3554,7 +3935,7 @@
       <c r="C32" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3569,18 +3950,18 @@
       <c r="AH32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AI32" s="1" t="n">
+      <c r="AI32" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:35" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3595,18 +3976,18 @@
       <c r="AH33" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AI33" s="1" t="n">
+      <c r="AI33" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="8">
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3619,14 +4000,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="8">
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3639,14 +4020,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="8">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3659,14 +4040,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="8">
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3679,14 +4060,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="8">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3699,14 +4080,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="8">
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3719,14 +4100,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="8">
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3739,14 +4120,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="8">
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3759,14 +4140,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="8">
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3779,14 +4160,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="8">
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3799,14 +4180,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="1">
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3819,14 +4200,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3839,14 +4220,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="1">
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3859,14 +4240,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="1">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3879,14 +4260,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="1">
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3899,14 +4280,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="8">
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3919,8 +4300,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3929,7 +4310,7 @@
       <c r="C50" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="1">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3942,8 +4323,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>2</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3952,7 +4333,7 @@
       <c r="C51" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D51" s="8" t="n">
+      <c r="D51" s="8">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3965,14 +4346,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52" s="8">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3985,14 +4366,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="8">
         <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4005,14 +4386,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4025,14 +4406,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="1">
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4045,14 +4426,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4065,14 +4446,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="8">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4085,14 +4466,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4105,14 +4486,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4125,14 +4506,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="1">
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4145,14 +4526,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>278</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4165,14 +4546,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62" s="8">
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4185,14 +4566,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4205,14 +4586,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="1">
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4225,14 +4606,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="1">
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4245,14 +4626,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D66" s="1">
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -4265,14 +4646,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="1">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4285,14 +4666,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4305,14 +4686,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="1">
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4325,14 +4706,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="1">
         <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4345,14 +4726,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D71" s="1">
         <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4365,14 +4746,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="8" t="n">
+      <c r="D72" s="8">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4385,14 +4766,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="8" t="n">
+      <c r="D73" s="8">
         <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4405,14 +4786,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="8" t="n">
+      <c r="D74" s="8">
         <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4425,14 +4806,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" s="1">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4445,14 +4826,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D76" s="8" t="n">
+      <c r="D76" s="8">
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4465,14 +4846,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="8" t="n">
+      <c r="D77" s="8">
         <v>4</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -4485,14 +4866,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" s="1">
         <v>5</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -4505,14 +4886,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="1">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -4525,14 +4906,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>303</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="1" t="n">
+      <c r="D80" s="1">
         <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -4545,14 +4926,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D81" s="8" t="n">
+      <c r="D81" s="8">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4565,14 +4946,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D82" s="8" t="n">
+      <c r="D82" s="8">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -4585,14 +4966,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D83" s="8" t="n">
+      <c r="D83" s="8">
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -4605,14 +4986,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D84" s="8" t="n">
+      <c r="D84" s="8">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -4625,14 +5006,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D85" s="1">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -4645,94 +5026,367 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:36" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
       <c r="B86" s="8" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="D86" s="1">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H86" s="1">
+        <v>150</v>
+      </c>
+      <c r="I86" s="1">
+        <v>220</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" s="1">
+        <v>11</v>
+      </c>
+      <c r="L86" s="1">
+        <v>17</v>
+      </c>
+      <c r="M86" s="1">
+        <v>15</v>
+      </c>
+      <c r="N86" s="1">
+        <v>16</v>
+      </c>
+      <c r="O86" s="1">
+        <v>20</v>
+      </c>
+      <c r="P86" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>24</v>
+      </c>
+      <c r="R86" s="1">
+        <v>16</v>
+      </c>
+      <c r="S86" s="1">
+        <v>6</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="U86" s="1">
+        <v>11</v>
+      </c>
+      <c r="V86" s="1">
+        <v>14</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z86" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB86" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC86" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG86" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" ht="390" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10</v>
+      </c>
+      <c r="I87" s="1">
+        <v>50</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K87" s="1">
+        <v>3</v>
+      </c>
+      <c r="L87" s="1">
+        <v>10</v>
+      </c>
+      <c r="M87" s="1">
+        <v>13</v>
+      </c>
+      <c r="N87" s="1">
+        <v>14</v>
+      </c>
+      <c r="O87" s="1">
+        <v>20</v>
+      </c>
+      <c r="P87" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>10</v>
+      </c>
+      <c r="R87" s="1">
+        <v>18</v>
+      </c>
+      <c r="S87" s="1">
+        <v>5</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0</v>
+      </c>
+      <c r="V87" s="1">
+        <v>13</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z87" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB87" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC87" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG87" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI87" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" ht="315" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>3</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H88" s="1">
+        <v>200</v>
+      </c>
+      <c r="I88" s="1">
+        <v>250</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K88" s="1">
+        <v>14</v>
+      </c>
+      <c r="L88" s="1">
+        <v>17</v>
+      </c>
+      <c r="M88" s="1">
+        <v>17</v>
+      </c>
+      <c r="N88" s="1">
+        <v>17</v>
+      </c>
+      <c r="O88" s="1">
+        <v>20</v>
+      </c>
+      <c r="P88" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>25</v>
+      </c>
+      <c r="R88" s="1">
+        <v>20</v>
+      </c>
+      <c r="S88" s="1">
         <v>7</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="T88" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U88" s="1">
+        <v>13</v>
+      </c>
+      <c r="V88" s="1">
+        <v>16</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z88" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB88" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC88" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG88" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" ht="360" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>4</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" s="1">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG86" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="8" t="s">
+      <c r="F89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H89" s="1">
+        <v>250</v>
+      </c>
+      <c r="I89" s="1">
+        <v>300</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K89" s="1">
+        <v>17</v>
+      </c>
+      <c r="L89" s="1">
+        <v>18</v>
+      </c>
+      <c r="M89" s="1">
+        <v>18</v>
+      </c>
+      <c r="N89" s="1">
+        <v>14</v>
+      </c>
+      <c r="O89" s="1">
+        <v>22</v>
+      </c>
+      <c r="P89" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>27</v>
+      </c>
+      <c r="R89" s="1">
+        <v>25</v>
+      </c>
+      <c r="S89" s="1">
+        <v>10</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="U89" s="1">
+        <v>15</v>
+      </c>
+      <c r="V89" s="1">
+        <v>16</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z89" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB89" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC89" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG89" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D87" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG87" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D88" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG88" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG89" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D90" s="1" t="n">
+      <c r="D90" s="8">
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4745,35 +5399,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C91" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>1</v>
+      <c r="D91" s="8">
+        <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="AG91" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <v>2</v>
+      <c r="D92" s="1">
+        <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>94</v>
@@ -4785,54 +5439,54 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D93" s="8" t="n">
-        <v>6</v>
+        <v>315</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="AG93" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D94" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="D94" s="1">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="AG94" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D95" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="D95" s="1">
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4845,15 +5499,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>7</v>
+        <v>318</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" s="8">
+        <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>94</v>
@@ -4865,195 +5519,195 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG97" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG98" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D99" s="1">
+        <v>7</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG99" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D97" s="8" t="n">
+      <c r="D100" s="8">
         <v>3</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AG97" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="8" t="s">
+      <c r="AG100" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D98" s="1" t="n">
+      <c r="D101" s="1">
         <v>4</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AG98" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="8" t="s">
+      <c r="AG101" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D99" s="1" t="n">
+      <c r="D102" s="1">
         <v>4</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AG99" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="8" t="s">
+      <c r="AG102" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D100" s="1" t="n">
+      <c r="D103" s="1">
         <v>6</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG100" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="8" t="s">
+      <c r="AG103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D101" s="1" t="n">
+      <c r="D104" s="1">
         <v>5</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG101" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="8" t="s">
+      <c r="AG104" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="1" t="n">
+      <c r="D105" s="1">
         <v>4</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG102" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="8" t="s">
+      <c r="AG105" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG103" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D104" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG104" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D105" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG105" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D106" s="1" t="n">
-        <v>1</v>
+      <c r="D106" s="1">
+        <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>94</v>
@@ -5065,255 +5719,255 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D107" s="8">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG107" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="8">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG108" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG109" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D107" s="8" t="n">
+      <c r="D110" s="8">
         <v>4</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG107" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="8" t="s">
+      <c r="AG110" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="1" t="n">
+      <c r="D111" s="1">
         <v>3</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG108" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="8" t="s">
+      <c r="AG111" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D109" s="1" t="n">
+      <c r="D112" s="1">
         <v>4</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG109" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="8" t="s">
+      <c r="AG112" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D110" s="1" t="n">
+      <c r="D113" s="1">
         <v>1</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F110" s="1" t="s">
+      <c r="E113" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AG110" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="8" t="s">
+      <c r="AG113" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D111" s="1" t="n">
+      <c r="D114" s="1">
         <v>0</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AG111" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="8" t="s">
+      <c r="AG114" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D112" s="1" t="n">
+      <c r="D115" s="1">
         <v>6</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG112" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D113" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG113" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D114" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG114" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D115" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG115" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="1">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG116" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG117" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AG115" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="8" t="s">
+      <c r="AG118" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D116" s="1" t="n">
+      <c r="D119" s="1">
         <v>3</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG116" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D117" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG117" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D118" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG118" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D119" s="8" t="n">
-        <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>94</v>
@@ -5325,55 +5979,55 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D120" s="1" t="n">
-        <v>5</v>
+        <v>351</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="AG120" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>6</v>
+        <v>353</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D121" s="8">
+        <v>3</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="AG121" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D122" s="1" t="n">
-        <v>6</v>
+        <v>354</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D122" s="8">
+        <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>94</v>
@@ -5385,253 +6039,307 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG123" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" s="1">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG124" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125" s="1">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG125" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D123" s="1" t="n">
+      <c r="D126" s="1">
         <v>4</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AG123" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="8" t="s">
+      <c r="AG126" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D124" s="1" t="n">
+      <c r="D127" s="1">
         <v>5</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG124" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="8" t="s">
+      <c r="AG127" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="1" t="n">
+      <c r="D128" s="1">
         <v>4</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="E128" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG125" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="8" t="s">
+      <c r="AG128" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D126" s="1" t="n">
+      <c r="D129" s="1">
         <v>6</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AG126" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="8" t="s">
+      <c r="AG129" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="2:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="8" t="n">
+      <c r="D130" s="8">
         <v>3</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AG127" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH127" s="1" t="s">
+      <c r="AG130" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH130" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AI127" s="1" t="n">
+      <c r="AI130" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="8" t="s">
+    <row r="131" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D128" s="8" t="n">
+      <c r="D131" s="8">
         <v>4</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AG128" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH128" s="1" t="s">
+      <c r="AG131" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH131" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AI128" s="1" t="n">
+      <c r="AI131" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="8" t="s">
+    <row r="132" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D129" s="8" t="n">
+      <c r="D132" s="8">
         <v>5</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AG129" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH129" s="1" t="s">
+      <c r="AG132" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH132" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AI129" s="1" t="n">
+      <c r="AI132" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="1" t="s">
+    <row r="133" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D130" s="1" t="n">
+      <c r="D133" s="1">
         <v>4</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AG130" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1" t="s">
+      <c r="AG133" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D131" s="1" t="n">
+      <c r="D134" s="1">
         <v>6</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="E134" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG131" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="8" t="s">
+      <c r="AG134" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D132" s="1" t="n">
+      <c r="D135" s="1">
         <v>5</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AG132" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="8" t="s">
+      <c r="AG135" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D133" s="1" t="n">
+      <c r="D136" s="1">
         <v>5</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="E136" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AG133" s="1" t="s">
+      <c r="AG136" s="1" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AI1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\GameMasterGuide\Data\Beasts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5DD96-06CC-4FC4-A2E9-7A4A08984B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AI$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,233 +23,233 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="407">
-  <si>
-    <t>SpeciesOrder</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Mind</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>FIT</t>
-  </si>
-  <si>
-    <t>PRS</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>CHR</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>PCP</t>
-  </si>
-  <si>
-    <t>POW</t>
-  </si>
-  <si>
-    <t>EVL</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>Immune</t>
-  </si>
-  <si>
-    <t>Resistant</t>
-  </si>
-  <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
-    <t>Speaks</t>
-  </si>
-  <si>
-    <t>Understands</t>
-  </si>
-  <si>
-    <t>Abilities</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Habitat</t>
-  </si>
-  <si>
-    <t>SizeName</t>
-  </si>
-  <si>
-    <t>SizeValue</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>ImageHeight</t>
-  </si>
-  <si>
-    <t>NeedsPage</t>
-  </si>
-  <si>
-    <t>Death Hunter</t>
-  </si>
-  <si>
-    <t>Abyssal Spawn</t>
-  </si>
-  <si>
-    <t>Ineffable</t>
-  </si>
-  <si>
-    <t>Abomination</t>
-  </si>
-  <si>
-    <t>Sightless Tracker</t>
-  </si>
-  <si>
-    <t>25 metres</t>
-  </si>
-  <si>
-    <t>Speed (+11), Stealth (+4), Observation (+10), Intimidation (+7)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="409">
+  <si>
+    <t xml:space="preserve">SpeciesOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susceptible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SizeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SizeValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NeedsPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abyssal Spawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ineffable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abomination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sightless Tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed (+11), Stealth (+4), Observation (+10), Intimidation (+7)</t>
   </si>
   <si>
     <t xml:space="preserve">Cold damage, All sensory effects, {\it Charmed} and {\it Terrified} status effects. </t>
   </si>
   <si>
-    <t>Necrotic</t>
-  </si>
-  <si>
-    <t>Celestial</t>
-  </si>
-  <si>
-    <t>Voidic</t>
-  </si>
-  <si>
-    <t>All spoken languages</t>
-  </si>
-  <si>
-    <t>\ability{Alien Senses}{A Death Hunter does not use conventional senses to percieve the world around it. It is therefore immune to effects such as Blindness and Deafness, and can see in perfect darkness}
+    <t xml:space="preserve">Necrotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voidic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All spoken languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Alien Senses}{A Death Hunter does not use conventional senses to percieve the world around it. It is therefore immune to effects such as Blindness and Deafness, and can see in perfect darkness}
 \ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Death Hunter. The Death Hunter gets advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
 \ability{Void Walk}{As Abyssal Spawn, the Death Hunter can , with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t>\melee{Bludgeon}{+11}{Deals 6+1d6 bludgeoning damage}
+    <t xml:space="preserve">\melee{Bludgeon}{+11}{Deals 6+1d6 bludgeoning damage}
 \melee{Bite}{+10}{Deals 6 + 2d8 piercing damage}
 \ability{Pounce}{As a major action, a Death Hunter may leap up to 5 metres towards a target, and take a combined Bludgeon and Bite attack.}
 \ability{Call Allies}{As a major action, a Death Hunter may raise their head to the heavens and howl a phrase in Voidic, stretching across dimensions, alerting their masters that they have found their quarry. This opens a portal through which the rest of the hunting party may appear.}</t>
   </si>
   <si>
-    <t>Eldritch Domains</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>2 metres</t>
+    <t xml:space="preserve">Eldritch Domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 metres</t>
   </si>
   <si>
     <t xml:space="preserve">A disgusting pale-white creature with 6 legs and a face which is entirely featureless except a gaping red maw. 
 Incredibly fast, and with powerful alien senses the Death Hunter serves one purpose: to track and hunt down their target across dimensions. </t>
   </si>
   <si>
-    <t>hunter</t>
-  </si>
-  <si>
-    <t>Flesh Ripper</t>
-  </si>
-  <si>
-    <t>Animalistic Fighter</t>
-  </si>
-  <si>
-    <t>3 metres</t>
-  </si>
-  <si>
-    <t>Strength (+11), Intimidation (+10)</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Flesh Ripper. They get advantage on all Resist Checks against magic spells.}
+    <t xml:space="preserve">hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flesh Ripper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animalistic Fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength (+11), Intimidation (+10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Flesh Ripper. They get advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
 \ability{Void Walk}{As Abyssal Spawn, the Flesh Ripper can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t>\melee{Bite}{+12}{Deals 4d8 piercing damage. On a failed DV 15 Vitality Resist, target takes an additional 4d8 necrotic damage. }
+    <t xml:space="preserve">\melee{Bite}{+12}{Deals 4d8 piercing damage. On a failed DV 15 Vitality Resist, target takes an additional 4d8 necrotic damage. }
 \melee{Harpoon Tail}{Range: 10 metres, +7}{Deals 5d6 piercing damage, and initiates a grapple action.}
 \ability{Devour}{Consume a target being in melee range which is {\it Incapacitated}, instantly killing the being and restoring 4d20 Health points.} 
 \ranged{Voidic Bile}{+7}{50 metres}{Spits a gout of black bile which does 3d6 each of Acid, Necrotic and Poison Damage}</t>
   </si>
   <si>
-    <t>5 metres</t>
+    <t xml:space="preserve">5 metres</t>
   </si>
   <si>
     <t xml:space="preserve">A hulking mass of rotting, oily flesh covered in a bony exoskeleton which seems to twist and warp in multiple dimensions. The Flesh Ripper\apos{}s role is as a heavy assault weapon. It is aided in this by it\apos{}s long, scorpion like tail, which ends in a vicious barb. This tail is used to spear beings, before dragging them, helpless, into its maw. </t>
   </si>
   <si>
-    <t>ripper</t>
-  </si>
-  <si>
-    <t>Mind Shredder</t>
-  </si>
-  <si>
-    <t>Mistress of Lies</t>
-  </si>
-  <si>
-    <t>Deception (+12), Persuasion (+12), Willpower (+9)</t>
-  </si>
-  <si>
-    <t>Psychic, Cold</t>
-  </si>
-  <si>
-    <t>\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Mind Shredder. They get advantage on all Resist Checks against magic spells.}
+    <t xml:space="preserve">ripper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind Shredder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistress of Lies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deception (+12), Persuasion (+12), Willpower (+9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychic, Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Mind Shredder. They get advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}
 \ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t>\ability{Spellcasting}{A Mind Shredder can perform the following spells as silent, wandless actions, and upcast them all to Expert level:
+    <t xml:space="preserve">\ability{Spellcasting}{A Mind Shredder can perform the following spells as silent, wandless actions, and upcast them all to Expert level:
 \beastSpellList{
 \beastSpell{Beginner}{Glamour, Chaotic Whispers, Piercing Wail, Force Shield}
 \beastSpell{Novice}{Horrific Araments, Necrosis, Silent Illusion}
@@ -265,35 +260,35 @@
 }</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>1.7 metres</t>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 metres</t>
   </si>
   <si>
     <t xml:space="preserve">A monstrous female form, all protruding fangs and tentacles lies behind layers of illusions and deception. Created by the Abyssal Masters for the express purpose of infiltration of the minds of their foes, the Mind Shredder is weak in body, but wields immense psionic powers. </t>
   </si>
   <si>
-    <t>shredder</t>
-  </si>
-  <si>
-    <t>Soul Devourer</t>
-  </si>
-  <si>
-    <t>Eldritch Arcane Master</t>
-  </si>
-  <si>
-    <t>Willpower (+11), Arcane (+10), Unnature (+10)</t>
-  </si>
-  <si>
-    <t>\ability{Necrotic Shroud}{The Soul Devourer is surrounded by a field of negative energy. Any being which spends any part of their turn within 2 metres of the Soul Devourer takes 3d8 necrotic damage.}
+    <t xml:space="preserve">shredder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul Devourer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldritch Arcane Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willpower (+11), Arcane (+10), Unnature (+10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Necrotic Shroud}{The Soul Devourer is surrounded by a field of negative energy. Any being which spends any part of their turn within 2 metres of the Soul Devourer takes 3d8 necrotic damage.}
 \ability{Soul Grab}{Whenever a being dies inside the Necrotic Shroud, the Soul Devourer instantly absorbs its soul as if it had cast {\it Soul Snare}}
 \ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Soul Devourer. They get advantage on all Resist Checks against magic spells.}
 \ability{Terrifying Visage}{When a being first sees a member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creature. All terrified beings must reperform the check again, take 5d6 psychic damage on a failure.}
 \ability{Void Walk}{As Abyssal Spawn, the Soul Devourer can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t>\ability{Shroud Flare}{As a minor action, the Soul Devourer can push its {\it Necrotic Shroud} outwards, expanding to a radius of 2 + 1d6 metres, where it remains until the end of the next turn cycle.}
+    <t xml:space="preserve">\ability{Shroud Flare}{As a minor action, the Soul Devourer can push its {\it Necrotic Shroud} outwards, expanding to a radius of 2 + 1d6 metres, where it remains until the end of the next turn cycle.}
 \ability{Spellcasting}{A Soul Devourer can perform the following spells as silent, wandless actions, and upcast them all to Master level:
 \beastSpellList{
 \beastSpell{Beginner}{Shadow Blast, Vicious Slash, Shroud of Darkness}
@@ -305,25 +300,25 @@
 }</t>
   </si>
   <si>
-    <t>The Soul Devourer is the arcane expert of the Abyssal army, using the souls of the fallen – even their own allies – to cast powerful magics.</t>
-  </si>
-  <si>
-    <t>devourer</t>
-  </si>
-  <si>
-    <t>Wielder-of-Night</t>
-  </si>
-  <si>
-    <t>Eldritch General</t>
-  </si>
-  <si>
-    <t>10 metres</t>
-  </si>
-  <si>
-    <t>Willpower (+10), Logic (+13), Investigation (+12)</t>
-  </si>
-  <si>
-    <t>Necrotic, Cold</t>
+    <t xml:space="preserve">The Soul Devourer is the arcane expert of the Abyssal army, using the souls of the fallen – even their own allies – to cast powerful magics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devourer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielder-of-Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldritch General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willpower (+10), Logic (+13), Investigation (+12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic, Cold</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -332,7 +327,7 @@
 \ability{Void Walk}{As Abyssal Spawn, the Soul Devourer can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
   </si>
   <si>
-    <t>\melee{Abyssal Scythe}{+10}{Deals 4 + 1d4 slashing damage. On a failed DV 15 vitality Resist, deals an additional 3d6 cold damage.}
+    <t xml:space="preserve">\melee{Abyssal Scythe}{+10}{Deals 4 + 1d4 slashing damage. On a failed DV 15 vitality Resist, deals an additional 3d6 cold damage.}
 \melee{Tentacle Strike}{+7}{Deals 3 + 1d4 bludgeoning damage and allows the Wielder-of-Night to initiate a grapple}. 
 \ability{Spellcasting}{A Wielder-of-Night can perform the following spells as silent, wandless actions, and upcast them to Master level:
 \beastSpellList{
@@ -345,194 +340,194 @@
 \ability{Command Legions}{The Wielder-of-Night may use their major action to command any other Abyssal Spawn in hearing, giving them check-advantage on their next check.}</t>
   </si>
   <si>
-    <t>4 metres</t>
+    <t xml:space="preserve">4 metres</t>
   </si>
   <si>
     <t xml:space="preserve">The general of the Abyssal Armies, commanding untold legions of lesser creatures. They wield an enormous scythe, which crackles with frost. </t>
   </si>
   <si>
-    <t>spawn</t>
-  </si>
-  <si>
-    <t>Acromantula Hatchling</t>
-  </si>
-  <si>
-    <t>Acromantula</t>
-  </si>
-  <si>
-    <t>Non-sapient</t>
-  </si>
-  <si>
-    <t>Monstrosity</t>
-  </si>
-  <si>
-    <t>Newborn Giant Spider</t>
-  </si>
-  <si>
-    <t>Stealth (+4), Nightvision</t>
-  </si>
-  <si>
-    <t>Celestial damage</t>
-  </si>
-  <si>
-    <t>Poison damage</t>
-  </si>
-  <si>
-    <t>Spider Tongue</t>
-  </si>
-  <si>
-    <t>\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
-  </si>
-  <si>
-    <t>\melee{Bite}{+3}{Deals 1+1d8 piercing damage. Target must suceed a DV10 Vitality check, or take an additional 2d6 poison damage}</t>
-  </si>
-  <si>
-    <t>Rainforests of Borneo, spread worldwide</t>
-  </si>
-  <si>
-    <t>Legspan</t>
-  </si>
-  <si>
-    <t>1 metre</t>
+    <t xml:space="preserve">spawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acromantula Hatchling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acromantula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-sapient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monstrosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newborn Giant Spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth (+4), Nightvision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poison damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider Tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Bite}{+3}{Deals 1+1d8 piercing damage. Target must suceed a DV10 Vitality check, or take an additional 2d6 poison damage}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainforests of Borneo, spread worldwide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legspan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 metre</t>
   </si>
   <si>
     <t xml:space="preserve">A newborn acromantula has a shiny, hairless and pale-grey carapace, covering their body which is only 1 metre across, and has a diminished intelligence compared to their full grown counterparts. </t>
   </si>
   <si>
-    <t>babyAcro</t>
-  </si>
-  <si>
-    <t>Sapient</t>
-  </si>
-  <si>
-    <t>Adult Giant Spider</t>
-  </si>
-  <si>
-    <t>15 metres</t>
-  </si>
-  <si>
-    <t>Stealth (+6), Strength (+5), Observation (+5), Nightvision</t>
-  </si>
-  <si>
-    <t>Fire damage</t>
-  </si>
-  <si>
-    <t>Human Languages</t>
-  </si>
-  <si>
-    <t>\melee{Bite}{+7}{Deals 6+3d8 piercing damage. Target must suceed a DV15 Vitality check, or take an additional 5d6 poison damage and take the {\it Poisoned: Mild} status effect. }
+    <t xml:space="preserve">babyAcro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Giant Spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth (+6), Strength (+5), Observation (+5), Nightvision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Bite}{+7}{Deals 6+3d8 piercing damage. Target must suceed a DV15 Vitality check, or take an additional 5d6 poison damage and take the {\it Poisoned: Mild} status effect. }
 \ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}</t>
   </si>
   <si>
-    <t>A fully grown Acromantula is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….</t>
-  </si>
-  <si>
-    <t>Acromantula Patriarch</t>
-  </si>
-  <si>
-    <t>Ruler of the Spider Clan</t>
-  </si>
-  <si>
-    <t>Strength (+4), Observation (+10), Nightvision</t>
-  </si>
-  <si>
-    <t>Spider Tongue, Human Languages</t>
-  </si>
-  <si>
-    <t>\ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
-  </si>
-  <si>
-    <t>\melee{Bite}{+4}{Deals 6d10 piercing damage. Target must suceed a DV18 Vitality check, or take an additional 15d6 poison damage and take the {\it Poisoned: Severe} status effect. }
+    <t xml:space="preserve">A fully grown Acromantula is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acromantula Patriarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruler of the Spider Clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength (+4), Observation (+10), Nightvision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider Tongue, Human Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Bite}{+4}{Deals 6d10 piercing damage. Target must suceed a DV18 Vitality check, or take an additional 15d6 poison damage and take the {\it Poisoned: Severe} status effect. }
 \ranged{Web}{+6}{30 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 18 Strength Resist, or the webbing absorbs 15 points of physical damage.}
 \ability{Webbed Domain}{A patriarch may use a major action to launch a globule of sticky material up to 10 metres away from them, which covers an area of 5m in radius. This area is considered {\it Webbed}. Movement on a webbed area is halved.}</t>
   </si>
   <si>
-    <t>8 metres</t>
+    <t xml:space="preserve">8 metres</t>
   </si>
   <si>
     <t xml:space="preserve">The eldest of the spider monstrosities is known as the {\it Patriarch}. Though they have reached truly gargantuan sizes, their bodies have become decrepit with age. Their minds, however, are razor sharp and they have mastered human speech. </t>
   </si>
   <si>
-    <t>aragog</t>
-  </si>
-  <si>
-    <t>Cherubim</t>
-  </si>
-  <si>
-    <t>Angels</t>
-  </si>
-  <si>
-    <t>Seraphim</t>
-  </si>
-  <si>
-    <t>angel</t>
-  </si>
-  <si>
-    <t>Throne</t>
-  </si>
-  <si>
-    <t>Archangel</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Apparitions</t>
-  </si>
-  <si>
-    <t>Phantasm</t>
-  </si>
-  <si>
-    <t>Remnant of deceased human</t>
-  </si>
-  <si>
-    <t>10 metres (flying)</t>
-  </si>
-  <si>
-    <t>Stealth (+8)</t>
-  </si>
-  <si>
-    <t>All damage types \&amp; status effects</t>
+    <t xml:space="preserve">aragog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherubim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seraphim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archangel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remnant of deceased human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 metres (flying)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth (+8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All damage types \&amp; status effects</t>
   </si>
   <si>
     <t xml:space="preserve">Whatever languages they could speak when alive </t>
   </si>
   <si>
-    <t>\ability{Incorporeal}{The ghost does not interact with the material world. It may move through physical objects at will, and float in all 3 dimensions. When inside an object, the ghost cannot see or hear. }</t>
-  </si>
-  <si>
-    <t>\ability{Haunting}{The ghost releases an unearthly howl, forcing all beings to pass a DV 15 Willpower Resist, or become {\it Terrified} of it. }</t>
-  </si>
-  <si>
-    <t>The place of their death</t>
-  </si>
-  <si>
-    <t>A ghost is the imprint of the soul of a once-living wizard or witch, left to wander the material realm after their physical form has died. A ghost resembles their former selves at the moment of their death, though in a translucent, silver-grey form. 
+    <t xml:space="preserve">\ability{Incorporeal}{The ghost does not interact with the material world. It may move through physical objects at will, and float in all 3 dimensions. When inside an object, the ghost cannot see or hear. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Haunting}{The ghost releases an unearthly howl, forcing all beings to pass a DV 15 Willpower Resist, or become {\it Terrified} of it. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place of their death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ghost is the imprint of the soul of a once-living wizard or witch, left to wander the material realm after their physical form has died. A ghost resembles their former selves at the moment of their death, though in a translucent, silver-grey form. 
 No-one knows what causes a ghost to remain behind, though it is posited that these fleshless spirits were mortally afraid of death or have some extraordinarily strong connection to the locations they haunt.</t>
   </si>
   <si>
-    <t>ghost</t>
-  </si>
-  <si>
-    <t>Poltergeist</t>
+    <t xml:space="preserve">ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poltergeist</t>
   </si>
   <si>
     <t xml:space="preserve">(Mostly) Harmless Trickster </t>
   </si>
   <si>
-    <t>15 metres (flying)</t>
-  </si>
-  <si>
-    <t>Chicanery (+5), Acrobatics (+5), Improvised Range Weapons</t>
-  </si>
-  <si>
-    <t>Piercing, Bludgeoning \&amp; Slashing damage</t>
-  </si>
-  <si>
-    <t>All human languages</t>
-  </si>
-  <si>
-    <t>\ability{Floating}{A poltergeist floats through the air at will, and is able to move freely in all 3 dimensions}
+    <t xml:space="preserve">15 metres (flying)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicanery (+5), Acrobatics (+5), Improvised Range Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piercing, Bludgeoning \&amp; Slashing damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All human languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Floating}{A poltergeist floats through the air at will, and is able to move freely in all 3 dimensions}
 \ability{Amortal}{A poltergeist can never truly be killed. When its HP is reduced to zero, it returns to the Astral Plane, and after a number of days, it returns to the Material Realm}</t>
   </si>
   <si>
@@ -540,7 +535,7 @@
 \ability{Innate Spellcasting}{A poltergeist can use a major action to cast the following spells without a wand: {\it Levitation}, {\it Mage Hands}, {\it Mark Surface}, {\it Throw Voice}, {\it Piercing Wail} and {\it Trip}.} </t>
   </si>
   <si>
-    <t>Wherever humans are found</t>
+    <t xml:space="preserve">Wherever humans are found</t>
   </si>
   <si>
     <t xml:space="preserve">A poltergeist is an amortal, indestructable spirit of chaos and mischief. They appear as a short, childlike figure dressed in a motley jester\apos{}s garb, with glowing orange eyes, which twinkle with mischief. 
@@ -548,32 +543,32 @@
 Unusually out of apparitions and other spiritual creatures, poltergeists are able to take on physical form and cast primitive forms of magic - which they use to wreak chaos and play pranks on unsuspecting humans. </t>
   </si>
   <si>
-    <t>peeves</t>
-  </si>
-  <si>
-    <t>Boggart</t>
-  </si>
-  <si>
-    <t>Aspect of Fear</t>
-  </si>
-  <si>
-    <t>Depends on form</t>
-  </si>
-  <si>
-    <t>Empathy (+7)</t>
-  </si>
-  <si>
-    <t>Laughter</t>
-  </si>
-  <si>
-    <t>Depends on form taken</t>
-  </si>
-  <si>
-    <t>\ability{Amortal}{A boggart can never truly be killed. When its HP is reduced to zero, it returns to the Astral Plane, and after a number of days, it returns to the Material Realm}
+    <t xml:space="preserve">peeves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boggart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of Fear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depends on form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empathy (+7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depends on form taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Amortal}{A boggart can never truly be killed. When its HP is reduced to zero, it returns to the Astral Plane, and after a number of days, it returns to the Material Realm}
 \ability{Killing Joke}{A boggart is mortally afraid of laughter. The sound of genuine laughter causes the boggart to take 2d6 damage. }</t>
   </si>
   <si>
-    <t>\ability{Discern Fears}{A boggart can use a minor action to peer into the soul of an individual, and learn their greatest fear. Contest a Empathy check against the victim\apos{}s Willpower Resist - on a success, the boggart learns the victim\apos{}s greatest fear. }
+    <t xml:space="preserve">\ability{Discern Fears}{A boggart can use a minor action to peer into the soul of an individual, and learn their greatest fear. Contest a Empathy check against the victim\apos{}s Willpower Resist - on a success, the boggart learns the victim\apos{}s greatest fear. }
 \ability{Shapeshift}{A boggart may use a major action to transform into any shape, to represent something the target is scared of. Any being for which this is their greatest fear must pass a DV 20 Willpower Resist check or become {\it Terrified}. }</t>
   </si>
   <si>
@@ -581,60 +576,60 @@
 A boggart can never harm you, though they can be difficult to contain. The accepted trick is to transfigure them to look stupid, prompting a fit of laughter – which is fatal to a boggart. </t>
   </si>
   <si>
-    <t>boggart</t>
-  </si>
-  <si>
-    <t>Brood Mother</t>
-  </si>
-  <si>
-    <t>Arachnid</t>
-  </si>
-  <si>
-    <t>Beast</t>
-  </si>
-  <si>
-    <t>Egg-collecting spider</t>
-  </si>
-  <si>
-    <t>Stealth (+7), Nightvision</t>
-  </si>
-  <si>
-    <t>\ability{Protective}{The Brood Mother cannot move more than 5 metres away from her nest}
+    <t xml:space="preserve">boggart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brood Mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arachnid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg-collecting spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth (+7), Nightvision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Protective}{The Brood Mother cannot move more than 5 metres away from her nest}
 \ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
 \ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
 \ability{Web Walker}{An Great Widow takes no movement penalty when walked on webbed surfaces}</t>
   </si>
   <si>
-    <t>\melee{Bite}{+3}{Deals 1d6 poison damage and on a failed DV 13 Vitality Resist deals another 2d6 poison damage}
+    <t xml:space="preserve">\melee{Bite}{+3}{Deals 1d6 poison damage and on a failed DV 13 Vitality Resist deals another 2d6 poison damage}
 \ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}
 \ability{Forced Hatch}{The Brood Mother may force one of the eggs in her nest to hatch early. The newly hatched spider has only half its normal max HP, but will defend its mother to the death.}</t>
   </si>
   <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
-  </si>
-  <si>
-    <t>Brood</t>
-  </si>
-  <si>
-    <t>Spraying Mantis</t>
-  </si>
-  <si>
-    <t>Acid-Spitting Monster</t>
-  </si>
-  <si>
-    <t>Acrobatics (+5), Speed (+4), Intimidation (+4)</t>
-  </si>
-  <si>
-    <t>Acid</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>\ability{Web Walker}{A Spraying Mantis takes no movement penalty when walking on webbed surfaces}
+    <t xml:space="preserve">Underground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spraying Mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid-Spitting Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrobatics (+5), Speed (+4), Intimidation (+4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Web Walker}{A Spraying Mantis takes no movement penalty when walking on webbed surfaces}
 \ability{Fanged Forearms}{The Spraying Mantis\apos{} hooked and fanged carapace allows it to cling onto targets more tightly – taking check advantage on all grappling checks.}
 \ability{Four Forearms}{The Spraying Mantis has two sets of arms, and so can grapple up to two individuals at a time.}</t>
   </si>
@@ -644,53 +639,53 @@
 \ability{Acid Spray}{As a major action, the Spraying Mantis releases a horrifying spray of acid, coating a cone up to 3 metres long. All beings in this area take 3d6+2 acid damage, halved on a successful Acrobatics or Speed Resist. This ability recharges after 3 turns. } </t>
   </si>
   <si>
-    <t>Tropical Regions</t>
+    <t xml:space="preserve">Tropical Regions</t>
   </si>
   <si>
     <t xml:space="preserve">A gigantic, horrifying crossbreed between a spider, and a praying mantis resulted in a grotesque monstrosity. The being appears, outwardly, to be a giant metre-long insect walking on 4 legs, with an additional 4 arms turned into hinged and hooked arms which they use to catch their prey. 
 True to their name, they also spray acidic juices on their prey, to aid in their eventual digestion. </t>
   </si>
   <si>
-    <t>Great Widow</t>
-  </si>
-  <si>
-    <t>Poisonous spider</t>
-  </si>
-  <si>
-    <t>Stealth (+5)</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>\ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
+    <t xml:space="preserve">Great Widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisonous spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth (+5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
 \ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
 \ability{Web Walker}{An Great Widow takes no movement penalty when walked on webbed surfaces}</t>
   </si>
   <si>
-    <t>\melee{Bite}{+3}{Deals 3d6 poison damage. On a failed DV 10 Vitality check, the victim takes the {\it Poisoned: Mild} ststus}
+    <t xml:space="preserve">\melee{Bite}{+3}{Deals 3d6 poison damage. On a failed DV 10 Vitality check, the victim takes the {\it Poisoned: Mild} ststus}
 \ranged{Spit}{+4}{5 metres}{A globule of acid burns into you, dealing 2d8 acid damage}</t>
   </si>
   <si>
-    <t>Urban areas</t>
-  </si>
-  <si>
-    <t>40 centimetres</t>
+    <t xml:space="preserve">Urban areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 centimetres</t>
   </si>
   <si>
     <t xml:space="preserve">Magical experimentation on a {\it Black Widow} produced this grossly oversized specimen, and gave it the ability to spit acid. </t>
   </si>
   <si>
-    <t>blackWidow</t>
-  </si>
-  <si>
-    <t>Howling Tick</t>
-  </si>
-  <si>
-    <t>Size-changing Spider</t>
-  </si>
-  <si>
-    <t>\ability{Bloodsucker}{Whenever the Howling Tick lands a successful attack, it doubles in size, and its bites become more venemous.
+    <t xml:space="preserve">blackWidow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howling Tick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size-changing Spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Bloodsucker}{Whenever the Howling Tick lands a successful attack, it doubles in size, and its bites become more venemous.
 If it goes a combat cycle without feasting on blood, it shrinks, until it reaches its resting size of 10cm.
 }
 \ability{Languages}{Can understand the spider tongue} 
@@ -698,579 +693,363 @@
 \ability{Web Walker}{A Howling Tick takes no movement penalty when walked on webbed surfaces}</t>
   </si>
   <si>
-    <t>\ability{Leap}{In place of a movement action, the Howling Tick may leap up to 4 metres, and then take a bite attack}
+    <t xml:space="preserve">\ability{Leap}{In place of a movement action, the Howling Tick may leap up to 4 metres, and then take a bite attack}
 \melee{Bite}{+2}{Deals 1d6 poison damage (increased by 1d6 for every increase in size), and triggers its {\it Bloodsucker} attribute.}</t>
   </si>
   <si>
-    <t>10cm</t>
-  </si>
-  <si>
-    <t>The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
+    <t xml:space="preserve">10cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
 The Howling Tick has the magical ability to grow in size when it feeds, however they must continually gorge in order to maintain their size, or they quickly shrink back.</t>
   </si>
   <si>
-    <t>tick</t>
-  </si>
-  <si>
-    <t>Nogtail</t>
-  </si>
-  <si>
-    <t>Beast Demon</t>
-  </si>
-  <si>
-    <t>Demon</t>
-  </si>
-  <si>
-    <t>Wolf Demon</t>
-  </si>
-  <si>
-    <t>hey</t>
-  </si>
-  <si>
-    <t>nogtail</t>
-  </si>
-  <si>
-    <t>Bowtruckle Splinter</t>
-  </si>
-  <si>
-    <t>Bowtruckle</t>
-  </si>
-  <si>
-    <t>Imp</t>
-  </si>
-  <si>
-    <t>Young Tree Guardian</t>
-  </si>
-  <si>
-    <t>Bowtruckle Flower</t>
-  </si>
-  <si>
-    <t>Tree Guardian</t>
-  </si>
-  <si>
-    <t>Bowtruckle Thorn</t>
+    <t xml:space="preserve">tick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nogtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Splinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young Tree Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Thorn</t>
   </si>
   <si>
     <t xml:space="preserve">Bowtruckle Warrior </t>
   </si>
   <si>
-    <t>Graphorn</t>
-  </si>
-  <si>
-    <t>Ceratothid</t>
-  </si>
-  <si>
-    <t>Aggressive Horned Bovine</t>
-  </si>
-  <si>
-    <t>Erumpet</t>
-  </si>
-  <si>
-    <t>Exploding-horned Rhinoceros</t>
-  </si>
-  <si>
-    <t>erumpet</t>
-  </si>
-  <si>
-    <t>Re'em</t>
-  </si>
-  <si>
-    <t>Giant Golden Ox</t>
-  </si>
-  <si>
-    <t>reem</t>
-  </si>
-  <si>
-    <t>Chimera</t>
-  </si>
-  <si>
-    <t>chimera</t>
-  </si>
-  <si>
-    <t>Dementor</t>
-  </si>
-  <si>
-    <t>Cloaked Spirits</t>
-  </si>
-  <si>
-    <t>dementor</t>
-  </si>
-  <si>
-    <t>Lethifold</t>
-  </si>
-  <si>
-    <t>lethifold</t>
-  </si>
-  <si>
-    <t>Hidebehind</t>
-  </si>
-  <si>
-    <t>Creations</t>
-  </si>
-  <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>hidebehind</t>
-  </si>
-  <si>
-    <t>Blast-Ended Skrewt</t>
-  </si>
-  <si>
-    <t>screwt</t>
-  </si>
-  <si>
-    <t>Demiguise</t>
-  </si>
-  <si>
-    <t>demiguise</t>
-  </si>
-  <si>
-    <t>Common Welsh Green</t>
-  </si>
-  <si>
-    <t>Dragons</t>
-  </si>
-  <si>
-    <t>Draconid</t>
-  </si>
-  <si>
-    <t>Hebridean Black</t>
-  </si>
-  <si>
-    <t>Hungarian Horntail</t>
-  </si>
-  <si>
-    <t>Norwegian Ridgeback</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>Peruvian Vipertooth</t>
-  </si>
-  <si>
-    <t>Romanian Longhorn</t>
-  </si>
-  <si>
-    <t>Swedish Shortsnout</t>
-  </si>
-  <si>
-    <t>Ukranian Ironbelly</t>
-  </si>
-  <si>
-    <t>Antipodean Opaleye</t>
-  </si>
-  <si>
-    <t>Chinese Fireball</t>
-  </si>
-  <si>
-    <t>Avatar of Fire</t>
-  </si>
-  <si>
-    <t>Elemental Avatar</t>
-  </si>
-  <si>
-    <t>Elemental</t>
-  </si>
-  <si>
-    <t>Avatar of Ice</t>
-  </si>
-  <si>
-    <t>Avatar of Storms</t>
-  </si>
-  <si>
-    <t>Pixie</t>
-  </si>
-  <si>
-    <t>Elf</t>
-  </si>
-  <si>
-    <t>Doxy</t>
-  </si>
-  <si>
-    <t>Fairy</t>
-  </si>
-  <si>
-    <t>True Fairy</t>
-  </si>
-  <si>
-    <t>Draconic Guardian</t>
-  </si>
-  <si>
-    <t>False Dragon</t>
-  </si>
-  <si>
-    <t>Construct</t>
-  </si>
-  <si>
-    <t>Hydra</t>
-  </si>
-  <si>
-    <t>Lobalug</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Mackled Malaclaw</t>
-  </si>
-  <si>
-    <t>Plimpy</t>
-  </si>
-  <si>
-    <t>Ramora</t>
-  </si>
-  <si>
-    <t>Bundimun</t>
-  </si>
-  <si>
-    <t>Flora</t>
-  </si>
-  <si>
-    <t>Horklump</t>
-  </si>
-  <si>
-    <t>Mandrake</t>
-  </si>
-  <si>
-    <t>Crystal Golem</t>
-  </si>
-  <si>
-    <t>Golem</t>
-  </si>
-  <si>
-    <t>Iron Golem</t>
-  </si>
-  <si>
-    <t>Stone Golem</t>
-  </si>
-  <si>
-    <t>Kneazle</t>
-  </si>
-  <si>
-    <t>Guardian Spirit</t>
-  </si>
-  <si>
-    <t>Porlock</t>
-  </si>
-  <si>
-    <t>Druidic Hag</t>
-  </si>
-  <si>
-    <t>Hag</t>
-  </si>
-  <si>
-    <t>Humanoid</t>
-  </si>
-  <si>
-    <t>Necrotic Hag</t>
-  </si>
-  <si>
-    <t>Water Hag</t>
-  </si>
-  <si>
-    <t>Hell Hound</t>
-  </si>
-  <si>
-    <t>Hellion</t>
-  </si>
-  <si>
-    <t>Augrey</t>
-  </si>
-  <si>
-    <t>Herald</t>
-  </si>
-  <si>
-    <t>Pheonix</t>
-  </si>
-  <si>
-    <t>Erkling</t>
-  </si>
-  <si>
-    <t>Hobgoblin</t>
-  </si>
-  <si>
-    <t>Gnome</t>
-  </si>
-  <si>
-    <t>Gringwart Goff</t>
-  </si>
-  <si>
-    <t>Red Cap</t>
-  </si>
-  <si>
-    <t>Griffin</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Hippogriff</t>
-  </si>
-  <si>
-    <t>Inhabitor</t>
-  </si>
-  <si>
-    <t>Billywig</t>
-  </si>
-  <si>
-    <t>Insectum Magicae</t>
-  </si>
-  <si>
-    <t>Chizpurfle</t>
-  </si>
-  <si>
-    <t>Fire Crab</t>
-  </si>
-  <si>
-    <t>Flesh-Eating Slug</t>
-  </si>
-  <si>
-    <t>Flobberworm</t>
-  </si>
-  <si>
-    <t>Glumbumble</t>
-  </si>
-  <si>
-    <t>Streeler</t>
-  </si>
-  <si>
-    <t>Lich</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>Dugbog</t>
-  </si>
-  <si>
-    <t>Mammalia Magicae</t>
-  </si>
-  <si>
-    <t>Jarvey</t>
-  </si>
-  <si>
-    <t>Mooncalf</t>
-  </si>
-  <si>
-    <t>Murtlap</t>
-  </si>
-  <si>
-    <t>Niffler</t>
-  </si>
-  <si>
-    <t>Wampus Cat</t>
-  </si>
-  <si>
-    <t>Manticore</t>
-  </si>
-  <si>
-    <t>Bluebirds</t>
-  </si>
-  <si>
-    <t>Mundane Animal</t>
-  </si>
-  <si>
-    <t>Viper</t>
-  </si>
-  <si>
-    <t>Nundu</t>
-  </si>
-  <si>
-    <t>Ghoul</t>
-  </si>
-  <si>
-    <t>Ogre</t>
-  </si>
-  <si>
-    <t>Gigantoid</t>
-  </si>
-  <si>
-    <t>Troll</t>
-  </si>
-  <si>
-    <t>Yeti</t>
-  </si>
-  <si>
-    <t>Basilisk</t>
-  </si>
-  <si>
-    <t>Ophidian</t>
-  </si>
-  <si>
-    <t>Cockatrice</t>
-  </si>
-  <si>
-    <t>Runespoor</t>
-  </si>
-  <si>
-    <t>Diricawl</t>
-  </si>
-  <si>
-    <t>Ornithes Magicae</t>
-  </si>
-  <si>
-    <t>Fwooper</t>
-  </si>
-  <si>
-    <t>Jobberknoll</t>
-  </si>
-  <si>
-    <t>Snidget</t>
-  </si>
-  <si>
-    <t>Hippocampus</t>
-  </si>
-  <si>
-    <t>Pegasus</t>
-  </si>
-  <si>
-    <t>Thestral</t>
-  </si>
-  <si>
-    <t>Winged Horse</t>
-  </si>
-  <si>
-    <t>Puffskein</t>
-  </si>
-  <si>
-    <t>Puffskeins</t>
-  </si>
-  <si>
-    <t>Pygmy Puff</t>
-  </si>
-  <si>
-    <t>Quintaped</t>
-  </si>
-  <si>
-    <t>Banshee</t>
-  </si>
-  <si>
-    <t>Raised Dead</t>
-  </si>
-  <si>
-    <t>Inferius</t>
-  </si>
-  <si>
-    <t>Pogrebin</t>
-  </si>
-  <si>
-    <t>Rock Demon</t>
-  </si>
-  <si>
-    <t>Ashwinder</t>
-  </si>
-  <si>
-    <t>Salamanders</t>
-  </si>
-  <si>
-    <t>Fire Salamander</t>
-  </si>
-  <si>
-    <t>Frost Salamander</t>
-  </si>
-  <si>
-    <t>Moke</t>
-  </si>
-  <si>
-    <t>Shadow Demon</t>
-  </si>
-  <si>
-    <t>Shadow Demons</t>
-  </si>
-  <si>
-    <t>Swooping Evil</t>
-  </si>
-  <si>
-    <t>Thunderbird</t>
-  </si>
-  <si>
-    <t>Whomping Willow</t>
-  </si>
-  <si>
-    <t>Trees</t>
-  </si>
-  <si>
-    <t>Bicorn</t>
-  </si>
-  <si>
-    <t>Unicorns</t>
-  </si>
-  <si>
-    <t>Tebo</t>
-  </si>
-  <si>
-    <t>Unicorn</t>
-  </si>
-  <si>
-    <t>Grindylow</t>
-  </si>
-  <si>
-    <t>Water Demons</t>
-  </si>
-  <si>
-    <t>grindylow</t>
-  </si>
-  <si>
-    <t>Kappa</t>
-  </si>
-  <si>
-    <t>kappa</t>
-  </si>
-  <si>
-    <t>Kelpie</t>
-  </si>
-  <si>
-    <t>kelpie</t>
-  </si>
-  <si>
-    <t>Human-form</t>
-  </si>
-  <si>
-    <t>Werewolf</t>
-  </si>
-  <si>
-    <t>Wolf-form</t>
-  </si>
-  <si>
-    <t>Occamy</t>
-  </si>
-  <si>
-    <t>Wyverns</t>
-  </si>
-  <si>
-    <t>Sea Serpent</t>
-  </si>
-  <si>
-    <t>Et Iniquum</t>
-  </si>
-  <si>
-    <t>Aileni</t>
-  </si>
-  <si>
-    <t>Aberstath</t>
-  </si>
-  <si>
-    <t>Horcrux-Possessing Human</t>
-  </si>
-  <si>
-    <t>Disembodied Spirit</t>
-  </si>
-  <si>
-    <t>Reincarnated Individual</t>
-  </si>
-  <si>
-    <t>Demon in Human Form</t>
-  </si>
-  <si>
-    <t>Celestial, Necrotic</t>
-  </si>
-  <si>
-    <t>Whatever they spoke as a human</t>
-  </si>
-  <si>
-    <t>\ability{Almost human}{As a near-human entity, the Et Iniquum have all the abilities that a normal magical NPC has. If a character becomes an Et Iniquum, they retain all their previous attributes in place of those stated here, taking a + 4 bonus to Power.}
+    <t xml:space="preserve">Graphorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceratothid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive Horned Bovine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erumpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploding-horned Rhinoceros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erumpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re'em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Golden Ox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dementor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloaked Spirits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dementor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lethifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lethifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidebehind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidebehind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blast-Ended Skrewt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screwt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demiguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demiguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Welsh Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draconid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebridean Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungarian Horntail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian Ridgeback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peruvian Vipertooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanian Longhorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Shortsnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukranian Ironbelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antipodean Opaleye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Fireball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar of Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar of Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar of Storms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draconic Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobalug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackled Malaclaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plimpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundimun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horklump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kneazle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druidic Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hell Hound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pheonix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erkling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobgoblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gringwart Goff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippogriff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhabitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billywig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insectum Magicae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chizpurfle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flesh-Eating Slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flobberworm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glumbumble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Et Iniquum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horcrux-Possessing Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitality (+6), Willpower (+8), Arcane (+11), Unnature (+11), Intimidation (+12). Wandless Spellcasting, Silent Spellcasting,  Apparation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial, Necrotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whatever they spoke as a human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Almost human}{As a near-human entity, the Et Iniquum have all the abilities that a normal magical NPC has. If a character becomes an Et Iniquum, they retain all their previous attributes in place of those stated here, taking a + 4 bonus to Power.}
 \ability{Opposable Thumbs}{The Et Iniquum may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
 \ability{Outwardly Unchanged}{The process of turning a human into an Et Iniquum changes them fundamentally on a spiritual level, but leaves their outward appearance unchanged. They cannot be differentiated from a normal human.}
 \ability{Great Power}{An Et Iniquum has incredibly powerful magical abilities. As such they are considered proficient in all schools of magic (proficiency bonus is +6), and take advantage on all Resist checks against magical effects. }
@@ -1278,14 +1057,7 @@
 \ability{Unstable Soul}{The process of creating an Et Iniquum leaves their soul fractured and unstable. The maximum number of Horcruxes an individual can support is given by 1d4 + Spirit modifier. If they exceed this, they instantly die and rise as an Abserstath.}</t>
   </si>
   <si>
-    <t>\inotator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a powerful wizard seeks to defy death, they may tear their soul asunder, and store a portion inside a Horcrux. In doing so, the wizard stops being fully human, and becomes an {\it Et Iniquii}, the Tethered Soul. 
-Outwardly human, the Et Iniquii differ only in their affinity for Dark Magic, and their inability to die. </t>
-  </si>
-  <si>
-    <t>\ability{Spellcasting}{An Et Iniquum is a Master Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
+    <t xml:space="preserve">\ability{Spellcasting}{An Et Iniquum is a Master Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
 \beastSpellList{
 \beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast, Control Fire, Mage Hands, Animal Eyes, Chaotic Whispers, Knockback, Vicious Slash}
 \beastSpell{Novice}{Abyssal Fluid, Necrosis, Crippling Fatigue, Blight, Summon Snake, Horrific Armaments, Mental Burden, Strangle, Psychic Crush, Dancing Bolt}
@@ -1296,22 +1068,29 @@
 }</t>
   </si>
   <si>
-    <t>Vitality (+6), Willpower (+8), Arcane (+11), Unnature (+11), Intimidation (+12). Wandless Spellcasting, Silent Spellcasting,  Apparation.</t>
-  </si>
-  <si>
-    <t>All physical damage</t>
-  </si>
-  <si>
-    <t>Voldemort_Spirit</t>
-  </si>
-  <si>
-    <t>\ability{Incorporeal}{The \inotator{} has no physical form, and as such can pass through solid matter at will. When phasing through matter, the \inotator{} is effectively blind and deaf. }
+    <t xml:space="preserve">When a powerful wizard seeks to defy death, they may tear their soul asunder, and store a portion inside a Horcrux. In doing so, the wizard stops being fully human, and becomes an {\it Et Iniquii}, the Tethered Soul. 
+Outwardly human, the Et Iniquii differ only in their affinity for Dark Magic, and their inability to die. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\inotator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disembodied Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willpower (+5), Stealth (+5), Arcane (+9), Unnature (+9).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All physical damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Incorporeal}{The \inotator{} has no physical form, and as such can pass through solid matter at will. When phasing through matter, the \inotator{} is effectively blind and deaf. }
 \ability{Floating}{The \inotator{} can fly freely in all 3 vertical dimensions.}
 \ability{Unliving}{As a phantasm, an \inotator{} does not require sleep, food or air in order to survive.}
 \ability{Unkillable}{Whilst a Horcrux still exists, the \inotator{} cannot be killed. If their HP is reduced to 0, they temporarily dissipate, and then reform near one of their remaining Horcruxes over a period of 1d10 days.}</t>
   </si>
   <si>
-    <t>\ability{Intrinsic Spellcasting}{Greatly weakened from their physical form, an \inotator{} is only a Novince-level spellcaster. An \inotator{} may cast the following spells as silent, wandless major actions:
+    <t xml:space="preserve">\ability{Intrinsic Spellcasting}{Greatly weakened from their physical form, an \inotator{} is only a Novince-level spellcaster. An \inotator{} may cast the following spells as silent, wandless major actions:
 \beastSpellList{
 \beastSpell{Beginner}{Control Fire, Animal Eyes, Chaotic Whispers}
 \beastSpell{Novice}{Crippling Fatigue, Mental Burden, Psychic Crush}
@@ -1325,35 +1104,25 @@
 With nowhere else to go, this spirit manifests as a dark apparition called an {\it \inotator{}}. A formless wisp, the \inotator{} seeks out living beings and whispers intheir ear, attempting to corrupt them into its service and allow them to merge together. Many Dark Wizards which go down the path of creating a Horcrux have a dedicated leiutenant who will act as a host for them until a new body can be created. </t>
   </si>
   <si>
-    <t>Willpower (+5), Stealth (+5), Arcane (+9), Unnature (+9).</t>
-  </si>
-  <si>
-    <t>Vitality (+9), Willpower (+10), Arcane (+12), Unnature (+12), Intimidation (+12). Wandless Spellcasting, Silent Spellcasting,  Apparation.</t>
-  </si>
-  <si>
-    <t>\ability{Human(ish)}{The Aileni may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
+    <t xml:space="preserve">Voldemort_Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aileni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reincarnated Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitality (+9), Willpower (+10), Arcane (+12), Unnature (+12), Intimidation (+12). Wandless Spellcasting, Silent Spellcasting,  Apparation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Human(ish)}{The Aileni may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
 \ability{Great Power}{An Aileni has incredibly powerful magical abilities. As such they are considered proficient in all schools of magic (proficiency bonus is +7), and take advantage on all Resist checks against magical effects. }
 \ability{Unkillable}{Whilst at least one of their Horxcruxes remains intact, an Aileni cannot be truly killed. If their hitpoints are reduced to zero, their body is destroyed, leaving behind an {\it \inotator}, which flees in order to regroup.}
 \ability{Unstable Soul}{The process of creating a Horcrux leaves their soul fractured and unstable. The maximum number of Horcruxes an individual can support is given by 1d4 + Spirit modifier. If they exceed this, they instantly die and rise as an Abserstath.}</t>
   </si>
   <si>
-    <t xml:space="preserve">When an \inotator{} regenerates itself a new body, the result is something more than human. An imprint of the true form of the being\apos{}s soul is left on the new form - resulting in a being which is more animalistic, sadistic, and much, much more powerful. 
-The most famous Aileni is Lord Voldemort, who rose as an Aileni in in 1995 after 14 years as an \inotator{}. His pride in his Slytherin heritage imprinted a serpentine form on his Aileni form, with red eyes and snake-slit slits, rather than a nose. Many other deformities have been reported in Aileni throughout history - Herpo the Foul was said to be more spider than man by the time he died his final death.  
-This warping of their human form allows an Aileni to wield more power, and the further they deviate from their human origins, the more powerful and deadly they become. </t>
-  </si>
-  <si>
-    <t>Vitality (+13), Conviction (+14), Willpower (+14), Arcane (+16). Wandless Spellcasting, Silent Spellcasting, Apparation.</t>
-  </si>
-  <si>
-    <t>All magical damage</t>
-  </si>
-  <si>
-    <t>\ability{Human(ish)}{An Aberstath may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
-\ability{Great Power}{An Aberstath has incredibly powerful magical abilities. As such they are considered proficient in all schools of magic (proficiency bonus is +10), take advantage on all Resist checks against magical effects, and are considered Resistant to all magical attacks. }
-\ability{Unkillable}{Whilst at least one of their Horxcruxes remains intact, an Aberstath cannot be truly killed. If their hitpoints are reduced to zero, their body is destroyed. One of the remaining Horcruxes is then instantly incinerated in a mighty inferno, which dies down to reveal the Aberstath reborn.}</t>
-  </si>
-  <si>
-    <t>\ability{Spellcasting}{An Aileni is an Ascendant Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
+    <t xml:space="preserve">\ability{Spellcasting}{An Aileni is an Ascendant Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
 \beastSpellList{
 \beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast, Control Fire, Mage Hands, Animal Eyes, Chaotic Whispers, Knockback, Vicious Slash}
 \beastSpell{Novice}{Abyssal Fluid, Necrosis, Crippling Fatigue, Blight, Summon Snake, Horrific Armaments, Mental Burden, Strangle, Psychic Crush, Dancing Bolt}
@@ -1365,27 +1134,275 @@
 }</t>
   </si>
   <si>
-    <t>\ability{Spellcasting}{An Aberstath is an Ascendant Level spellcaster. It retains any spells it knew as a human, however their dark nature gives them a preference for the following spells:
+    <t xml:space="preserve">When an \inotator{} regenerates itself a new body, the result is something more than human. An imprint of the true form of the being\apos{}s soul is left on the new form - resulting in a being which is more animalistic, sadistic, and much, much more powerful. 
+The most famous Aileni is Lord Voldemort, who rose as an Aileni in in 1995 after 14 years as an \inotator{}. His pride in his Slytherin heritage imprinted a serpentine form on his Aileni form, with red eyes and snake-slit slits, rather than a nose. Many other deformities have been reported in Aileni throughout history - Herpo the Foul was said to be more spider than man by the time he died his final death.  
+This warping of their human form allows an Aileni to wield more power, and the further they deviate from their human origins, the more powerful and deadly they become. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberstath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon in Human Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitality (+13), Conviction (+14), Willpower (+14), Arcane (+16). Wandless Spellcasting, Silent Spellcasting, Apparation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic, Poison, Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All magical damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Human(ish)}{An Aberstath may use items, equip armour, learn spells, and otherwise interact with the world as any other human does.}
+\ability{Great Power}{An Aberstath has incredibly powerful magical abilities. As such they are considered proficient in all schools of magic (proficiency bonus is +10), take advantage on all Resist checks against magical effects, and are considered Resistant to all magical attacks. }
+\ability{Unkillable}{Whilst at least one of their Horxcruxes remains intact, an Aberstath cannot be truly killed. If their hitpoints are reduced to zero, their body is destroyed. One of the remaining Horcruxes is then instantly incinerated in a mighty inferno, which dies down to reveal the Aberstath reborn.}
+\ability{Unliving}{An Aberstath does not require food, sleep or air to survive, and does not age.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Spellcasting}{An Aberstath is an Ascendant Level spellcaster. It retains any spells it knew as a human, and can cast them as such. They may also cast the following spells as Wandless, Silent, Minor actions. 
 \beastSpellList{
 \beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast, Control Fire, Chaotic Whispers, Vicious Slash}
-\beastSpell{Novice}{Abyssal Fluid, Necrosis, Blight, Summon Snake, Horrific Armaments, Mental Burden, Strangle, Psychic Crush}
+\beastSpell{Novice}{Abyssal Fluid, Necrosis, Blight, Summon Snake, Horrific Armaments, Strangle, Psychic Crush}
 \beastSpell{Adept}{Fireball, Freeze, Fury, Dilute Blood, Spiral Inversion, Blood Barrier, Torture, Shadow Demon, Voidsphere}
 \beastSpell{Expert}{Arctic Blast, Contagion, Create Thrall, Create Zombie, Shield Breaker, Detonation, Curse Being, Psychosis}
 \beastSpell{Master}{Flame Whip, Psionic Overload, Corrupt Object, Cursed Step, Selfshift, Word of Death, Burning Blood, Crush Bones}
 \beastSpell{Ascendant}{Army of the Dead, Soul Snare, Incineration Field, Taboo, Revoke Power, Destroy Mind, Mass Delusion, Channel Cataclysm, Immolation}
 }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Aberstath is a truly terrifying being, the result of a Dark Wizard gone too far in their quest for immortality. 
-The process of creating a Horcrux requires the subject to shatter their soul, which inherently leads to an instability, which forces them inevitably into evil and madness. </t>
+}
+\melee{Lifedrain}{+6}{By grasping a victim by the throat, an Aberstath can siphon off life energy from them. The victim takes 3d8+5 necrotic damage, half of which is restored to the Aberstath. This also initiates a grappling action.}
+\ability{Defy Magic}{As an instantaneous action, the Aberstath can choose to automatically succeed on a Resist check against a spell. This ability can be used three times per day.}
+\ability{Imprison Soul}{By targeting an incapacitated being in melee range, the Aberstath can force them to perform a DV 18 Conviction Resist. On a fail, they take 10d12 force damage. If this reduces them to zero HP, then their soul is imprisoned in a nearby object. If this object is not destroyed within 24 hours, it is considered a new Horcrux for the Aberstath. }
+\ability{Sacrifice}{An Aberstath may deliberately destroy one of their own Horcruxes. In doing so, they restore themselves to full HP and FP, remove all status effects, and otherwise regenerate to pristine health.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Aberstath is a truly terrifying being, the result of a Dark Wizard gone too far in their quest for immortality, leaving behind a shattered shell of their former self, inhabited by a powerful and destructive demon. 
+The process of creating a Horcrux requires the subject to shatter their soul, which leaves their essence unstable, pushing them closer to insanity and abject evil. If a Wizard pushes this process to its logical conclusion, they will eventually damage their soul so much that it can no longer retain cohesiveness, and it will splinter away from their body. Their quest for immortality, ironically, killing them and denying their soul any chance of eternal life beyond the veil. 
+This destruction of the soul is the spiritual equivalent of splitting the atom, releasing a tremendous amount of energy into the higher planes, even to the point of weakening the barriers between worlds. 
+Such a release of energy rarely goes unnoticed by the creeping, crawling horrors lying in the void – driven insane by their time spent in abject nothingness. The instant they become aware of a free vessel, they burst through the walls of reality, and attempt to make their home in the shattered remains of the unfortunate Aileni. 
+This forces  the host to undergo a horrific transformation which rips away the last shreds of humanity, turning them into a dreaded Aberstath. 
+\ability{Tears of the Void}{Initially, the only visible change when a being undergoes the transition from Et Iniquum or Aileni to a full-blood Aberstath is that the eyes of the Aileni will suddenly turn into inky black orbs, blacker than the darkest night. Over time, their form warps and becomes inhumane, even undead and skeletal. However, mo matter what form the Aberstath takes, they cannot hide their voidic eyes.}
+\ability{Consumer of Life}{The being which now resides inside the mortal remains of the host was a resident of the Void, the inky black nothingness between dimensions. Perhaps it is native to that horrifying realm, or perhaps it was originally a powerful being which fell into the void, eons ago. Either way, an Aberstath has been driven to utter insanity by this experience – their motivations are often deeply insane and disturbed, and mostly focus on the destruction of all life.}
+\ability{Memories of the Shell}{The Aberstath retains all the memories, experiences and skills of its original host.}
+\ability{Souless}{With the destruction of the original host\apos{}s soul, the Aberstath loses the ability to create new Horcruxes themselves. They must rely on harvesting the souls of others to continue their existence. }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aberstath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dugbog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mammalia Magicae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mooncalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murtlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niffler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wampus Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manticore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluebirds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mundane Animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nundu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigantoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cockatrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runespoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diricawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornithes Magicae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobberknoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snidget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thestral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winged Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puffskein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puffskeins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pygmy Puff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintaped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banshee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raised Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pogrebin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salamanders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Salamander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost Salamander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swooping Evil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whomping Willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grindylow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grindylow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelpie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kelpie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human-form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werewolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf-form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyverns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Serpent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1394,7 +1411,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1402,7 +1434,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1426,7 +1458,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1434,400 +1466,144 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AMJ136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AJ136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AD89" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AG89" sqref="AG89"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="AI90" activeCellId="0" sqref="AI90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="19" width="7.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" customWidth="1"/>
-    <col min="25" max="26" width="12.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="70.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="56.140625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="22.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16" style="1" customWidth="1"/>
-    <col min="33" max="33" width="68.85546875" style="1" customWidth="1"/>
-    <col min="34" max="1024" width="8.7109375" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="70.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="56.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="68.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="1" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1937,8 +1713,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="255" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1947,7 +1723,7 @@
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1959,49 +1735,49 @@
       <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="1" t="n">
         <v>19</v>
       </c>
       <c r="W2" s="1" t="s">
@@ -2040,15 +1816,15 @@
       <c r="AH2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2057,7 +1833,7 @@
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2069,49 +1845,49 @@
       <c r="G3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="10" t="n">
         <v>140</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="9" t="n">
         <v>6</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="9" t="n">
         <v>13</v>
       </c>
       <c r="W3" s="9" t="s">
@@ -2148,15 +1924,15 @@
       <c r="AH3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" customFormat="false" ht="236.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2165,7 +1941,7 @@
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2177,49 +1953,49 @@
       <c r="G4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="10" t="n">
         <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="9" t="n">
         <v>6</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="9" t="n">
         <v>14</v>
       </c>
       <c r="W4" s="9" t="s">
@@ -2258,15 +2034,15 @@
       <c r="AH4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" customFormat="false" ht="120.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2275,7 +2051,7 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2287,49 +2063,49 @@
       <c r="G5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="10" t="n">
         <v>200</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="9" t="n">
         <v>5</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="9" t="n">
         <v>12</v>
       </c>
       <c r="W5" s="9" t="s">
@@ -2366,15 +2142,15 @@
       <c r="AH5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5" s="7" t="n">
         <v>0.7</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2383,7 +2159,7 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2395,49 +2171,49 @@
       <c r="G6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="10" t="n">
         <v>175</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="10" t="n">
         <v>50</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="9" t="n">
         <v>6</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="9" t="n">
         <v>17</v>
       </c>
       <c r="W6" s="9" t="s">
@@ -2472,15 +2248,15 @@
       <c r="AH6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AI6" s="7" t="n">
         <v>0.7</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2489,7 +2265,7 @@
       <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2501,49 +2277,49 @@
       <c r="G7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="1" t="n">
         <v>12</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -2576,15 +2352,15 @@
       <c r="AH7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2593,7 +2369,7 @@
       <c r="C8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2605,49 +2381,49 @@
       <c r="G8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="1" t="n">
         <v>15</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -2684,15 +2460,15 @@
       <c r="AH8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="225" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2701,7 +2477,7 @@
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2713,49 +2489,49 @@
       <c r="G9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -2791,15 +2567,15 @@
       <c r="AH9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2808,7 +2584,7 @@
       <c r="C10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2817,12 +2593,12 @@
       <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2831,7 +2607,7 @@
       <c r="C11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2843,15 +2619,15 @@
       <c r="AH11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2860,7 +2636,7 @@
       <c r="C12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2869,12 +2645,12 @@
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2883,7 +2659,7 @@
       <c r="C13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2892,12 +2668,12 @@
       <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2906,7 +2682,7 @@
       <c r="C14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2918,46 +2694,46 @@
       <c r="G14" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="W14" s="1" t="s">
@@ -2987,15 +2763,15 @@
       <c r="AH14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -3004,7 +2780,7 @@
       <c r="C15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3016,49 +2792,49 @@
       <c r="G15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -3088,15 +2864,15 @@
       <c r="AH15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -3105,7 +2881,7 @@
       <c r="C16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3117,49 +2893,49 @@
       <c r="G16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -3192,15 +2968,15 @@
       <c r="AH16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AI16" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="195" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3209,7 +2985,7 @@
       <c r="C17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3221,46 +2997,46 @@
       <c r="G17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="1" t="n">
         <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="1" t="n">
         <v>11</v>
       </c>
       <c r="W17" s="1" t="s">
@@ -3290,15 +3066,15 @@
       <c r="AH17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="225" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -3307,7 +3083,7 @@
       <c r="C18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3319,49 +3095,49 @@
       <c r="G18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="1" t="n">
         <v>13</v>
       </c>
       <c r="W18" s="1" t="s">
@@ -3394,12 +3170,12 @@
       <c r="AG18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3408,7 +3184,7 @@
       <c r="C19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3420,46 +3196,46 @@
       <c r="G19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="1" t="n">
         <v>14</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -3492,15 +3268,15 @@
       <c r="AH19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="210" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -3509,7 +3285,7 @@
       <c r="C20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3521,49 +3297,49 @@
       <c r="G20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="1" t="n">
         <v>13</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -3593,21 +3369,21 @@
       <c r="AH20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AI20" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3625,15 +3401,15 @@
       <c r="AH21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3642,7 +3418,7 @@
       <c r="C22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3661,8 +3437,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3671,7 +3447,7 @@
       <c r="C23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3687,8 +3463,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3697,7 +3473,7 @@
       <c r="C24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3713,8 +3489,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -3723,7 +3499,7 @@
       <c r="C25" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3741,12 +3517,12 @@
       <c r="AH25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3755,7 +3531,7 @@
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3773,12 +3549,12 @@
       <c r="AH26" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3787,7 +3563,7 @@
       <c r="C27" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3805,12 +3581,12 @@
       <c r="AH27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AI27" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -3819,7 +3595,7 @@
       <c r="C28" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3834,12 +3610,12 @@
       <c r="AH28" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AI28" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3848,7 +3624,7 @@
       <c r="C29" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3863,12 +3639,12 @@
       <c r="AH29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AI29" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3877,7 +3653,7 @@
       <c r="C30" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3892,12 +3668,12 @@
       <c r="AH30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AI30" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3906,7 +3682,7 @@
       <c r="C31" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3921,12 +3697,12 @@
       <c r="AH31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AI31" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3935,7 +3711,7 @@
       <c r="C32" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3950,18 +3726,18 @@
       <c r="AH32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AI32" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3976,18 +3752,18 @@
       <c r="AH33" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AI33" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -4000,14 +3776,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -4020,14 +3796,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -4040,14 +3816,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4060,14 +3836,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4080,14 +3856,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -4100,14 +3876,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -4120,14 +3896,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -4140,14 +3916,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4160,14 +3936,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4180,14 +3956,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4200,14 +3976,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -4220,14 +3996,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4240,14 +4016,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4260,14 +4036,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4280,14 +4056,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4300,8 +4076,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -4310,7 +4086,7 @@
       <c r="C50" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4323,8 +4099,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -4333,7 +4109,7 @@
       <c r="C51" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4346,14 +4122,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4366,14 +4142,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4386,14 +4162,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4406,14 +4182,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4426,14 +4202,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4446,14 +4222,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4466,14 +4242,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4486,14 +4262,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4506,14 +4282,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4526,14 +4302,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
         <v>278</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4546,14 +4322,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4566,14 +4342,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4586,14 +4362,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4606,14 +4382,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4626,14 +4402,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -4646,14 +4422,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4666,14 +4442,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4686,14 +4462,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4706,14 +4482,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4726,14 +4502,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4746,14 +4522,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4766,14 +4542,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4786,14 +4562,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4806,14 +4582,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4826,14 +4602,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4846,14 +4622,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -4866,14 +4642,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -4886,14 +4662,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -4906,14 +4682,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8" t="s">
         <v>303</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -4926,14 +4702,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4946,14 +4722,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -4966,14 +4742,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -4986,14 +4762,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -5006,14 +4782,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -5026,17 +4802,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D86" s="1">
+        <v>310</v>
+      </c>
+      <c r="D86" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -5046,83 +4822,83 @@
         <v>284</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H86" s="1">
+        <v>311</v>
+      </c>
+      <c r="H86" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="1" t="n">
         <v>220</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L86" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N86" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q86" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R86" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S86" s="1" t="n">
         <v>6</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="U86" s="1">
+        <v>312</v>
+      </c>
+      <c r="U86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="V86" s="1">
+      <c r="V86" s="1" t="n">
         <v>14</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AJ86" s="1">
+        <v>317</v>
+      </c>
+      <c r="AJ86" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="390" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" customFormat="false" ht="390" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>388</v>
+        <v>318</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D87" s="1">
+        <v>310</v>
+      </c>
+      <c r="D87" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -5132,92 +4908,92 @@
         <v>133</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H87" s="1">
+        <v>319</v>
+      </c>
+      <c r="H87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="1" t="n">
         <v>50</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="N87" s="1">
+      <c r="N87" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="R87" s="1">
+      <c r="R87" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="U87" s="1">
+        <v>320</v>
+      </c>
+      <c r="U87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V87" s="1">
+      <c r="V87" s="1" t="n">
         <v>13</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="Y87" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="AH87" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AI87" s="1">
+        <v>325</v>
+      </c>
+      <c r="AI87" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="AJ87" s="1">
+      <c r="AJ87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="315" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D88" s="1">
+        <v>310</v>
+      </c>
+      <c r="D88" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -5227,80 +5003,80 @@
         <v>284</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H88" s="1">
+        <v>327</v>
+      </c>
+      <c r="H88" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="1" t="n">
         <v>250</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K88" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L88" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N88" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O88" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P88" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R88" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88" s="1" t="n">
         <v>7</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="U88" s="1">
+        <v>328</v>
+      </c>
+      <c r="U88" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="V88" s="1">
+      <c r="V88" s="1" t="n">
         <v>16</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="AC88" s="2" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:36" ht="360" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D89" s="1">
+        <v>310</v>
+      </c>
+      <c r="D89" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -5310,83 +5086,89 @@
         <v>39</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H89" s="1">
+        <v>333</v>
+      </c>
+      <c r="H89" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="1" t="n">
         <v>300</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K89" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L89" s="1">
+      <c r="L89" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="N89" s="1">
+      <c r="N89" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O89" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="P89" s="1">
+      <c r="P89" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q89" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="R89" s="1">
+      <c r="R89" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S89" s="1" t="n">
         <v>10</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="U89" s="1">
+        <v>334</v>
+      </c>
+      <c r="U89" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="V89" s="1">
+      <c r="V89" s="1" t="n">
         <v>16</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="AC89" s="2" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AJ89" s="1">
+        <v>339</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI89" s="1" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AJ89" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="8" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D90" s="8">
+        <v>342</v>
+      </c>
+      <c r="D90" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -5399,14 +5181,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="8" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D91" s="8">
+        <v>342</v>
+      </c>
+      <c r="D91" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -5419,14 +5201,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="8" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D92" s="1">
+        <v>342</v>
+      </c>
+      <c r="D92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -5439,14 +5221,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="8" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D93" s="1">
+        <v>342</v>
+      </c>
+      <c r="D93" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -5459,14 +5241,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="8" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D94" s="1">
+        <v>342</v>
+      </c>
+      <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -5479,14 +5261,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D95" s="1">
+        <v>342</v>
+      </c>
+      <c r="D95" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -5499,14 +5281,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="8" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D96" s="8">
+        <v>348</v>
+      </c>
+      <c r="D96" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -5519,14 +5301,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="8" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D97" s="1">
+        <v>350</v>
+      </c>
+      <c r="D97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -5539,14 +5321,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="8" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="1">
+        <v>350</v>
+      </c>
+      <c r="D98" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -5559,14 +5341,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="8" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D99" s="1">
+        <v>352</v>
+      </c>
+      <c r="D99" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5579,74 +5361,74 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="8" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D100" s="8">
+        <v>354</v>
+      </c>
+      <c r="D100" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="AG100" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="1">
+        <v>354</v>
+      </c>
+      <c r="D101" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="AG101" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="8" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D102" s="1">
+        <v>354</v>
+      </c>
+      <c r="D102" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="AG102" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="103" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="8" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D103" s="1">
+        <v>359</v>
+      </c>
+      <c r="D103" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5659,14 +5441,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="8" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" s="1">
+        <v>359</v>
+      </c>
+      <c r="D104" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -5679,14 +5461,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="8" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D105" s="1">
+        <v>359</v>
+      </c>
+      <c r="D105" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5699,14 +5481,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="8" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D106" s="1">
+        <v>363</v>
+      </c>
+      <c r="D106" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -5719,14 +5501,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="8" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D107" s="8">
+        <v>363</v>
+      </c>
+      <c r="D107" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -5739,14 +5521,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="8" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D108" s="8">
+        <v>363</v>
+      </c>
+      <c r="D108" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -5759,14 +5541,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="8" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D109" s="1">
+        <v>363</v>
+      </c>
+      <c r="D109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -5779,14 +5561,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="8" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110" s="8">
+        <v>368</v>
+      </c>
+      <c r="D110" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -5799,14 +5581,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="8" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D111" s="1">
+        <v>368</v>
+      </c>
+      <c r="D111" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -5819,14 +5601,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="8" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D112" s="1">
+        <v>368</v>
+      </c>
+      <c r="D112" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -5839,14 +5621,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="8" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D113" s="1">
+        <v>372</v>
+      </c>
+      <c r="D113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5859,14 +5641,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="8" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="1">
+        <v>372</v>
+      </c>
+      <c r="D114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -5879,14 +5661,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="8" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D115" s="1">
+        <v>374</v>
+      </c>
+      <c r="D115" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -5899,54 +5681,54 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="8" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D116" s="1">
+        <v>376</v>
+      </c>
+      <c r="D116" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="AG116" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D117" s="1">
+        <v>376</v>
+      </c>
+      <c r="D117" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="AG117" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="8" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D118" s="1">
+        <v>380</v>
+      </c>
+      <c r="D118" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -5959,14 +5741,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="8" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D119" s="1">
+        <v>382</v>
+      </c>
+      <c r="D119" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -5979,14 +5761,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="8" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D120" s="1">
+        <v>382</v>
+      </c>
+      <c r="D120" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -5999,14 +5781,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="8" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D121" s="8">
+        <v>382</v>
+      </c>
+      <c r="D121" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -6019,14 +5801,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="8" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D122" s="8">
+        <v>382</v>
+      </c>
+      <c r="D122" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -6039,14 +5821,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="8" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D123" s="1">
+        <v>387</v>
+      </c>
+      <c r="D123" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -6059,14 +5841,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="8" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D124" s="1">
+        <v>388</v>
+      </c>
+      <c r="D124" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -6079,14 +5861,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="8" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D125" s="1">
+        <v>389</v>
+      </c>
+      <c r="D125" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -6099,14 +5881,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="8" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D126" s="1">
+        <v>391</v>
+      </c>
+      <c r="D126" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -6119,14 +5901,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="8" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D127" s="1">
+        <v>393</v>
+      </c>
+      <c r="D127" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -6139,14 +5921,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="8" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D128" s="1">
+        <v>393</v>
+      </c>
+      <c r="D128" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -6159,14 +5941,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="8" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D129" s="1">
+        <v>393</v>
+      </c>
+      <c r="D129" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -6179,14 +5961,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="2:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="8" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D130" s="8">
+        <v>397</v>
+      </c>
+      <c r="D130" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -6199,20 +5981,20 @@
         <v>205</v>
       </c>
       <c r="AH130" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI130" s="1">
+        <v>398</v>
+      </c>
+      <c r="AI130" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="8" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D131" s="8">
+        <v>397</v>
+      </c>
+      <c r="D131" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -6225,20 +6007,20 @@
         <v>205</v>
       </c>
       <c r="AH131" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AI131" s="1">
+        <v>400</v>
+      </c>
+      <c r="AI131" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="8" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D132" s="8">
+        <v>397</v>
+      </c>
+      <c r="D132" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -6251,20 +6033,20 @@
         <v>205</v>
       </c>
       <c r="AH132" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI132" s="1">
+        <v>402</v>
+      </c>
+      <c r="AI132" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="133" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D133" s="1">
+        <v>404</v>
+      </c>
+      <c r="D133" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -6277,14 +6059,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D134" s="1">
+        <v>404</v>
+      </c>
+      <c r="D134" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -6297,14 +6079,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="8" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D135" s="1">
+        <v>407</v>
+      </c>
+      <c r="D135" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -6317,14 +6099,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="8" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D136" s="1">
+        <v>407</v>
+      </c>
+      <c r="D136" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -6338,8 +6120,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <autoFilter ref="A1:AI1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\GameMasterGuide\Data\Beasts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A91FB6-3143-4F7C-BE53-858217CDC719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99E1A58-DC91-459F-BD9A-08187188A8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="436">
   <si>
     <t>SpeciesOrder</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Speed (+11), Stealth (+4), Observation (+10), Intimidation (+7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cold damage, All sensory effects, {\it Charmed} and {\it Terrified} status effects. </t>
-  </si>
-  <si>
     <t>Necrotic</t>
   </si>
   <si>
@@ -183,10 +180,6 @@
     <t>2 metres</t>
   </si>
   <si>
-    <t xml:space="preserve">A disgusting pale-white creature with 6 legs and a face which is entirely featureless except a gaping red maw. 
-Incredibly fast, and with powerful alien senses the Death Hunter serves one purpose: to track and hunt down their target across dimensions. </t>
-  </si>
-  <si>
     <t>hunter</t>
   </si>
   <si>
@@ -292,12 +285,6 @@
     <t>Spider Tongue</t>
   </si>
   <si>
-    <t>\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
-  </si>
-  <si>
-    <t>\melee{Bite}{+3}{Deals 1+1d8 piercing damage. Target must suceed a DV10 Vitality check, or take an additional 2d6 poison damage}</t>
-  </si>
-  <si>
     <t>Rainforests of Borneo, spread worldwide</t>
   </si>
   <si>
@@ -331,13 +318,6 @@
     <t>Human Languages</t>
   </si>
   <si>
-    <t>\melee{Bite}{+7}{Deals 6+3d8 piercing damage. Target must suceed a DV15 Vitality check, or take an additional 5d6 poison damage and take the {\it Poisoned: Mild} status effect. }
-\ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}</t>
-  </si>
-  <si>
-    <t>A fully grown Acromantula is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….</t>
-  </si>
-  <si>
     <t>Acromantula Patriarch</t>
   </si>
   <si>
@@ -350,18 +330,7 @@
     <t>Spider Tongue, Human Languages</t>
   </si>
   <si>
-    <t>\ability{Void Walk}{As Abyssal Spawn, the Mind Shredder can, with a minute\apos{}s preparation, enter into the Void, instantaneously disappearing from their present reality. Once inside the Void, they can repeat this process to reappear in any other plane in the multiverse. }</t>
-  </si>
-  <si>
-    <t>\melee{Bite}{+4}{Deals 6d10 piercing damage. Target must suceed a DV18 Vitality check, or take an additional 15d6 poison damage and take the {\it Poisoned: Severe} status effect. }
-\ranged{Web}{+6}{30 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 18 Strength Resist, or the webbing absorbs 15 points of physical damage.}
-\ability{Webbed Domain}{A patriarch may use a major action to launch a globule of sticky material up to 10 metres away from them, which covers an area of 5m in radius. This area is considered {\it Webbed}. Movement on a webbed area is halved.}</t>
-  </si>
-  <si>
     <t>8 metres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The eldest of the spider monstrosities is known as the {\it Patriarch}. Though they have reached truly gargantuan sizes, their bodies have become decrepit with age. Their minds, however, are razor sharp and they have mastered human speech. </t>
   </si>
   <si>
     <t>aragog</t>
@@ -471,9 +440,6 @@
     <t>Depends on form</t>
   </si>
   <si>
-    <t>Empathy (+7)</t>
-  </si>
-  <si>
     <t>Laughter</t>
   </si>
   <si>
@@ -484,10 +450,6 @@
 \ability{Killing Joke}{A boggart is mortally afraid of laughter. The sound of genuine laughter causes the boggart to take 2d6 damage. }</t>
   </si>
   <si>
-    <t>\ability{Discern Fears}{A boggart can use a minor action to peer into the soul of an individual, and learn their greatest fear. Contest a Empathy check against the victim\apos{}s Willpower Resist - on a success, the boggart learns the victim\apos{}s greatest fear. }
-\ability{Shapeshift}{A boggart may use a major action to transform into any shape, to represent something the target is scared of. Any being for which this is their greatest fear must pass a DV 20 Willpower Resist check or become {\it Terrified}. }</t>
-  </si>
-  <si>
     <t xml:space="preserve">A manifestation of fear and primal terror, the shapeshifting boggart peers into the minds of humans, and takes the form of their worst nightmare. 
 A boggart can never harm you, though they can be difficult to contain. The accepted trick is to transfigure them to look stupid, prompting a fit of laughter – which is fatal to a boggart. </t>
   </si>
@@ -507,24 +469,7 @@
     <t>Egg-collecting spider</t>
   </si>
   <si>
-    <t>Stealth (+7), Nightvision</t>
-  </si>
-  <si>
-    <t>\ability{Protective}{The Brood Mother cannot move more than 5 metres away from her nest}
-\ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
-\ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
-\ability{Web Walker}{An Great Widow takes no movement penalty when walked on webbed surfaces}</t>
-  </si>
-  <si>
-    <t>\melee{Bite}{+3}{Deals 1d6 poison damage and on a failed DV 13 Vitality Resist deals another 2d6 poison damage}
-\ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}
-\ability{Forced Hatch}{The Brood Mother may force one of the eggs in her nest to hatch early. The newly hatched spider has only half its normal max HP, but will defend its mother to the death.}</t>
-  </si>
-  <si>
     <t>Underground</t>
-  </si>
-  <si>
-    <t>This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
   </si>
   <si>
     <t>Brood</t>
@@ -574,11 +519,6 @@
     <t>Poison</t>
   </si>
   <si>
-    <t>\ability{Spider Climb}{A Great Widow may climb across all surfaces, including ceilings as part of their normal movement}
-\ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
-\ability{Web Walker}{An Great Widow takes no movement penalty when walked on webbed surfaces}</t>
-  </si>
-  <si>
     <t>\melee{Bite}{+3}{Deals 3d6 poison damage. On a failed DV 10 Vitality check, the victim takes the {\it Poisoned: Mild} ststus}
 \ranged{Spit}{+4}{5 metres}{A globule of acid burns into you, dealing 2d8 acid damage}</t>
   </si>
@@ -599,18 +539,6 @@
   </si>
   <si>
     <t>Size-changing Spider</t>
-  </si>
-  <si>
-    <t>\ability{Bloodsucker}{Whenever the Howling Tick lands a successful attack, it doubles in size, and its bites become more venemous.
-If it goes a combat cycle without feasting on blood, it shrinks, until it reaches its resting size of 10cm.
-}
-\ability{Languages}{Can understand the spider tongue} 
-\ability{Spider Climb}{A Howling Tick may climb across all surfaces, including ceilings as part of their normal movement}
-\ability{Web Walker}{A Howling Tick takes no movement penalty when walked on webbed surfaces}</t>
-  </si>
-  <si>
-    <t>\ability{Leap}{In place of a movement action, the Howling Tick may leap up to 4 metres, and then take a bite attack}
-\melee{Bite}{+2}{Deals 1d6 poison damage (increased by 1d6 for every increase in size), and triggers its {\it Bloodsucker} attribute.}</t>
   </si>
   <si>
     <t>10cm</t>
@@ -1315,11 +1243,6 @@
 \ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
   </si>
   <si>
-    <t>\ability{Alien Senses}{A Death Hunter does not use conventional senses to percieve the world around it. It is therefore immune to effects such as Blindness and Deafness, and can see in perfect darkness}
-\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Death Hunter. The Death Hunter gets advantage on all Resist Checks against magic spells.}
-\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
-  </si>
-  <si>
     <t>\melee{Bludgeon}{+11}{Deals 6+1d6 bludgeoning damage}
 \melee{Bite}{+10}{Deals 6 + 2d8 piercing damage}
 \ability{Pounce}{As a major action, a Death Hunter may leap up to 5 metres towards a target, and take a combined Bludgeon and Bite attack.}
@@ -1362,11 +1285,92 @@
 Whispered rumours in some corners of the Multiverse indicate that some Soul Devourers have even gone rogue, and attempted to rebel against their masters, some have even had a degree of success. That the Soul Devourers remain such an integral part of the Abyssal Army indicates that this rebellious streak is in some way beneficial to their masters, though no one is quite sure why or how this might be. </t>
   </si>
   <si>
+    <t xml:space="preserve">In the midst of a pitched battle between the forces of good and evil, light and dark, life and death, one figure stands apart. A grotesque, scarred humanoid body is sewn onto a countless mass of tentacles which seem to boil and writhe of their own accord. Standing tall over the immense, endless battlefield, it surveys the chaos; planning and strategising. 
+With a movement as fast as the eye can see, the abomination leaps into battle, dueling hand-to-hand with the most powerful servants of the light, firing bolts of dark arcane energy from a finger, and screeching orders to the untold legions of the Abyss. 
+This is the Wielder-of-Night, the Commander of the Abyssal Legions, Slayer of Hope, Destroyer of Worlds, and the reason that every sane being in the multiverse is afraid of the darkness. 
+It is unknown if the Wielder-of-Night is a position, akin to a general, or if there is only one of them, a single mighty champion of the Eldritch Horroers, who has executed their will throughout the eons. Most scholars hope that it is the latter, for the idea of there being multiple such beings is to horrible to even consider. 
+There is only one recorded instance of a Wielder-of-Night stepping onto the Mortal Realm, at the culmination of the final battle of the Cataclysm. Merlin the Great, the most powerful Wizard who ever lived, managed to barely survive its onslaught, until he tricked it into falling through a Rift in time and space, which he sealed behind it. So harrowing was this experience, that Merlin refused to talk about it for hundreds of years after the event. </t>
+  </si>
+  <si>
+    <t>Necrotic, Cold, Magic below Expert level</t>
+  </si>
+  <si>
+    <t>Speed (+10), Strength (+10), Logic (+14), Observation (+13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Wielder-of-Night. They get advantage on all Resist Checks against magic spells, and are totally immune to all spells cast below an Expert level. }
+\ability{Voidic Armour}{The Wielder-of-Night wears an oily black armour which provides a +3 bonus to its block value.}
+\ability{Terrifying Visage}{When a being first sees a member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creature. All terrified beings must reperform the check again, take 5d6 psychic damage on a failure.}
+\ability{Situational Awareness}{A Wielder-of-Night always knows exactly where its foes are. Once it has laid eyes on you, you cannot hide from it unless you remain out of sight for more than 1 minute.}</t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+3}{Deals 1+1d8 piercing damage. Target must suceed a DV10 Vitality check, or take an additional 2d6 poison damage}
+\ability{Dangle}{An Acromantula hatchling may use their webspinning-abilities to silently descend from above, dangling on a thread. They may descend at a rate of 4 metres per cycle using this ability. The thread has 5HP (vulnerable to slashing damage). If this is reduced to zero, the acronmantula falls.}</t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+7}{Deals 6+3d8 piercing damage. Target must suceed a DV15 Vitality check, or take an additional 5d6 poison damage and take the {\it Poisoned: Mild} status effect. }
+\ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}
+\ability{Dangle}{An Acromantula may use their webspinning-abilities to silently descend from above, dangling on a thread. They may descend at a rate of 4 metres per cycle using this ability. The thread has 5HP (vulnerable to slashing damage). If this is reduced to zero, the acronmantula falls.}</t>
+  </si>
+  <si>
+    <t>A fully grown Acromantula is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….
+\blindtext{3}</t>
+  </si>
+  <si>
+    <t>The eldest of the spider monstrosities is known as the {\it Patriarch}. Though they have reached truly gargantuan sizes, their bodies have become decrepit with age. Their minds, however, are razor sharp and they have mastered human speech. 
+\blindtext{3}</t>
+  </si>
+  <si>
+    <t>\ability{Summon Legions}{({\it 3/day}) Summon 2d4 Acromantula and 2d6 Acromnatula Hatchlings to come crawling out of hidden nooks and crannies in a radius up to 30m away from the Patriarch (but still within the lair). These creatures immediately attack any beigns hostile to the Patriarch.}</t>
+  </si>
+  <si>
+    <t>LairAbilities</t>
+  </si>
+  <si>
+    <t>ConditionImmune</t>
+  </si>
+  <si>
+    <t>Senses</t>
+  </si>
+  <si>
+    <t>Cold Damage</t>
+  </si>
+  <si>
+    <t>\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Death Hunter. The Death Hunter gets advantage on all Resist Checks against magic spells.}
+\ability{Terrifying Visage}{When a being first lays eyes on any member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creatue. All terrified beings must reperform the check again. On  a second failure, take 5d6 psychic damage.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disgusting pale-white creature with 6 legs and a face which is entirely featureless except a gaping red maw. 
+Incredibly fast, and with powerful alien senses the Death Hunter serves one purpose: to track and hunt down their target across dimensions. When their target is located, they release an earsplitting howl across dimensions, drawing their allies in. </t>
+  </si>
+  <si>
+    <t>Alien (100m), Bloodhound (10km)</t>
+  </si>
+  <si>
+    <t>Nightvision (15m)</t>
+  </si>
+  <si>
+    <t>Truesight (2m), Darkvision (20m)</t>
+  </si>
+  <si>
+    <t>Nightvision (100m)</t>
+  </si>
+  <si>
+    <t>Asleep, Blinded, Charmed, Deaf, Enraged, Exhausted, Frostbitten</t>
+  </si>
+  <si>
+    <t>Asleep, Charmed, Encumbered, Enraged, Terrified, Exhausted, Frostbitten</t>
+  </si>
+  <si>
+    <t>Asleep, Charmed, Enraged, Terrified, Exhausted, Frostbitten</t>
+  </si>
+  <si>
     <t>\ability{Void Walk}{The Soul Devourer can open a temporary portal through Voidspace to a location they have previously visited anywhere in the Multiverse, or honing in on the site of a Death Hunter\apos{}s {\it Call Allies} ability. Up to 3d10 creatures can pass through the portal before it collapses.}
 \ability{Shroud Flare}{As a minor action, the Soul Devourer can push its {\it Necrotic Shroud} outwards, expanding to a radius of 2 + 1d6 metres, where it remains until the end of the next turn cycle.}
 \melee{Blood Whip}{reach 5m, +6}{A stream of blood congeals into an enormous whip, striking out at a targt for 2d10+4 slashing damage.}
 \ranged{Droplet Cascade}{+10}{25m}{1d10 +1 droplets of blood are flicked from a long finger. The Soul Devourer can decide how many droplets strike at which targets. Each droplet deals 1d6 piercing damage.}
-\ability{Blood Burst}{As an instantaneous action, a Soul Devourer may expel a gigantic burst of blood-red energy in a sphere 15 metres in radius around them. Anything in this region is instantly pushed to the edge, and on a failed DV 15 Acrobatics Resist, take 5d8 necrotic damage. This ability cannot be used again for another minute. }
+\ability{Blood Burst}{\recharge{1}{6}As an instantaneous action, a Soul Devourer may expel a gigantic burst of blood-red energy in a sphere 15 metres in radius around them. Anything in this region is instantly pushed to the edge, and on a failed DV 15 Acrobatics Resist, take 5d8 necrotic damage.}
 \ability{Spellcasting}{A Soul Devourer can perform the following spells as silent, wandless actions, and upcast them all to Master level:
 \beastSpellList{
 \beastSpell{Beginner}{Shadow Blast, Vicious Slash, Shroud of Darkness}
@@ -1379,30 +1383,10 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">In the midst of a pitched battle between the forces of good and evil, light and dark, life and death, one figure stands apart. A grotesque, scarred humanoid body is sewn onto a countless mass of tentacles which seem to boil and writhe of their own accord. Standing tall over the immense, endless battlefield, it surveys the chaos; planning and strategising. 
-With a movement as fast as the eye can see, the abomination leaps into battle, dueling hand-to-hand with the most powerful servants of the light, firing bolts of dark arcane energy from a finger, and screeching orders to the untold legions of the Abyss. 
-This is the Wielder-of-Night, the Commander of the Abyssal Legions, Slayer of Hope, Destroyer of Worlds, and the reason that every sane being in the multiverse is afraid of the darkness. 
-It is unknown if the Wielder-of-Night is a position, akin to a general, or if there is only one of them, a single mighty champion of the Eldritch Horroers, who has executed their will throughout the eons. Most scholars hope that it is the latter, for the idea of there being multiple such beings is to horrible to even consider. 
-There is only one recorded instance of a Wielder-of-Night stepping onto the Mortal Realm, at the culmination of the final battle of the Cataclysm. Merlin the Great, the most powerful Wizard who ever lived, managed to barely survive its onslaught, until he tricked it into falling through a Rift in time and space, which he sealed behind it. So harrowing was this experience, that Merlin refused to talk about it for hundreds of years after the event. </t>
-  </si>
-  <si>
-    <t>Necrotic, Cold, Magic below Expert level</t>
-  </si>
-  <si>
-    <t>Speed (+10), Strength (+10), Logic (+14), Observation (+13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-\ability{Magic Resistance}{As an otherworldly being, normal magic is weaker against a Wielder-of-Night. They get advantage on all Resist Checks against magic spells, and are totally immune to all spells cast below an Expert level. }
-\ability{Voidic Armour}{The Wielder-of-Night wears an oily black armour which provides a +3 bonus to its block value.}
-\ability{Terrifying Visage}{When a being first sees a member of the Abyssal Spawn, they must succeed on a DV 15 Willpower Resist check, or become {\it Terrified} of the creature. All terrified beings must reperform the check again, take 5d6 psychic damage on a failure.}
-\ability{Situational Awareness}{A Wielder-of-Night always knows exactly where its foes are. Once it has laid eyes on you, you cannot hide from it unless you remain out of sight for more than 1 minute.}</t>
-  </si>
-  <si>
     <t>\ability{Multiattack}{The wielder of night may make up to 4 attacks per turn, with no more than 2 of them being of the same type.}
 \melee{Abyssal Scythe}{+10}{Deals 4 + 2d4 slashing damage. On a failed DV 15 vitality Resist, deals an additional 3d6 cold damage.}
 \melee{Tentacle Strike}{+7}{Deals 3 + 1d4 bludgeoning damage and allows the Wielder-of-Night to initiate a grapple}. 
-\ability{Maddening Screech}{All living beings within hearing range experience a psychic blast which threatens their sanity. They take 4d6 psychic damage, and on a failed DV 15 Logic Resist become {\it Distracted} next turn. This ability cannot be used again for 1 minute.}
+\ability{Maddening Screech}{\timeLimit{1}{minute}All living beings within hearing range experience a psychic blast which threatens their sanity. They take 4d6 psychic damage, and on a failed DV 15 Logic Resist become {\it Distracted} next turn.}
 \ability{Spellcasting}{A Wielder-of-Night can perform the following spells as silent, wandless actions, and upcast them to Master level:
 \beastSpellList{
 \beastSpell{Beginner}{Taste of Blood, Force Shield, Shadow Blast}
@@ -1412,6 +1396,112 @@
 }
 }
 \ability{Command Legions}{The Wielder-of-Night may use their major action to command up to 2d8 other Abyssal Spawn in hearing, giving them check-advantage on their next check.}</t>
+  </si>
+  <si>
+    <t>Poisoned: Mild</t>
+  </si>
+  <si>
+    <t>Poisoned</t>
+  </si>
+  <si>
+    <t>Darkvision (20m)</t>
+  </si>
+  <si>
+    <t>Darkvision (10m)</t>
+  </si>
+  <si>
+    <t>All status effects</t>
+  </si>
+  <si>
+    <t>All damage types</t>
+  </si>
+  <si>
+    <t>Asleep</t>
+  </si>
+  <si>
+    <t>Empathy (+6), Intimidation (+4)</t>
+  </si>
+  <si>
+    <t>\ability{Discern Fears}{A boggart can use a minor action to peer into the soul of an individual, and learn their greatest fear. Contest a Empathy check against the victim\apos{}s Deception Resist - on a success, the boggart learns the victim\apos{}s greatest fear. }
+\ability{Shapeshift}{A boggart may use a major action to transform into any shape, to represent something the target is scared of. Any being for which this is their greatest fear must contest a Willpower Resist check against the \name\apos{}s Intimidation check, or become {\it Terrified}. }</t>
+  </si>
+  <si>
+    <t>Stealth (+7)</t>
+  </si>
+  <si>
+    <t>Nightvision (10m)</t>
+  </si>
+  <si>
+    <t>Darkvision (15m)</t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+4}{Deals 6d10 piercing damage. Target must suceed a DV18 Vitality check, or take an additional 15d6 poison damage and take the {\it Poisoned: Severe} status effect. }
+\ranged{Web}{+6}{30 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 18 Strength Resist, or the webbing absorbs 15 points of physical damage.}
+\ability{Webburst}{\recharge{1}{5-6} A patriarch may use a major action to launch a globule of sticky material up to 10 metres away from them, which covers an area of 15m in radius. This area is considered {\it Webbed}. Movement on a webbed area is halved.}
+\ability{Command Spiders}{All spiders and spider-like creatures which understand the spider tongue follow the commands of the \name{}. As a minor action, the \name{} may give a one-phrase instruction to all spiders in range, which they are forced to obey.}</t>
+  </si>
+  <si>
+    <t>3 metres (walking, climbing)</t>
+  </si>
+  <si>
+    <t>8 metres (walking, climbing)</t>
+  </si>
+  <si>
+    <t>5 metres (walking, climbing)</t>
+  </si>
+  <si>
+    <t>15 metres (walking, climbing)</t>
+  </si>
+  <si>
+    <t>10 metres (walking, climbing)</t>
+  </si>
+  <si>
+    <t>\ability{Tiny}{Acromantula hatchlings are very small, and so can occupy the same space as another being, climbing over their body, or hiding between their legs.}
+\ability{Lightweight}{Acromantula Hatchling\apos{}s are small enough to have a non-lethal terminal velocity. They are immune to natural falling damage. Their falling speed is 10 metres per combat cycle.}
+\ability{Web Walker}{An Acromantula Hatchling takes no movement penalty when walked on webbed surfaces}</t>
+  </si>
+  <si>
+    <t>\ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
+\ability{Web Walker}{An Acromantula Hatchling takes no movement penalty when walked on webbed surfaces}</t>
+  </si>
+  <si>
+    <t>\ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
+\ability{Web Walker}{A \name{} takes no movement penalty when walked on webbed surfaces}
+\ability{Webbed Domain}{Whilst inside its vast, webbed and labyrinthian lair, the Acromantula Patriarch has the upper hand. It has advantage on all Resist checks imposed on it, and has access to its {\bf Lair Abilities}.}</t>
+  </si>
+  <si>
+    <t>\ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
+\ability{Web Walker}{An Great Widow takes no movement penalty when walked on webbed surfaces}</t>
+  </si>
+  <si>
+    <t>\ability{Leap Attack}{As a single major action, the Howling Tick may leap up to 4 metres, and then take a bite attack.}
+\melee{Bite}{+2}{Deals 1d6 poison damage (increased by 1d6 for every increase in size), and triggers its {\it Bloodsucker} attribute.}</t>
+  </si>
+  <si>
+    <t>This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.
+\blindtext{4}</t>
+  </si>
+  <si>
+    <t>\ability{Vibration Sense}{When in contact with a webbed surface, the acromantula knows the location of every other being also in contact with the web.}
+\ability{Web Walker}{A \name{} takes no movement penalty when walked on webbed surfaces}
+\ability{Brood Nest}{A \name{} typically resides in an elaborately nest constructed from web, fortified with nearby objects. Whilst inside her nest, a \name{} has access to Lair Actions.}
+\ability{Protective}{The Brood Mother cannot willingly move more than 5 metres away from her nest. She can be tricked or forcibly removed.}</t>
+  </si>
+  <si>
+    <t>\melee{Bite}{+3}{Deals 1d6 poison damage and on a failed DV 13 Vitality Resist deals another 2d6 poison damage}
+\ranged{Web}{+4}{10 metres}{A target individual is covered in sticky webbing. The target is {\it Incapacitated} until they succeed on a DV 14 Strength Resist, or the webbing absorbs 5 points of physical damage.}</t>
+  </si>
+  <si>
+    <t>\ability{Forced Hatch}{\recharge{2}{5-6}The Brood Mother may force one of the eggs in her nest to hatch early. The newly hatched spider has only half its normal max HP, but will defend its mother to the death.}
+\ability{Poison Pod}{\timeLimit{5}{day} The \name{} spends her day littering her nest with traps for the unwary. Whenever a foe takes a movement whilst in her nest, the \name{} can pull a special thread, exploding a venom sac over the threat. The target takes 3d4 poison {\bf or} acid damage, halved on a DV 15 Vitality Resist. }</t>
+  </si>
+  <si>
+    <t>\ability{Bloodsucker}{Whenever the Howling Tick lands a successful attack, it doubles in size, and its bites become more venemous. Its HP and maximum health also increase by 1d6.
+If it goes a combat cycle without feasting on blood, it halves in size until it reaches 10cm in length. Each decrease in size decreases the maximum health by 1d6. 
+}
+\ability{Languages}{Can understand the spider tongue} 
+\ability{Spider Climb}{A Howling Tick may climb across all surfaces, including ceilings as part of their normal movement}
+\ability{Web Walker}{A Howling Tick takes no movement penalty when walked on webbed surfaces}</t>
   </si>
 </sst>
 </file>
@@ -1800,13 +1890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK136"/>
+  <dimension ref="A1:AMN136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AE17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
-      <selection pane="bottomRight" activeCell="AC7" sqref="AC7"/>
+      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1824,21 +1914,22 @@
     <col min="20" max="20" width="24.42578125" style="4" customWidth="1"/>
     <col min="21" max="21" width="6.28515625" style="4" customWidth="1"/>
     <col min="22" max="22" width="7.28515625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="4" customWidth="1"/>
-    <col min="25" max="26" width="12.140625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="87.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="86.85546875" style="6" customWidth="1"/>
-    <col min="30" max="30" width="22.42578125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="16" style="4" customWidth="1"/>
-    <col min="33" max="33" width="68.85546875" style="4" customWidth="1"/>
-    <col min="34" max="1025" width="8.7109375" style="4" customWidth="1"/>
-    <col min="1026" max="16384" width="9.140625" style="5"/>
+    <col min="23" max="23" width="24.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="4" customWidth="1"/>
+    <col min="26" max="28" width="12.140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="87.7109375" style="6" customWidth="1"/>
+    <col min="31" max="32" width="86.85546875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="4" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" style="4" customWidth="1"/>
+    <col min="35" max="35" width="16" style="4" customWidth="1"/>
+    <col min="36" max="36" width="68.85546875" style="4" customWidth="1"/>
+    <col min="37" max="1028" width="8.7109375" style="4" customWidth="1"/>
+    <col min="1029" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,49 +1997,58 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2016,54 +2116,60 @@
         <v>19</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" s="4">
+      <c r="AL2" s="4">
         <v>0.5</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AM2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>37</v>
@@ -2078,7 +2184,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7">
         <v>200</v>
@@ -2087,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="4">
         <v>20</v>
@@ -2117,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U3" s="4">
         <v>18</v>
@@ -2126,51 +2232,57 @@
         <v>13</v>
       </c>
       <c r="W3" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI3" s="4">
+      <c r="AL3" s="4">
         <v>0.33</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AM3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="153" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>37</v>
@@ -2185,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -2194,7 +2306,7 @@
         <v>70</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" s="4">
         <v>10</v>
@@ -2224,7 +2336,7 @@
         <v>6</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U4" s="4">
         <v>11</v>
@@ -2233,54 +2345,60 @@
         <v>14</v>
       </c>
       <c r="W4" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="4">
+      <c r="AL4" s="4">
         <v>0.35</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AM4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="357" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>37</v>
@@ -2295,7 +2413,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7">
         <v>140</v>
@@ -2304,7 +2422,7 @@
         <v>200</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="4">
         <v>8</v>
@@ -2334,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U5" s="4">
         <v>9</v>
@@ -2343,51 +2461,57 @@
         <v>12</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="X5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="AH5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI5" s="4">
+        <v>63</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" s="4">
         <v>0.5</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AM5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>37</v>
@@ -2402,7 +2526,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7">
         <v>175</v>
@@ -2411,7 +2535,7 @@
         <v>75</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" s="4">
         <v>16</v>
@@ -2441,7 +2565,7 @@
         <v>7</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="U6" s="4">
         <v>18</v>
@@ -2452,61 +2576,64 @@
       <c r="W6" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="X6" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="AC6" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="AG6" s="4" t="s">
-        <v>404</v>
+        <v>47</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI6" s="4">
+        <v>63</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL6" s="4">
         <v>0.5</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AM6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="H7" s="4">
         <v>15</v>
@@ -2515,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="K7" s="4">
         <v>8</v>
@@ -2545,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U7" s="4">
         <v>10</v>
@@ -2554,72 +2681,78 @@
         <v>12</v>
       </c>
       <c r="W7" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="AD7" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AH7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AI7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AE7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AJ7" s="4">
+      <c r="AL7" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="AM7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8" s="4">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="K8" s="4">
         <v>14</v>
@@ -2649,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="U8" s="4">
         <v>17</v>
@@ -2658,75 +2791,84 @@
         <v>15</v>
       </c>
       <c r="W8" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="AI8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H9" s="4">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>58</v>
+        <v>423</v>
       </c>
       <c r="K9" s="4">
         <v>7</v>
@@ -2756,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="U9" s="4">
         <v>15</v>
@@ -2765,54 +2907,63 @@
         <v>5</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="X9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="AH9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -2821,21 +2972,21 @@
         <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ10" s="4">
+        <v>44</v>
+      </c>
+      <c r="AM10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -2844,27 +2995,27 @@
         <v>38</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI11" s="4">
+        <v>44</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL11" s="4">
         <v>0.5</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AM11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D12" s="4">
         <v>7</v>
@@ -2873,21 +3024,21 @@
         <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ12" s="4">
+        <v>44</v>
+      </c>
+      <c r="AM12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4">
         <v>7</v>
@@ -2896,21 +3047,21 @@
         <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="89.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -2919,10 +3070,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
@@ -2931,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -2958,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="U14" s="4">
         <v>0</v>
@@ -2967,48 +3118,51 @@
         <v>10</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>50</v>
+        <v>412</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI14" s="4">
+        <v>63</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL14" s="4">
         <v>0.35</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AM14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -3017,10 +3171,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H15" s="4">
         <v>20</v>
@@ -3029,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K15" s="4">
         <v>8</v>
@@ -3059,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="U15" s="4">
         <v>9</v>
@@ -3067,49 +3221,52 @@
       <c r="V15" s="4">
         <v>13</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>91</v>
+      <c r="W15" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="AJ15" s="4">
+        <v>63</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="AM15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -3118,10 +3275,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H16" s="4">
         <v>10</v>
@@ -3130,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -3157,10 +3314,10 @@
         <v>6</v>
       </c>
       <c r="S16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="U16" s="4">
         <v>5</v>
@@ -3168,70 +3325,70 @@
       <c r="V16" s="4">
         <v>10</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD16" s="4" t="s">
+      <c r="X16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AE16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="AJ16" s="4">
+      <c r="AK16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AM16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H17" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="K17" s="4">
         <v>5</v>
@@ -3261,7 +3418,7 @@
         <v>5</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="U17" s="4">
         <v>13</v>
@@ -3269,88 +3426,91 @@
       <c r="V17" s="4">
         <v>11</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AD17" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AB17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI17" s="4">
+      <c r="AI17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL17" s="4">
         <v>0.38</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AM17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>4</v>
-      </c>
       <c r="B18" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H18" s="4">
-        <v>35</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>108</v>
+        <v>422</v>
       </c>
       <c r="K18" s="4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L18" s="4">
         <v>16</v>
       </c>
       <c r="M18" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="4">
         <v>4</v>
       </c>
       <c r="P18" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="4">
         <v>4</v>
@@ -3362,93 +3522,105 @@
         <v>2</v>
       </c>
       <c r="T18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U18" s="4">
+        <v>7</v>
+      </c>
+      <c r="V18" s="4">
+        <v>14</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK18" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="U18" s="4">
-        <v>14</v>
-      </c>
-      <c r="V18" s="4">
-        <v>13</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ18" s="4">
+      <c r="AL18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AM18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H19" s="4">
         <v>25</v>
       </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
       <c r="J19" s="4" t="s">
-        <v>108</v>
+        <v>423</v>
       </c>
       <c r="K19" s="4">
+        <v>14</v>
+      </c>
+      <c r="L19" s="4">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4">
         <v>7</v>
       </c>
-      <c r="L19" s="4">
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3</v>
+      </c>
+      <c r="P19" s="4">
         <v>16</v>
-      </c>
-      <c r="M19" s="4">
-        <v>4</v>
-      </c>
-      <c r="N19" s="4">
-        <v>3</v>
-      </c>
-      <c r="O19" s="4">
-        <v>4</v>
-      </c>
-      <c r="P19" s="4">
-        <v>12</v>
       </c>
       <c r="Q19" s="4">
         <v>4</v>
@@ -3457,102 +3629,102 @@
         <v>2</v>
       </c>
       <c r="S19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="U19" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V19" s="4">
-        <v>14</v>
-      </c>
-      <c r="W19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="X19" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA19" s="4" t="s">
+      <c r="AD19" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AB19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI19" s="4">
+      <c r="AI19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL19" s="4">
         <v>0.4</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AM19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="H20" s="4">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="K20" s="4">
         <v>14</v>
       </c>
       <c r="L20" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M20" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N20" s="4">
         <v>2</v>
       </c>
       <c r="O20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="4">
         <v>4</v>
@@ -3561,57 +3733,57 @@
         <v>2</v>
       </c>
       <c r="S20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="U20" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V20" s="4">
         <v>13</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="X20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>184</v>
+      <c r="AD20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="AJ20" s="4">
+        <v>48</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -3620,242 +3792,242 @@
         <v>38</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI21" s="4">
+        <v>172</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL21" s="4">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AM21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG23" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D25" s="6">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG25" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI25" s="4">
+        <v>185</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL25" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH26" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI26" s="4">
+        <v>187</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL26" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK27" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AH27" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI27" s="4">
+      <c r="AL27" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D28" s="4">
         <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG28" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH28" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI28" s="4">
+        <v>79</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL28" s="4">
         <v>0.5</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AM28" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D29" s="4">
         <v>6</v>
@@ -3866,25 +4038,25 @@
       <c r="F29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG29" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI29" s="4">
+      <c r="AJ29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL29" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
@@ -3895,306 +4067,306 @@
       <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH30" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI30" s="4">
+      <c r="AJ30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL30" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D31" s="6">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG31" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH31" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI31" s="4">
+        <v>201</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL31" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG32" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH32" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI32" s="4">
+        <v>79</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL32" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:35" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG33" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH33" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI33" s="4">
+        <v>142</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK33" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL33" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D34" s="6">
         <v>6</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG34" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ34" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D35" s="6">
         <v>6</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG35" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D36" s="6">
         <v>6</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG36" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D37" s="6">
         <v>6</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG37" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG38" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D39" s="6">
         <v>6</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG39" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D40" s="6">
         <v>6</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG40" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D41" s="6">
         <v>6</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG41" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D42" s="6">
         <v>6</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG42" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D43" s="6">
         <v>6</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG43" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D44" s="4">
         <v>5</v>
@@ -4203,18 +4375,18 @@
         <v>38</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG44" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D45" s="4">
         <v>5</v>
@@ -4223,18 +4395,18 @@
         <v>38</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG45" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ45" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D46" s="4">
         <v>5</v>
@@ -4243,264 +4415,264 @@
         <v>38</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG46" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ46" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG47" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG48" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="AJ48" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D49" s="6">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG49" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="AJ49" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D50" s="4">
         <v>5</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG50" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D51" s="6">
         <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG51" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG52" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ52" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="6">
+        <v>237</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ53" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="6">
         <v>5</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG53" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG54" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ54" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D55" s="4">
         <v>6</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG55" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="AJ55" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG56" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="AJ56" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG57" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="AJ57" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D58" s="4">
         <v>3</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG58" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="AJ58" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D59" s="4">
         <v>5</v>
@@ -4509,18 +4681,18 @@
         <v>38</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG59" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="AJ59" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D60" s="4">
         <v>5</v>
@@ -4529,18 +4701,18 @@
         <v>38</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG60" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="AJ60" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D61" s="4">
         <v>5</v>
@@ -4549,338 +4721,338 @@
         <v>38</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG61" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="AJ61" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D62" s="6">
         <v>2</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG62" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="AJ62" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG63" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="AJ63" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG64" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="AJ64" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D65" s="4">
         <v>5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG65" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="AJ65" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D66" s="4">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ66" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="4">
         <v>6</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG66" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B67" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="4">
-        <v>5</v>
-      </c>
       <c r="E67" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG67" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="AJ67" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D68" s="4">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG68" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="AJ68" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D69" s="4">
         <v>5</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG69" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="AJ69" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D70" s="4">
         <v>3</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG70" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="AJ70" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D71" s="4">
         <v>5</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG71" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="AJ71" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D72" s="6">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ72" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ73" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="6">
         <v>3</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG72" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" s="6">
-        <v>2</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG73" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B74" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D74" s="6">
+      <c r="E74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ74" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" s="6">
         <v>5</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG74" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B75" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
       <c r="E75" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG75" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="AJ75" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D76" s="6">
         <v>4</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG76" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ76" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D77" s="6">
         <v>4</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG77" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ77" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="D78" s="4">
         <v>5</v>
@@ -4891,171 +5063,171 @@
       <c r="F78" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG78" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AJ78" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D79" s="4">
+        <v>274</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ79" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="4">
         <v>1</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG79" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B80" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ80" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ81" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="4">
         <v>2</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG80" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B81" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" s="6">
+      <c r="E82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ82" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ83" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" s="6">
         <v>3</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG81" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D82" s="6">
+      <c r="E84" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ84" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="6">
         <v>3</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG82" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B83" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG83" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B84" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D84" s="6">
-        <v>1</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG84" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B85" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D85" s="4">
-        <v>2</v>
-      </c>
       <c r="E85" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG85" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:36" ht="280.5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ85" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>1</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D86" s="4">
         <v>6</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="H86" s="4">
         <v>150</v>
@@ -5064,7 +5236,7 @@
         <v>220</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K86" s="4">
         <v>11</v>
@@ -5094,7 +5266,7 @@
         <v>6</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="U86" s="4">
         <v>11</v>
@@ -5102,46 +5274,46 @@
       <c r="V86" s="4">
         <v>14</v>
       </c>
-      <c r="X86" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z86" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB86" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC86" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG86" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ86" s="4">
+      <c r="Y86" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB86" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD86" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE86" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ86" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM86" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D87" s="4">
         <v>4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="H87" s="4">
         <v>10</v>
@@ -5150,7 +5322,7 @@
         <v>50</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K87" s="4">
         <v>3</v>
@@ -5180,7 +5352,7 @@
         <v>5</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="U87" s="4">
         <v>0</v>
@@ -5188,55 +5360,55 @@
       <c r="V87" s="4">
         <v>13</v>
       </c>
-      <c r="W87" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y87" s="4" t="s">
-        <v>45</v>
+      <c r="X87" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB87" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC87" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AG87" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH87" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI87" s="4">
+        <v>44</v>
+      </c>
+      <c r="AB87" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD87" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE87" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ87" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK87" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL87" s="4">
         <v>0.3</v>
       </c>
-      <c r="AJ87" s="4">
+      <c r="AM87" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>3</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D88" s="4">
         <v>6</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="H88" s="4">
         <v>200</v>
@@ -5245,7 +5417,7 @@
         <v>250</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K88" s="4">
         <v>14</v>
@@ -5275,7 +5447,7 @@
         <v>7</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="U88" s="4">
         <v>13</v>
@@ -5283,31 +5455,31 @@
       <c r="V88" s="4">
         <v>16</v>
       </c>
-      <c r="X88" s="4" t="s">
+      <c r="Y88" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD88" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE88" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ88" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="Z88" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB88" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC88" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG88" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="89" spans="1:36" ht="409.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:39" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>4</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D89" s="4">
         <v>7</v>
@@ -5319,7 +5491,7 @@
         <v>39</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H89" s="4">
         <v>250</v>
@@ -5328,7 +5500,7 @@
         <v>300</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K89" s="4">
         <v>17</v>
@@ -5358,7 +5530,7 @@
         <v>10</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="U89" s="4">
         <v>15</v>
@@ -5366,480 +5538,480 @@
       <c r="V89" s="4">
         <v>16</v>
       </c>
-      <c r="W89" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="X89" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z89" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB89" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC89" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG89" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH89" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI89" s="4">
+        <v>303</v>
+      </c>
+      <c r="Y89" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB89" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD89" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE89" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ89" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK89" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL89" s="4">
         <v>0.46</v>
       </c>
-      <c r="AJ89" s="4">
+      <c r="AM89" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D90" s="6">
+        <v>312</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ90" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ91" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B92" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="6">
         <v>2</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG90" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B91" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D91" s="6">
+      <c r="E92" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ92" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B93" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D93" s="6">
         <v>2</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG91" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B92" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG92" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B93" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="E93" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ93" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B94" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="4">
         <v>2</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG93" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B94" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D94" s="4">
-        <v>1</v>
-      </c>
       <c r="E94" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG94" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ94" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG95" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ95" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="D96" s="6">
         <v>6</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG96" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="2:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG97" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="2:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ97" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG98" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="2:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ98" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D99" s="4">
         <v>7</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG99" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="2:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D100" s="6">
         <v>3</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG100" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="2:33" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="AJ100" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D101" s="4">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG101" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="2:33" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="AJ101" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D102" s="4">
         <v>4</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG102" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="103" spans="2:33" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="AJ102" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D103" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG103" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="2:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D104" s="4">
         <v>5</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG104" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="2:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D105" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG105" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="2:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D106" s="4">
+        <v>333</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ106" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B107" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ107" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D108" s="4">
         <v>2</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG106" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="107" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B107" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D107" s="6">
+      <c r="E108" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ108" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D109" s="6">
         <v>2</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG107" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="108" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B108" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D108" s="6">
-        <v>1</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG108" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B109" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
-      </c>
       <c r="E109" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG109" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="2:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ109" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D110" s="6">
-        <v>4</v>
+        <v>337</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" s="4">
+        <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG110" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="2:33" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="AJ110" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D111" s="4">
-        <v>3</v>
+        <v>335</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG111" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="2:33" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="AJ111" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D112" s="4">
         <v>4</v>
@@ -5848,78 +6020,78 @@
         <v>38</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG112" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="113" spans="2:33" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="AJ112" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ113" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B114" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="4">
         <v>1</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG113" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B114" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D114" s="4">
-        <v>0</v>
-      </c>
       <c r="E114" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG114" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="115" spans="2:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AJ114" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D115" s="4">
         <v>6</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG115" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" spans="2:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ115" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D116" s="4">
         <v>4</v>
@@ -5928,18 +6100,18 @@
         <v>38</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG116" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="2:33" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="AJ116" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D117" s="4">
         <v>4</v>
@@ -5948,118 +6120,118 @@
         <v>38</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG117" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="118" spans="2:33" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="AJ117" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D118" s="4">
         <v>3</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG118" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="119" spans="2:33" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="AJ118" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D119" s="4">
-        <v>3</v>
+        <v>353</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG119" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="2:33" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ119" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D120" s="4">
         <v>3</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG120" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="121" spans="2:33" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ120" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" s="6">
+        <v>351</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D121" s="4">
         <v>3</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG121" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="2:33" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ121" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D122" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG122" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="123" spans="2:33" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ122" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D123" s="4">
         <v>5</v>
@@ -6068,164 +6240,164 @@
         <v>38</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG123" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="2:33" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="AJ123" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B124" s="6" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D124" s="4">
         <v>6</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG124" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="2:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ124" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D125" s="4">
         <v>6</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG125" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="2:33" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AJ125" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B126" s="6" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D126" s="4">
         <v>4</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG126" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="2:33" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="AJ126" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B127" s="6" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D127" s="4">
+        <v>4</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ127" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B128" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D128" s="4">
         <v>5</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG127" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B128" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D128" s="4">
-        <v>4</v>
-      </c>
       <c r="E128" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG128" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" spans="2:35" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="AJ128" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B129" s="6" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D129" s="4">
         <v>6</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG129" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="2:35" ht="25.5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="AJ129" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="2:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D130" s="6">
         <v>3</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG130" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH130" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI130" s="4">
+        <v>171</v>
+      </c>
+      <c r="AJ130" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK130" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL130" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D131" s="6">
         <v>4</v>
@@ -6234,24 +6406,24 @@
         <v>38</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG131" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH131" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI131" s="4">
+        <v>171</v>
+      </c>
+      <c r="AJ131" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK131" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL131" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D132" s="6">
         <v>5</v>
@@ -6260,100 +6432,104 @@
         <v>38</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG132" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH132" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AI132" s="4">
+        <v>171</v>
+      </c>
+      <c r="AJ132" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK132" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL132" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="133" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D133" s="4">
         <v>4</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG133" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="134" spans="2:35" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="AJ133" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D134" s="4">
         <v>6</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG134" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="2:35" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AJ134" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B135" s="6" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D135" s="4">
         <v>5</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG135" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="2:35" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="AJ135" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B136" s="6" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D136" s="4">
         <v>5</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG136" s="4" t="s">
-        <v>191</v>
+        <v>209</v>
+      </c>
+      <c r="AJ136" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AL1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL136">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/NewBeasts.xlsx
@@ -11,9 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AM$155</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$AL$141</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AL$155</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AM$155</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$AL$141</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="551">
   <si>
     <t xml:space="preserve">SpeciesOrder</t>
   </si>
@@ -1062,6 +1063,292 @@
 \ability{Loyal Servant}{A \name{} follows orders given to them by their master(s) without hesitation, and with a single minded loyalty.}</t>
   </si>
   <si>
+    <t xml:space="preserve">\ability{Spatial Displacement}{Instead of a movement action, a \name{} can teleport to any location they can see that is within twice the range of their movement. Doing so is not considered {\it moving}. }
+\ability{Deny Magic}{\recharge{1}{5-6} A \name{} can use a minor action or a reaction to instantly disable any spellcasting they can see. The targeted being automatically fails the spellcasting action it is undertaking.}
+\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Novice level. Their Arcane Subjugation value is 12 and all spells have a +2 to hit.
+\beastSpellList{
+\beastSpell{Beginner}{Fresh Air, Levitation, Clean Surface, Launder Clothes, Locate Object, Stickfast, Trip, Knockback}
+\beastSpell{Novice}{Disarm, Bolt from the Blue, Will-O\apos{}-the-Whisp}
+\beastSpell{Adept}{Unlock, Sense Humans, Locate Being}
+\beastSpell{Expert}{Apparate}
+}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A House-Elf is a small impish humanoid creature which has been bound, or inherited a binding, to a given master. House-Elves are incredibly devoted to these masters, and will obey every order given to them. Typically treated as household servants, their magic is dedicated to the upkeep of the home and, on incredibly rare occasions, the repelling of intruders. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brownie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Br{\'u}nb{\'a}su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helpful Brownie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empathy (+7), Observation (+7), Chicanery (+9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Unknown Power}{A \name{}\apos{}s magic works on completely different rules to that wielded by humans. Magical effects imposed by a \name{} are not removed by counterspells, dispelling effects or countercurses. Anti-magic wards, anti-disapparation bounds and other such effects do not stop a \name{} from using their abilities.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Spatial Displacement}{Instead of a movement action, a \name{} can teleport to any location they can see that is within twice the range of their movement. Doing so is not considered {\it moving}. }
+\ability{Deny Magic}{\recharge{1}{4-6} A \name{} can use a minor action or a reaction to instantly disable any spellcasting they can see. The targeted being automatically fails the spellcasting action it is undertaking.}
+\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Adept level. Their Arcane Subjugation value is 14, and spells have a +4 to hit. 
+\beastSpellList{
+\beastSpell{Beginner}{Fresh Air, Levitation, Clean Surface, Launder Clothes, Locate Object, Stickfast, Trip, Knockback}
+\beastSpell{Novice}{Disarm, Bolt from the Blue, Will-O\apos{}-the-Whisp, Ignite}
+\beastSpell{Adept}{Unlock, Sense Humans, Locate Being, Object Swarm}
+\beastSpell{Expert}{Apparate}
+}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Europe, Great Britain, Scandinavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is said that the \name{} were the original species that were enslaved and magically altered over generations to become the House-Elves. Long considered extinct, the freeing of Dobby the House-Elf, the first Free-Elf in 1000 years, has led to a resurgence in the \name{} as a newly re-recognised species. 
+Though rejecting their former enslavement, the \name{} retain a love of order and cleanliness, and will often do chores for a household – on the condition of respect and equitable payment. They are easily offended, and if they feel denigrated or slighted, they will wreck the place, and will never return. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elleng\ae{}st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicanery (+6), Acrobatics (+6), Speed (+0), Stealth (+6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elfin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common human languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Unknown Power}{An \name{}\apos{}s magic works on completely different rules to that wielded by humans. Magical effects imposed by an \name{} is not removed by counterspells, dispelling effects or countercurses. Anti-magic wards and other such effects do not stop an \name{} from using their abilities.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Novice level. Their Arcane Subjugation value is 11, and spells have a +2 to hit. 
+\beastSpellList{
+\beastSpell{Beginner}{Mage Hand, Levitation, Stickfast, Trip, Knockback, Contact Shock, Gust, Mark Surface, Pebbledash, Transmutation, Prank}
+\beastSpell{Novice}{Smokescreen, Warted Skin, Cause Confusion, Silent Illusion, Lock, Weld Objects}
+}}
+\ability{Pickpocket}{When making contact with another being, either physically or with their Mage Hand, use a major action to contest a Chicanery check against the target\apos{}s passive \attPer{} value. On a success, they steal something from the target, usually starting with the shinest.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Britain, Scandinavia, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The archetypal impish prankster, the \name{}, also known as a `Puck’, or a `True Imp’ competes only with the Poltergeist for the mischief-maker\apos{}s crown. They adore slapstick comedy and petty theft, often building themselves a nest out of their stolen objects. 
+Visually, an \name{} appears to be a small, flightless fairy; a slender humanoid, approximately a foot tall. Their mouth is filled with a disturbing number of teeth, but they’re too small to harm a human, and are used to supply their mostly-insect based diet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dun\ae{}lf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4m (walking), 3m (climbing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicanery (+6), Acrobatics (+6), Stealth (+6), Willpower (+5), Observation (+5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Unknown Power}{A \name{}\apos{}s magic works on completely different rules to that wielded by humans. Magical effects imposed by a \name{} is not removed by counterspells, dispelling effects or countercurses. Anti-magic wards and other such effects do not stop a \name{} from using their abilities.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elfin Strike}{At the start of every turn, a \name{} attempts a stealth check against their opponent\apos{}s Observation value (passive or active, situation depending). On a success, the \name{} may take a full turn movement, use the {\it Elfshot} attack and then turn invisible all as part of the same major action. On a failure, they take their turn as normal.}
+\ranged{Elfshot}{+5}{15m}{An astral arrow shot from a magic bow causes shooting pains in the joints. Target must pass a DV 12 Vitality Resist, or take the {\it Poisoned: Mild} status effect. After being poisoned, every subsequent failed Resist from an Elfshot deals 1  more point of poison damage than the previous strike (max 8).}
+\melee{Shortsword}{+3}{Deals 1d4 slashing damage.}
+\ability{Invisibility}{A \name{} can become invisible as a minor action, magically fading from normal sight. This effect lasts until the \name{} makes an attack or casts a spell. }
+\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Adept level. Their Arcane Subjugation value is 14, and spells have a +4 to hit. 
+\beastSpellList{
+\beastSpell{Beginner}{Mage Hand, Trip, Knockback, Gust, Pebbledash}
+\beastSpell{Novice}{Smokescreen, Warted Skin, Cause Confusion, Silent Illusion, Ignite, Hunter\apos{}s Mark, Bolt from the Blue, Create Trap}
+}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The warriors and guardians of the Elves, the \name{} make great use of their nimble nature and their ability to turn invisible, more than making up for their diminutive stature. The \name{} also wield magical bows which inflict agonising pain on their targets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dunaelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V\ae{}ttir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6m (walking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicanery (+5), Willpower (+6), Arcane (+4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spell damage from the {\it Elemental} discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Adept level. Their Arcane Subjugation value is 15, and spells have a +6 to hit. 
+A \name{} knows all Elemental spells up to Adept level, and can upcast all spells to this level. A \name{} will preferably use spells associated with its bonded element, though this is a preference and not a limitation.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The least human-like of the elves, the \name{} are a species of elves which have an affinity for the primal elements, and the associated magics. 
+Though capable of wielding all of the elements, many \name{} find themselves drawn to one element in particular. This reflects in their outwards appearance, which slowly begins to shift and change. A fire-bound \name{} grows a fiery red beard and orange eyes, whilst a water-bound \name{}\apos{}s skin turns blue and appears permanently damp. Current arcane knowledge has found no additional abilities granted with this change, so it is unknown if there is any particular reason for this `bonding’ process to occur. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaettir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hulduf{\'o}lk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elf-princes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicanery (+11), Willpower (+11), Persuasion (+12), Nature (+9), Empathy (+9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asleep, Charmed, Exhausted, Terrified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slashing, Bludgeoning and Piercing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightvision (25m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Onslaught}{The \name{} takes two Elegant Longsword attacks and then casts a spell as part of a single major action attack.}
+\melee{Elegant Longsword}{+8}{Deals 1d8 + 5 slashing damage.}
+\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Expert level. Their Arcane Subjugation value is 17 and all spells have a +6 to hit.
+\beastSpellList{
+\beastSpell{Beginner}{Control Fire, Control Water, Create Fire, Gust, Mage Hand, Animal Eyes, Distressing Omen, Glamour, Hypnotic Lights, Chaotic Whispers, Rainbow Sparks, Ticklish Blast, Force Shield, Transmutation}
+\beastSpell{Novice}{Fabricate Object, Halting Field, Bolt from the Blue, Manipulate Emotions, Silent Illusion, Counterspell, Dancing Bolt, Ignite, Charm Creature}
+\beastSpell{Adept}{Animate Earth, Bedazzle, Commune With Nature, Sense Humans, Glimpse Future, Sleep, Entrance Other}
+\beastSpell{Expert}{Banish, Bedazzling Aura, Curse Being, Waking Dreams}
+}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A \name{} which presides over a Seelie Court maintains an intense connection to the ambient magics present in their domain. Once per turn that they spend within their court, as an additional instantaneous action they can redirect the energies to produce one of the following effects:
+\ability{Call to Court}{A \name{} can summon their forces to court, opening a number of portals across the multiverse. The number of Elves which respond to the call depends on the power of the Prince, but typically lies between 2d4 and 10d12.}
+\ability{Tremble}{The ground rumbles and shakes with magical power. All beings in contact with the ground besides the Elf-Prince must make an Acrobatics Resist against the \name{}\apos{}s Arcane Subjugation, or be knocked prone.}
+\ability{Bind}{Roots, branches and vines reach out to bind an individual in place, rendering them {\it Incapacitated}. At the end of each turn, the ensnared individual may attempt to break free using a Strength Resist.}
+\ability{Blink}{The \name{} can instantly disappear and reappear anywhere within the court. All attacks directed at them this turn cycle miss, unless they move to an area caught within a specified area of effect of an attack. This ability cannot be used on consecutive turns.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \name{} (Icelandic for {\it The Hidden People}) are powerful extraplanar beings which most closely resemble the Tolkenien elves, for they appear as $\sim$5ft humanoids of exceptional, unearthly beauty and appear to glow from within with a golden radiance. 
+The \name{} reside within a group of dimensions known as the {\it Seelie Courts}, which lie close to the Astral realm. Each Seelie Court is a verdant paradise, populated entirely by elves, both those species which are found on Earth, and myriad others.
+Each Court is ruled over by an Elf-Prince, the most powerful \name{} in the Court, as well as their advisors and attendants. Typically these offices are all held by other \name{}s, though rarely you may find a Dun\ae{}lf or V\ae{}ttir who has risen through the ranks of the Court to serve in these lofty positions. 
+Even those elves which reside on Earth are (technically) members of a Court, and must obey the summons from their Prince when it is time for them to attend their Seelie Court, failure to do so leads to expulsion (or worse). In reality, however, the Seelie Courts are rarely called in such a manner and Earthbound elves may not even know that they belong to a Court until the summons arrives. 
+The \name{} wield immense and powerful magic, which they primarily use to cause mischief, mayhem and to disrupt the plans of the other members of the courts. The most famous conflict between various courts is that between Oberon and Titania, with the conflict spilling over into the Mortal Plane on more than one occasion, even making its way into the muggle subconscious. 
+On rare occasions a Court can become corrupted by evil – either due to the profane actions of the Prince themselves, or because of some external corrupting influence such as a Voidic Incursion. A corrupted court is known as an {\it Unseelie Court}, and is often a source of violence, conflict and further corruption. 
+Though not all \name{}s are Elf-Princes, those which are have access to the specified {\it Lair Actions} whilst they remain in their Court. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">huldufolk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draconic Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobalug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plimpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackled Malaclaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundimun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horklump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Civilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigantoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigantic Humanoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10m (walking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength (+9), Vitality (+9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spell damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks to the eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eotun</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1070,7 +1357,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">\ability{Spatial Displacement}{Instead of a movement action, a \name{} can teleport to any location they can see that is within twice the range of their movement. Doing so is not considered {\it moving}. }
+      <t xml:space="preserve">\ability{Magic Resistance}{A \name{} is immune to all spells cast at or below a Novice level, is considered Resistant to all damage inflicted by spell attacks and takes advantage on all Resist checks against spells. These resistances are negated if the damage inflicted is {\it Psychic}.}
 </t>
     </r>
     <r>
@@ -1080,8 +1367,83 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-\ability{Deny Magic}{\recharge{1}{5-6} A \name{} can use a minor action or a reaction to instantly disable any spellcasting they can see. The targeted being automatically fails the spellcasting action it is undertaking.}
+      <t xml:space="preserve">\ability{Vulnerable Eyes}{When performing an attack which requires an accuracy roll, the attacker may choose to aim for the eyes. This grants a +3 bonus to the defensive Instincts, but such attacks bypass the {\it Magic Resistance} ability (if a spell), or the damage is rolled at advantage (if a physical weapon).}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Slam}{reach 2m, +6}{Deals 5+2d6 blugeoning damage.}
+\ranged{Rockthrow}{+6}{30m}{Deals 5 + 2d8 bludgeoning damage.}
+\ability{Giant Grapple}{On initiating a grapple, a giant may lift a target high into the air. Target is {\it Trapped} and all ability checks are at a disadvantage. Breaking the grapple causes the target to fall, taking 4d4 bludgeoning damage and taking the {\it Prone Position} status.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant civilians, though monstrous in size and appearance, are not mighty warriors. Despite this, their immense strength and resistance to magic means that they can still pose a severe hazard to the unwary wizard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Elder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wise(ish) Civilian Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7m (walking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength (+7), Willpower (+5), History (+3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eotun, Common Human Tongues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Magic Resistance}{A \name{} is immune to all spells cast at or below a Novice level, is considered Resistant to all damage inflicted by spell attacks and takes advantage on all Resist checks against spells. These resistances are negated if the damage inflicted is {\it Psychic}.}
+\ability{Vulnerable Eyes}{When performing an attack which requires an accuracy roll, the attacker may choose to aim for the eyes. This grants a +3 bonus to the defensive Instincts, but such attacks bypass the {\it Magic Resistance} ability (if a spell), or the damage is rolled at advantage (if a physical weapon).}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Slam}{reach 2m, +6}{Deals 2+2d6 blugeoning damage.}
+\ranged{Rockthrow}{+6}{30m}{Deals 2 + 2d8 bludgeoning damage.}
+\ability{Giant Grapple}{On initiating a grapple, a giant may lift a target high into the air. Target is {\it Trapped} and all ability checks are at a disadvantage. Breaking the grapple causes the target to fall, taking 4d4 bludgeoning damage and taking the {\it Prone Position} status.}
+\ability{Study}{By taking a major action to study a target, a Giant Elder gains advantage on accuracy rolls against the being for the next 30 seconds, as well as learning any immunities, susceptibilities or vulnerabilities they possess.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant elders are civilian leaders, who have earned respect from their clan not merely through martial prowess (though many were mighty warriors in their youth), but through their relatively high intellect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oldGiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enormous Primal Warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12m (walking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength (+11), Vitality (+11), Intimidation (+11)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Magic Resistance}{A \name{} is immune to all spells cast at or below a Novice level, is considered Resistant to all damage inflicted by spell attacks and takes advantage on all Resist checks against spells. These resistances are negated if the damage inflicted is {\it Psychic}.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Vulnerable Eyes}{When performing an attack which requires an accuracy roll, the attacker may choose to aim for the eyes. This grants a +4 bonus to the defensive Instincts, but such attacks bypass the {\it Magic Resistance} ability (if a spell), or the damage is rolled at advantage (if a physical weapon).}
 </t>
     </r>
     <r>
@@ -1093,113 +1455,8 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Novice level. Their Arcane Subjugation value is 12 and all spells have a +2 to hit.
-\beastSpellList{
-\beastSpell{Beginner}{Fresh Air, Levitation, Clean Surface, Launder Clothes, Locate Object, Stickfast, Trip, Knockback}
-\beastSpell{Novice}{Disarm, Bolt from the Blue, Will-O\apos{}-the-Whisp}
-\beastSpell{Adept}{Unlock, Sense Humans, Locate Being}
-\beastSpell{Expert}{Apparate}
-}}</t>
+\ability{Reckless Attacks}{A \name{} can choose to make their melee attacks {\it Reckless}, taking advantage on accuracy rolls this turn, but granting advantage on any accuracy rolls made against them this turn.}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">60cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A House-Elf is a small impish humanoid creature which has been bound, or inherited a binding, to a given master. House-Elves are incredibly devoted to these masters, and will obey every order given to them. Typically treated as household servants, their magic is dedicated to the upkeep of the home and, on incredibly rare occasions, the repelling of intruders. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brownie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Br{\'u}nb{\'a}su</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helpful Brownie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empathy (+7), Observation (+7), Chicanery (+9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Unknown Power}{A \name{}\apos{}s magic works on completely different rules to that wielded by humans. Magical effects imposed by a \name{} are not removed by counterspells, dispelling effects or countercurses. Anti-magic wards, anti-disapparation bounds and other such effects do not stop a \name{} from using their abilities.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Spatial Displacement}{Instead of a movement action, a \name{} can teleport to any location they can see that is within twice the range of their movement. Doing so is not considered {\it moving}. }
-\ability{Deny Magic}{\recharge{1}{4-6} A \name{} can use a minor action or a reaction to instantly disable any spellcasting they can see. The targeted being automatically fails the spellcasting action it is undertaking.}
-\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Adept level. Their Arcane Subjugation value is 14, and spells have a +4 to hit. 
-\beastSpellList{
-\beastSpell{Beginner}{Fresh Air, Levitation, Clean Surface, Launder Clothes, Locate Object, Stickfast, Trip, Knockback}
-\beastSpell{Novice}{Disarm, Bolt from the Blue, Will-O\apos{}-the-Whisp, Ignite}
-\beastSpell{Adept}{Unlock, Sense Humans, Locate Being, Object Swarm}
-\beastSpell{Expert}{Apparate}
-}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Europe, Great Britain, Scandinavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is said that the \name{} were the original species that were enslaved and magically altered over generations to become the House-Elves. Long considered extinct, the freeing of Dobby the House-Elf, the first Free-Elf in 1000 years, has led to a resurgence in the \name{} as a newly re-recognised species. 
-Though rejecting their former enslavement, the \name{} retain a love of order and cleanliness, and will often do chores for a household – on the condition of respect and equitable payment. They are easily offended, and if they feel denigrated or slighted, they will wreck the place, and will never return. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dobby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elleng\ae{}st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True Imp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicanery (+6), Acrobatics (+6), Speed (+0), Stealth (+6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elfin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common human languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Unknown Power}{An \name{}\apos{}s magic works on completely different rules to that wielded by humans. Magical effects imposed by an \name{} is not removed by counterspells, dispelling effects or countercurses. Anti-magic wards and other such effects do not stop an \name{} from using their abilities.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Novice level. Their Arcane Subjugation value is 11, and spells have a +2 to hit. 
-\beastSpellList{
-\beastSpell{Beginner}{Mage Hand, Levitation, Stickfast, Trip, Knockback, Contact Shock, Gust, Mark Surface, Pebbledash, Transmutation, Prank}
-\beastSpell{Novice}{Smokescreen, Warted Skin, Cause Confusion, Silent Illusion, Lock, Weld Objects}
-}}
-\ability{Pickpocket}{When making contact with another being, either physically or with their Mage Hand, use a major action to contest a Chicanery check against the target\apos{}s passive \attPer{} value. On a success, they steal something from the target, usually starting with the shinest.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Britain, Scandinavia, Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The archetypal impish prankster, the \name{}, also known as a `Puck’, or a `True Imp’ competes only with the Poltergeist for the mischief-maker\apos{}s crown. They adore slapstick comedy and petty theft, often building themselves a nest out of their stolen objects. 
-Visually, an \name{} appears to be a small, flightless fairy; a slender humanoid, approximately a foot tall. Their mouth is filled with a disturbing number of teeth, but they’re too small to harm a human, and are used to supply their mostly-insect based diet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dun\ae{}lf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior Elf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4m (walking), 3m (climbing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicanery (+6), Acrobatics (+6), Stealth (+6), Willpower (+5), Observation (+5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Unknown Power}{A \name{}\apos{}s magic works on completely different rules to that wielded by humans. Magical effects imposed by a \name{} is not removed by counterspells, dispelling effects or countercurses. Anti-magic wards and other such effects do not stop a \name{} from using their abilities.}</t>
   </si>
   <si>
     <r>
@@ -1210,10 +1467,9 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">\ability{Elfin Strike}{At the start of every turn, a \name{} attempts a stealth check against their opponent\apos{}s Observation value (passive or active, situation depending). On a success, the \name{} may take a full turn movement, use the {\it Elfshot} attack and then turn invisible all as part of the same major action. On a failure, they take their turn as normal.}
-\ranged{Elfshot}{+5}{15m}{An astral arrow shot from a magic bow causes shooting pains in the joints. Target must pass a DV 12 Vitality Resist, or take the {\it Poisoned: Mild} status effect. After being poisoned, every subsequent failed Resist from an Elfshot deals 1  more point of poison damage than the previous strike (max 8).}
-\melee{Shortsword}{+3}{Deals 1d4 slashing damage.}
-\ability{Invisibility}{A \name{} can become invisible as a minor action, magically fading from normal sight. This effect lasts until the \name{} makes an attack or casts a spell. }
+      <t xml:space="preserve">\ability{Multiattack}{The \name{} takes 2 melee attacks using any combination of club attacks or grapples.}
+\melee{Club}{reach 3m, +10}{Deals 3d8 + 4 bludgeoning damage.}
+\ranged{Rockthrow}{+7}{50m}{Deals 3d10 + 5 bludgeoning damage.}
 </t>
     </r>
     <r>
@@ -1223,175 +1479,88 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Adept level. Their Arcane Subjugation value is 14, and spells have a +4 to hit. 
-\beastSpellList{
-\beastSpell{Beginner}{Mage Hand, Trip, Knockback, Gust, Pebbledash}
-\beastSpell{Novice}{Smokescreen, Warted Skin, Cause Confusion, Silent Illusion, Ignite, Hunter\apos{}s Mark, Bolt from the Blue, Create Trap}
-}}
+      <t xml:space="preserve">\ability{Giant Grapple}{On initiating a grapple, a giant may lift a target high into the air. Target is {\it Trapped} and all ability checks are at a disadvantage. Breaking the grapple causes the target to fall, taking 4d4 bludgeoning damage and taking the {\it Prone Position} status.}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A \name{} dedicates their life to combat – be it hunting for supplies, or fighting in the mighty giant wars and skirmishes that saturate history. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Gurg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clan Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength (+13), Vitality (+13), Intimidation (+13), Willpower (+8), Observation (+7)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Magic Resistance}{A \name{} is immune to all spells cast at or below Adept level, is considered Resistant to all damage inflicted by spell attacks and takes advantage on all Resist checks against spells. These resistances are negated if the damage inflicted is {\it Psychic}.}
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">40cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The warriors and guardians of the Elves, the \name{} make great use of their nimble nature and their ability to turn invisible, more than making up for their diminutive stature. The \name{} also wield magical bows which inflict agonising pain on their targets. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dunaelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V\ae{}ttir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental Elf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6m (walking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicanery (+5), Willpower (+6), Arcane (+4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spell damage from the {\it Elemental} discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Adept level. Their Arcane Subjugation value is 15, and spells have a +6 to hit. 
-A \name{} knows all Elemental spells up to Adept level, and can upcast all spells to this level. A \name{} will preferably use spells associated with its bonded element, though this is a preference and not a limitation.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The least human-like of the elves, the \name{} are a species of elves which have an affinity for the primal elements, and the associated magics. 
-Though capable of wielding all of the elements, many \name{} find themselves drawn to one element in particular. This reflects in their outwards appearance, which slowly begins to shift and change. A fire-bound \name{} grows a fiery red beard and orange eyes, whilst a water-bound \name{}\apos{}s skin turns blue and appears permanently damp. Current arcane knowledge has found no additional abilities granted with this change, so it is unknown if there is any particular reason for this `bonding’ process to occur. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaettir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hulduf{\'o}lk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elf-princes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicanery (+11), Willpower (+11), Persuasion (+12), Nature (+9), Empathy (+9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asleep, Charmed, Exhausted, Terrified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slashing, Bludgeoning and Piercing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nightvision (25m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Innate Spellcasting}{A \name{} can cast the following spells as silent, wandless actions. They can upcast known spells to Novice level. Their Arcane Subjugation value is 17 and all spells have a +6 to hit.
-\beastSpellList{
-\beastSpell{Beginner}{}
-}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Call to Court}{A \name{} can summon their forces to court, opening a number of portals across the multiverse. The number of Elves which respond to the call depends on the power of the Prince, but typically lies between 2d4 and 10d12.}
-\ability{Tremble}{The ground rumbles and shakes with magical power. All beings in contact with the ground besides the Elf-Prince must make an Acrobatics Resist against the \name{}\apos{}s Arcane Subjugation, or be knocked prone.}
-\ability{Bind}{Roots, branches and vines reach out to bind an individual in place, rendering them {\it Incapacitated}. At the end of each turn, the ensnared individual may attempt to break free using a Strength Resist.}
-\ability{Blink}{The \name{} can instantly disappear and reappear anywhere within the court. All attacks directed at them this turn cycle miss, unless they move to an area caught within a specified area of effect of an attack.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The \name{} (Icelandic for {\it The Hidden People}) are powerful extraplanar beings which most closely resemble the Tolkenien elves, for they appear as $\sim$5ft humanoids of exceptional, unearthly beauty and appear to glow from within with a golden radiance. 
-The \name{} reside within a group of dimensions known as the {\it Seelie Courts}, which lie close to the Astral realm. Each Seelie Court is a verdant paradise, populated entirely by elves, both those species which are found on Earth, and myriad others.
-Each Court is ruled over by an Elf-Prince, the most powerful \name{} in the Court, as well as their advisors and attendants. Typically these offices are all held by other \name{}s, though rarely you may find a Dun\ae{}lf or V\ae{}ttir who has risen through the ranks of the Court to serve in these lofty positions. 
-Even those elves which reside on Earth are (technically) members of a Court, and must obey the summons from their Prince when it is time for them to attend their Seelie Court, failure to do so leads to expulsion (or worse). In reality, however, the Seelie Courts are rarely called in such a manner and Earthbound elves may not even know that they belong to a Court until the summons arrives. 
-The \name{} wield immense and powerful magic, which they primarily use to cause mischief, mayhem and to disrupt the plans of the other members of the courts. The most famous conflict between various courts is that between Oberon and Titania, with the conflict spilling over into the Mortal Plane on more than one occasion, even making its way into the muggle subconscious. 
-On rare occasions a Court can become corrupted by evil – either due to the profane actions of the Prince themselves, or because of some external corrupting influence such as a Voidic Incursion. A corrupted court is known as an {\it Unseelie Court}, and is often a source of violence, conflict and further corruption. 
-Though not all \name{}s are Elf-Princes, those which are have access to the specified {\it Lair Actions} whilst they remain in their Court. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">huldufolk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pixie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True Fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draconic Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobalug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plimpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackled Malaclaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundimun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horklump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigantoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clan Leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Warrior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enormous Primal Warrior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Civilian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigantic Humanoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Elder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wise(ish) Civilian Leader</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Vulnerable Eyes}{When performing an attack which requires an accuracy roll, the attacker may choose to aim for the eyes. This grants a +5 bonus to the defensive Instincts, but such attacks bypass the {\it Magic Resistance} ability (if a spell), or the damage is rolled at advantage (if a physical weapon).}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+\ability{Reckless Attacks}{A Gurg can choose to make their melee attacks {\it Reckless}, taking advantage on accuracy rolls, but giving advantage on any accuracy rolls made against them this turn.}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Multiattack}{The \name{} takes 3 melee attacks using any combination of greataxe attacks or grapples.}
+\melee{Greataxe}{reach 3m, +13}{Deals 3d8 + 4 bludgeoning damage.}
+\ranged{Rockthrow}{+10}{50m}{Deals 3d10 + 5 bludgeoning damage.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Giant Grapple}{On initiating a grapple, a giant may lift a target high into the air. Target is {\it Trapped} and all ability checks are at a disadvantage. Breaking the grapple causes the target to fall, taking 4d4 bludgeoning damage and taking the {\it Prone Position} status.}
+\ability{Return Missile}{{\it (Reaction)} If a rock or other such missile is launched at the \name{}, they can attempt a DV 10 \attFin{} Resist check to snare it in midair before it can deal damage, and then use the {\it Rockthrow} ability to hurl it back at the attacker.}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\blindtext{5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurg</t>
   </si>
   <si>
     <t xml:space="preserve">Crystal Golem</t>
@@ -1954,7 +2123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1987,6 +2156,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2015,11 +2188,11 @@
   <dimension ref="A1:AM155"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AD60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AC68" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
-      <selection pane="bottomRight" activeCell="AE61" activeCellId="0" sqref="AE61"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="AC77" activeCellId="0" sqref="AC77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4715,7 +4888,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>1</v>
       </c>
@@ -4813,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>2</v>
       </c>
@@ -4883,10 +5056,10 @@
       <c r="AB57" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AD57" s="8" t="s">
+      <c r="AD57" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AE57" s="8" t="s">
+      <c r="AE57" s="2" t="s">
         <v>319</v>
       </c>
       <c r="AG57" s="1" t="s">
@@ -4987,10 +5160,10 @@
       <c r="AC58" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AD58" s="8" t="s">
+      <c r="AD58" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AE58" s="8" t="s">
+      <c r="AE58" s="2" t="s">
         <v>330</v>
       </c>
       <c r="AG58" s="1" t="s">
@@ -5031,7 +5204,7 @@
       <c r="E59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="8" t="s">
         <v>236</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -5085,7 +5258,7 @@
       <c r="AB59" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AD59" s="8" t="s">
+      <c r="AD59" s="2" t="s">
         <v>339</v>
       </c>
       <c r="AE59" s="2" t="s">
@@ -5129,7 +5302,7 @@
       <c r="E60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="8" t="s">
         <v>236</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -5186,10 +5359,10 @@
       <c r="AB60" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AD60" s="8" t="s">
+      <c r="AD60" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AE60" s="8" t="s">
+      <c r="AE60" s="2" t="s">
         <v>349</v>
       </c>
       <c r="AG60" s="1" t="s">
@@ -5214,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="313.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>6</v>
       </c>
@@ -5230,7 +5403,7 @@
       <c r="E61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="8" t="s">
         <v>260</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -5290,10 +5463,10 @@
       <c r="AB61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD61" s="8" t="s">
+      <c r="AD61" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AE61" s="8" t="s">
+      <c r="AE61" s="2" t="s">
         <v>359</v>
       </c>
       <c r="AF61" s="2" t="s">
@@ -5570,7 +5743,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>380</v>
       </c>
@@ -5578,7 +5754,7 @@
         <v>381</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>120</v>
@@ -5589,10 +5765,85 @@
       <c r="G74" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD74" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE74" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ74" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK74" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL74" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM74" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="B75" s="1" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>381</v>
@@ -5607,18 +5858,93 @@
         <v>382</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="U75" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD75" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE75" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ75" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AK75" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="AL75" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM75" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="99" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="B76" s="1" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>381</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>120</v>
@@ -5627,18 +5953,93 @@
         <v>382</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="V76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z76" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB76" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD76" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE76" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ76" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK76" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL76" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM76" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="B77" s="1" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>381</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>120</v>
@@ -5647,15 +6048,87 @@
         <v>382</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>389</v>
+        <v>411</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD77" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE77" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ77" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK77" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL77" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AM77" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>5</v>
@@ -5672,10 +6145,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>5</v>
@@ -5692,10 +6165,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>5</v>
@@ -5712,10 +6185,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>2</v>
@@ -5732,10 +6205,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>2</v>
@@ -5752,10 +6225,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>5</v>
@@ -5764,7 +6237,7 @@
         <v>120</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="AJ83" s="1" t="s">
         <v>232</v>
@@ -5772,10 +6245,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>5</v>
@@ -5784,7 +6257,7 @@
         <v>120</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="AJ84" s="1" t="s">
         <v>232</v>
@@ -5792,10 +6265,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>5</v>
@@ -5804,7 +6277,7 @@
         <v>120</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="AJ85" s="1" t="s">
         <v>232</v>
@@ -5812,10 +6285,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>6</v>
@@ -5824,7 +6297,7 @@
         <v>120</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="AJ86" s="1" t="s">
         <v>232</v>
@@ -5832,10 +6305,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>5</v>
@@ -5852,10 +6325,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>5</v>
@@ -5872,10 +6345,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>3</v>
@@ -5892,10 +6365,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>5</v>
@@ -5912,10 +6385,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>2</v>
@@ -5932,10 +6405,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>2</v>
@@ -5952,10 +6425,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>3</v>
@@ -5972,10 +6445,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>5</v>
@@ -5992,10 +6465,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>4</v>
@@ -6012,10 +6485,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>4</v>
@@ -6032,10 +6505,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>5</v>
@@ -6055,10 +6528,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -6078,10 +6551,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>1</v>
@@ -6101,10 +6574,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>1</v>
@@ -6124,10 +6597,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>2</v>
@@ -6144,10 +6617,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>2</v>
@@ -6164,10 +6637,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>3</v>
@@ -6184,10 +6657,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>3</v>
@@ -6207,10 +6680,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>6</v>
@@ -6219,10 +6692,10 @@
         <v>120</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="H105" s="1" t="n">
         <v>150</v>
@@ -6261,7 +6734,7 @@
         <v>6</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="U105" s="1" t="n">
         <v>11</v>
@@ -6270,19 +6743,19 @@
         <v>14</v>
       </c>
       <c r="Y105" s="1" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="AE105" s="2" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="AM105" s="1" t="n">
         <v>1</v>
@@ -6293,10 +6766,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>4</v>
@@ -6308,7 +6781,7 @@
         <v>151</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>10</v>
@@ -6317,7 +6790,7 @@
         <v>50</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="K106" s="1" t="n">
         <v>3</v>
@@ -6347,7 +6820,7 @@
         <v>5</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="U106" s="1" t="n">
         <v>0</v>
@@ -6356,25 +6829,25 @@
         <v>13</v>
       </c>
       <c r="X106" s="1" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="Z106" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="AJ106" s="1" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AL106" s="1" t="n">
         <v>0.3</v>
@@ -6388,10 +6861,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>6</v>
@@ -6400,10 +6873,10 @@
         <v>120</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>200</v>
@@ -6442,7 +6915,7 @@
         <v>7</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="U107" s="1" t="n">
         <v>13</v>
@@ -6451,19 +6924,19 @@
         <v>16</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AE107" s="2" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ107" s="1" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="AM107" s="1" t="n">
         <v>1</v>
@@ -6474,10 +6947,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>7</v>
@@ -6489,7 +6962,7 @@
         <v>42</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>250</v>
@@ -6498,7 +6971,7 @@
         <v>300</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="K108" s="1" t="n">
         <v>17</v>
@@ -6528,7 +7001,7 @@
         <v>10</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="U108" s="1" t="n">
         <v>15</v>
@@ -6537,25 +7010,25 @@
         <v>16</v>
       </c>
       <c r="X108" s="1" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="Y108" s="1" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="AE108" s="2" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="AJ108" s="1" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="AL108" s="1" t="n">
         <v>0.46</v>
@@ -6566,10 +7039,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>1</v>
@@ -6589,10 +7062,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>1</v>
@@ -6612,10 +7085,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>2</v>
@@ -6632,10 +7105,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>2</v>
@@ -6652,10 +7125,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>2</v>
@@ -6675,10 +7148,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>2</v>
@@ -6695,10 +7168,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>6</v>
@@ -6715,10 +7188,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>1</v>
@@ -6738,10 +7211,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>2</v>
@@ -6758,10 +7231,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>7</v>
@@ -6778,10 +7251,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>3</v>
@@ -6798,10 +7271,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>4</v>
@@ -6818,10 +7291,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>4</v>
@@ -6838,10 +7311,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>4</v>
@@ -6858,10 +7331,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>5</v>
@@ -6878,10 +7351,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="D124" s="1" t="n">
         <v>6</v>
@@ -6898,10 +7371,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>1</v>
@@ -6921,10 +7394,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>1</v>
@@ -6941,10 +7414,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="D127" s="1" t="n">
         <v>2</v>
@@ -6961,10 +7434,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="D128" s="2" t="n">
         <v>2</v>
@@ -6981,10 +7454,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>3</v>
@@ -7001,10 +7474,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>4</v>
@@ -7021,10 +7494,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>4</v>
@@ -7041,10 +7514,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>0</v>
@@ -7064,10 +7537,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>1</v>
@@ -7087,10 +7560,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="D134" s="1" t="n">
         <v>6</v>
@@ -7107,10 +7580,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>4</v>
@@ -7119,7 +7592,7 @@
         <v>41</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="AJ135" s="1" t="s">
         <v>232</v>
@@ -7127,10 +7600,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>4</v>
@@ -7139,7 +7612,7 @@
         <v>41</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="AJ136" s="1" t="s">
         <v>232</v>
@@ -7147,10 +7620,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="D137" s="1" t="n">
         <v>3</v>
@@ -7167,10 +7640,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>1</v>
@@ -7187,10 +7660,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>3</v>
@@ -7207,10 +7680,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="D140" s="1" t="n">
         <v>3</v>
@@ -7227,10 +7700,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="D141" s="2" t="n">
         <v>3</v>
@@ -7247,10 +7720,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>5</v>
@@ -7267,10 +7740,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>6</v>
@@ -7287,10 +7760,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>6</v>
@@ -7307,10 +7780,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="D145" s="1" t="n">
         <v>4</v>
@@ -7330,10 +7803,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>4</v>
@@ -7350,10 +7823,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>5</v>
@@ -7370,10 +7843,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>6</v>
@@ -7390,10 +7863,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>3</v>
@@ -7408,7 +7881,7 @@
         <v>232</v>
       </c>
       <c r="AK149" s="1" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="AL149" s="1" t="n">
         <v>0.5</v>
@@ -7416,10 +7889,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="2" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>4</v>
@@ -7434,7 +7907,7 @@
         <v>232</v>
       </c>
       <c r="AK150" s="1" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="AL150" s="1" t="n">
         <v>0.5</v>
@@ -7442,10 +7915,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>5</v>
@@ -7460,7 +7933,7 @@
         <v>232</v>
       </c>
       <c r="AK151" s="1" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="AL151" s="1" t="n">
         <v>0.6</v>
@@ -7468,10 +7941,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="D152" s="1" t="n">
         <v>4</v>
@@ -7480,7 +7953,7 @@
         <v>120</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="AJ152" s="1" t="s">
         <v>232</v>
@@ -7488,10 +7961,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="D153" s="1" t="n">
         <v>6</v>
@@ -7508,10 +7981,10 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="2" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>5</v>
@@ -7528,10 +8001,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="2" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>5</v>
@@ -7547,7 +8020,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM155"/>
+  <autoFilter ref="A1:AL155"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
